--- a/elections/verification/data/students_db.xlsx
+++ b/elections/verification/data/students_db.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="496">
   <si>
     <t>PROVINCE</t>
   </si>
@@ -1159,10 +1159,10 @@
     <t>Nakibinge Simon</t>
   </si>
   <si>
-    <t>oY2iuAOwzqgXc9s</t>
-  </si>
-  <si>
-    <t>zWRTjCKY</t>
+    <t>u9Kif7rhEZb1RHY</t>
+  </si>
+  <si>
+    <t>T5wSKezl</t>
   </si>
   <si>
     <t>13258281883</t>
@@ -1171,13 +1171,10 @@
     <t>slemonla13@gmail.com</t>
   </si>
   <si>
-    <t>2022/03/17 10:22:18</t>
+    <t>2022/03/17 14:36:36</t>
   </si>
   <si>
     <t>Rukundo Emmanuel</t>
-  </si>
-  <si>
-    <t>emmanuelrukundo97@gmail.com</t>
   </si>
   <si>
     <t>Tianjin</t>
@@ -1552,7 +1549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1566,6 +1563,9 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -1870,7 +1870,7 @@
   <dimension ref="A1:K276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I301" sqref="I301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1880,9 +1880,9 @@
     <col min="3" max="3" width="36.875" customWidth="true" style="1"/>
     <col min="4" max="4" width="5.25" customWidth="true" style="1"/>
     <col min="5" max="5" width="14.75" customWidth="true" style="1"/>
-    <col min="6" max="6" width="15.5" customWidth="true" style="1"/>
-    <col min="7" max="7" width="10.375" customWidth="true" style="1"/>
-    <col min="8" max="8" width="13.625" customWidth="true" style="2"/>
+    <col min="6" max="6" width="14.375" customWidth="true" style="1"/>
+    <col min="7" max="7" width="9.875" customWidth="true" style="1"/>
+    <col min="8" max="8" width="16.25" customWidth="true" style="2"/>
     <col min="9" max="9" width="18.5" customWidth="true" style="1"/>
     <col min="10" max="10" width="29.125" customWidth="true" style="0"/>
   </cols>
@@ -7543,190 +7543,188 @@
       <c r="H235" s="3">
         <v>2021</v>
       </c>
-      <c r="I235" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="J235" s="4" t="s">
-        <v>386</v>
-      </c>
+      <c r="I235" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J235" s="4"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="C236" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="D236" s="1">
+        <f>ROW() - 1</f>
+        <v>235</v>
+      </c>
+      <c r="G236" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="D236" s="1">
-        <f>ROW() - 1</f>
-        <v>235</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="H236" s="3">
         <v>2023</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="D237" s="1">
+        <f>ROW() - 1</f>
+        <v>236</v>
+      </c>
+      <c r="G237" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="D237" s="1">
-        <f>ROW() - 1</f>
-        <v>236</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="H237" s="3">
         <v>2024</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C238" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="D238" s="1">
         <f>ROW() - 1</f>
         <v>237</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H238" s="3">
         <v>2021</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C239" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="D239" s="1">
         <f>ROW() - 1</f>
         <v>238</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H239" s="3">
         <v>2023</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C240" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="D240" s="1">
         <f>ROW() - 1</f>
         <v>239</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H240" s="3">
         <v>2024</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="D241" s="1">
+        <f>ROW() - 1</f>
+        <v>240</v>
+      </c>
+      <c r="G241" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="D241" s="1">
-        <f>ROW() - 1</f>
-        <v>240</v>
-      </c>
-      <c r="G241" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="H241" s="3">
         <v>2021</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C242" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="D242" s="1">
         <f>ROW() - 1</f>
         <v>241</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H242" s="3">
         <v>2021</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="C243" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="D243" s="1">
         <f>ROW() - 1</f>
@@ -7739,18 +7737,18 @@
         <v>0</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="D244" s="1">
         <f>ROW() - 1</f>
@@ -7763,18 +7761,18 @@
         <v>0</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="D245" s="1">
         <f>ROW() - 1</f>
@@ -7787,18 +7785,18 @@
         <v>0</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D246" s="1">
         <f>ROW() - 1</f>
@@ -7811,18 +7809,18 @@
         <v>0</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="D247" s="1">
         <f>ROW() - 1</f>
@@ -7835,18 +7833,18 @@
         <v>0</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="D248" s="1">
         <f>ROW() - 1</f>
@@ -7859,39 +7857,39 @@
         <v>0</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="D249" s="1">
+        <f>ROW() - 1</f>
+        <v>248</v>
+      </c>
+      <c r="H249" s="3">
+        <v>0</v>
+      </c>
+      <c r="I249" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="D249" s="1">
-        <f>ROW() - 1</f>
-        <v>248</v>
-      </c>
-      <c r="H249" s="3">
-        <v>0</v>
-      </c>
-      <c r="I249" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="D250" s="1">
         <f>ROW() - 1</f>
@@ -7904,42 +7902,42 @@
         <v>0</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C251" s="1" t="s">
-        <v>437</v>
-      </c>
       <c r="D251" s="1">
         <f>ROW() - 1</f>
         <v>250</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H251" s="3">
         <v>2023</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D252" s="1">
         <f>ROW() - 1</f>
@@ -7952,18 +7950,18 @@
         <v>0</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D253" s="1">
         <f>ROW() - 1</f>
@@ -7976,18 +7974,18 @@
         <v>0</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="D254" s="1">
         <f>ROW() - 1</f>
@@ -8000,90 +7998,90 @@
         <v>0</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="D255" s="1">
+        <f>ROW() - 1</f>
+        <v>254</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H255" s="3">
+        <v>0</v>
+      </c>
+      <c r="I255" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="D255" s="1">
-        <f>ROW() - 1</f>
-        <v>254</v>
-      </c>
-      <c r="G255" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H255" s="3">
-        <v>0</v>
-      </c>
-      <c r="I255" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C256" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="D256" s="1">
         <f>ROW() - 1</f>
         <v>255</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H256" s="3">
         <v>2022</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D257" s="1">
+        <f>ROW() - 1</f>
+        <v>256</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H257" s="3">
+        <v>0</v>
+      </c>
+      <c r="I257" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D257" s="1">
-        <f>ROW() - 1</f>
-        <v>256</v>
-      </c>
-      <c r="G257" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H257" s="3">
-        <v>0</v>
-      </c>
-      <c r="I257" s="1" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D258" s="1">
         <f>ROW() - 1</f>
@@ -8096,42 +8094,42 @@
         <v>0</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D259" s="1">
         <f>ROW() - 1</f>
         <v>258</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H259" s="3">
         <v>2021</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="D260" s="1">
         <f>ROW() - 1</f>
@@ -8143,106 +8141,106 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="D261" s="1">
+        <f>ROW() - 1</f>
+        <v>260</v>
+      </c>
+      <c r="H261" s="3">
+        <v>0</v>
+      </c>
+      <c r="I261" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="D261" s="1">
-        <f>ROW() - 1</f>
-        <v>260</v>
-      </c>
-      <c r="H261" s="3">
-        <v>0</v>
-      </c>
-      <c r="I261" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D262" s="1">
         <f>ROW() - 1</f>
         <v>261</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H262" s="3">
         <v>2023</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C263" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="D263" s="1">
         <f>ROW() - 1</f>
         <v>262</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H263" s="3">
         <v>2022</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D264" s="1">
         <f>ROW() - 1</f>
         <v>263</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H264" s="3">
         <v>2022</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D265" s="1">
         <f>ROW() - 1</f>
@@ -8255,18 +8253,18 @@
         <v>0</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D266" s="1">
         <f>ROW() - 1</f>
@@ -8279,84 +8277,84 @@
         <v>0</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D267" s="1">
         <f>ROW() - 1</f>
         <v>266</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H267" s="3">
         <v>2023</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="D268" s="1">
+        <f>ROW() - 1</f>
+        <v>267</v>
+      </c>
+      <c r="H268" s="3">
+        <v>0</v>
+      </c>
+      <c r="I268" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="D268" s="1">
-        <f>ROW() - 1</f>
-        <v>267</v>
-      </c>
-      <c r="H268" s="3">
-        <v>0</v>
-      </c>
-      <c r="I268" s="1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="D269" s="1">
+        <f>ROW() - 1</f>
+        <v>268</v>
+      </c>
+      <c r="H269" s="3">
+        <v>0</v>
+      </c>
+      <c r="I269" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="D269" s="1">
-        <f>ROW() - 1</f>
-        <v>268</v>
-      </c>
-      <c r="H269" s="3">
-        <v>0</v>
-      </c>
-      <c r="I269" s="1" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="D270" s="1">
         <f>ROW() - 1</f>
@@ -8369,18 +8367,18 @@
         <v>0</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D271" s="1">
         <f>ROW() - 1</f>
@@ -8393,18 +8391,18 @@
         <v>0</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D272" s="1">
         <f>ROW() - 1</f>
@@ -8417,18 +8415,18 @@
         <v>0</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D273" s="1">
         <f>ROW() - 1</f>
@@ -8441,91 +8439,87 @@
         <v>0</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D274" s="1">
         <f>ROW() - 1</f>
         <v>273</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H274" s="3">
         <v>2022</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D275" s="1">
         <f>ROW() - 1</f>
         <v>274</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H275" s="3">
         <v>2021</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D276" s="1">
         <f>ROW() - 1</f>
         <v>275</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H276" s="3">
         <v>2023</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <autoFilter ref="A1:I276"/>
-  <hyperlinks>
-    <hyperlink ref="I235" r:id="rId_hyperlink_1"/>
-    <hyperlink ref="J235" r:id="rId_hyperlink_2"/>
-  </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/elections/verification/data/students_db.xlsx
+++ b/elections/verification/data/students_db.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20338"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ampps\www\usac-website\elections\verification\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3982B9F6-700C-4879-BF36-1D6FC4C67FAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$I$276</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$276</definedName>
   </definedNames>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="999999"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="492">
   <si>
     <t>PROVINCE</t>
   </si>
@@ -1159,19 +1165,7 @@
     <t>Nakibinge Simon</t>
   </si>
   <si>
-    <t>u9Kif7rhEZb1RHY</t>
-  </si>
-  <si>
-    <t>T5wSKezl</t>
-  </si>
-  <si>
     <t>13258281883</t>
-  </si>
-  <si>
-    <t>slemonla13@gmail.com</t>
-  </si>
-  <si>
-    <t>2022/03/17 14:36:36</t>
   </si>
   <si>
     <t>Rukundo Emmanuel</t>
@@ -1510,26 +1504,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1537,43 +1530,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1863,31 +1861,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I301" sqref="I301"/>
+    <sheetView tabSelected="1" topLeftCell="C268" workbookViewId="0">
+      <selection activeCell="K234" sqref="K234"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="true" style="1"/>
-    <col min="2" max="2" width="37" customWidth="true" style="1"/>
-    <col min="3" max="3" width="36.875" customWidth="true" style="1"/>
-    <col min="4" max="4" width="5.25" customWidth="true" style="1"/>
-    <col min="5" max="5" width="14.75" customWidth="true" style="1"/>
-    <col min="6" max="6" width="14.375" customWidth="true" style="1"/>
-    <col min="7" max="7" width="9.875" customWidth="true" style="1"/>
-    <col min="8" max="8" width="16.25" customWidth="true" style="2"/>
-    <col min="9" max="9" width="18.5" customWidth="true" style="1"/>
-    <col min="10" max="10" width="29.125" customWidth="true" style="0"/>
+    <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1922,7 +1917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1933,7 +1928,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" ref="D2:D65" si="0">ROW() - 1</f>
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1946,7 +1941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1957,7 +1952,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1970,7 +1965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1981,7 +1976,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1994,7 +1989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2005,7 +2000,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2018,7 +2013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2029,7 +2024,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -2042,7 +2037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2053,7 +2048,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -2066,7 +2061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2077,7 +2072,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -2090,7 +2085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2101,7 +2096,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -2114,7 +2109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2125,7 +2120,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -2138,7 +2133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -2149,7 +2144,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -2162,7 +2157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -2173,7 +2168,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -2186,7 +2181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -2197,7 +2192,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -2210,7 +2205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -2221,7 +2216,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -2234,7 +2229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -2245,7 +2240,7 @@
         <v>36</v>
       </c>
       <c r="D15" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -2258,7 +2253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -2269,7 +2264,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -2282,7 +2277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2293,7 +2288,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -2306,7 +2301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -2317,7 +2312,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -2330,7 +2325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -2341,7 +2336,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -2354,7 +2349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -2365,7 +2360,7 @@
         <v>29</v>
       </c>
       <c r="D20" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -2378,7 +2373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -2389,7 +2384,7 @@
         <v>45</v>
       </c>
       <c r="D21" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -2402,7 +2397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -2413,7 +2408,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -2426,7 +2421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -2437,7 +2432,7 @@
         <v>48</v>
       </c>
       <c r="D23" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -2450,7 +2445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -2461,7 +2456,7 @@
         <v>29</v>
       </c>
       <c r="D24" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -2474,7 +2469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -2485,7 +2480,7 @@
         <v>52</v>
       </c>
       <c r="D25" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -2498,7 +2493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -2509,7 +2504,7 @@
         <v>54</v>
       </c>
       <c r="D26" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2522,7 +2517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -2533,7 +2528,7 @@
         <v>52</v>
       </c>
       <c r="D27" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -2546,7 +2541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2557,7 +2552,7 @@
         <v>58</v>
       </c>
       <c r="D28" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -2570,7 +2565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -2581,7 +2576,7 @@
         <v>60</v>
       </c>
       <c r="D29" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -2594,7 +2589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -2605,7 +2600,7 @@
         <v>62</v>
       </c>
       <c r="D30" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -2618,7 +2613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -2629,7 +2624,7 @@
         <v>65</v>
       </c>
       <c r="D31" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -2642,7 +2637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
@@ -2653,7 +2648,7 @@
         <v>65</v>
       </c>
       <c r="D32" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -2666,7 +2661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
@@ -2677,7 +2672,7 @@
         <v>65</v>
       </c>
       <c r="D33" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -2690,7 +2685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>63</v>
       </c>
@@ -2701,7 +2696,7 @@
         <v>65</v>
       </c>
       <c r="D34" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -2714,7 +2709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -2725,7 +2720,7 @@
         <v>70</v>
       </c>
       <c r="D35" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -2738,7 +2733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>63</v>
       </c>
@@ -2749,7 +2744,7 @@
         <v>72</v>
       </c>
       <c r="D36" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -2762,7 +2757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
@@ -2773,7 +2768,7 @@
         <v>75</v>
       </c>
       <c r="D37" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -2786,7 +2781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2792,7 @@
         <v>77</v>
       </c>
       <c r="D38" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -2810,7 +2805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
@@ -2821,7 +2816,7 @@
         <v>75</v>
       </c>
       <c r="D39" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -2834,7 +2829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
@@ -2845,7 +2840,7 @@
         <v>77</v>
       </c>
       <c r="D40" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -2858,7 +2853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>73</v>
       </c>
@@ -2869,7 +2864,7 @@
         <v>77</v>
       </c>
       <c r="D41" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -2882,7 +2877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>81</v>
       </c>
@@ -2893,7 +2888,7 @@
         <v>83</v>
       </c>
       <c r="D42" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -2906,7 +2901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>81</v>
       </c>
@@ -2917,7 +2912,7 @@
         <v>85</v>
       </c>
       <c r="D43" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -2930,7 +2925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>81</v>
       </c>
@@ -2941,7 +2936,7 @@
         <v>87</v>
       </c>
       <c r="D44" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -2954,7 +2949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>81</v>
       </c>
@@ -2965,7 +2960,7 @@
         <v>89</v>
       </c>
       <c r="D45" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -2978,7 +2973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
@@ -2989,7 +2984,7 @@
         <v>87</v>
       </c>
       <c r="D46" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -3002,7 +2997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>81</v>
       </c>
@@ -3013,7 +3008,7 @@
         <v>87</v>
       </c>
       <c r="D47" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -3026,7 +3021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>81</v>
       </c>
@@ -3037,7 +3032,7 @@
         <v>87</v>
       </c>
       <c r="D48" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -3050,7 +3045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>81</v>
       </c>
@@ -3061,7 +3056,7 @@
         <v>83</v>
       </c>
       <c r="D49" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -3074,7 +3069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>81</v>
       </c>
@@ -3085,7 +3080,7 @@
         <v>87</v>
       </c>
       <c r="D50" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -3098,7 +3093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>81</v>
       </c>
@@ -3109,7 +3104,7 @@
         <v>96</v>
       </c>
       <c r="D51" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -3122,7 +3117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,7 +3128,7 @@
         <v>87</v>
       </c>
       <c r="D52" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -3146,7 +3141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>81</v>
       </c>
@@ -3157,7 +3152,7 @@
         <v>87</v>
       </c>
       <c r="D53" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -3170,7 +3165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>99</v>
       </c>
@@ -3181,7 +3176,7 @@
         <v>100</v>
       </c>
       <c r="D54" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -3194,7 +3189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>99</v>
       </c>
@@ -3205,7 +3200,7 @@
         <v>102</v>
       </c>
       <c r="D55" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -3218,7 +3213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>99</v>
       </c>
@@ -3229,7 +3224,7 @@
         <v>104</v>
       </c>
       <c r="D56" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -3242,7 +3237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>99</v>
       </c>
@@ -3253,7 +3248,7 @@
         <v>106</v>
       </c>
       <c r="D57" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -3266,7 +3261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
@@ -3277,7 +3272,7 @@
         <v>108</v>
       </c>
       <c r="D58" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -3290,7 +3285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>99</v>
       </c>
@@ -3301,7 +3296,7 @@
         <v>110</v>
       </c>
       <c r="D59" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -3314,7 +3309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>99</v>
       </c>
@@ -3325,7 +3320,7 @@
         <v>102</v>
       </c>
       <c r="D60" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -3338,7 +3333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>99</v>
       </c>
@@ -3349,7 +3344,7 @@
         <v>113</v>
       </c>
       <c r="D61" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -3362,7 +3357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>99</v>
       </c>
@@ -3373,7 +3368,7 @@
         <v>115</v>
       </c>
       <c r="D62" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -3386,7 +3381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>99</v>
       </c>
@@ -3397,7 +3392,7 @@
         <v>117</v>
       </c>
       <c r="D63" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -3410,7 +3405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>99</v>
       </c>
@@ -3421,7 +3416,7 @@
         <v>110</v>
       </c>
       <c r="D64" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -3434,7 +3429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>99</v>
       </c>
@@ -3445,7 +3440,7 @@
         <v>113</v>
       </c>
       <c r="D65" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -3458,7 +3453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>99</v>
       </c>
@@ -3469,7 +3464,7 @@
         <v>113</v>
       </c>
       <c r="D66" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" ref="D66:D129" si="1">ROW() - 1</f>
         <v>65</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -3482,7 +3477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>99</v>
       </c>
@@ -3493,7 +3488,7 @@
         <v>122</v>
       </c>
       <c r="D67" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -3506,7 +3501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>99</v>
       </c>
@@ -3517,7 +3512,7 @@
         <v>102</v>
       </c>
       <c r="D68" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="G68" s="1" t="s">
@@ -3530,7 +3525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>99</v>
       </c>
@@ -3541,7 +3536,7 @@
         <v>100</v>
       </c>
       <c r="D69" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="G69" s="1" t="s">
@@ -3554,7 +3549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>99</v>
       </c>
@@ -3565,7 +3560,7 @@
         <v>113</v>
       </c>
       <c r="D70" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="G70" s="1" t="s">
@@ -3578,7 +3573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>99</v>
       </c>
@@ -3589,7 +3584,7 @@
         <v>115</v>
       </c>
       <c r="D71" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="G71" s="1" t="s">
@@ -3602,7 +3597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>99</v>
       </c>
@@ -3613,7 +3608,7 @@
         <v>108</v>
       </c>
       <c r="D72" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -3626,7 +3621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>99</v>
       </c>
@@ -3637,7 +3632,7 @@
         <v>115</v>
       </c>
       <c r="D73" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -3650,7 +3645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>99</v>
       </c>
@@ -3661,7 +3656,7 @@
         <v>113</v>
       </c>
       <c r="D74" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -3674,7 +3669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>99</v>
       </c>
@@ -3685,7 +3680,7 @@
         <v>117</v>
       </c>
       <c r="D75" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -3698,7 +3693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>99</v>
       </c>
@@ -3709,7 +3704,7 @@
         <v>113</v>
       </c>
       <c r="D76" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -3722,7 +3717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>99</v>
       </c>
@@ -3733,7 +3728,7 @@
         <v>117</v>
       </c>
       <c r="D77" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -3746,7 +3741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>99</v>
       </c>
@@ -3757,7 +3752,7 @@
         <v>117</v>
       </c>
       <c r="D78" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="G78" s="1" t="s">
@@ -3770,7 +3765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>99</v>
       </c>
@@ -3781,7 +3776,7 @@
         <v>108</v>
       </c>
       <c r="D79" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="G79" s="1" t="s">
@@ -3794,7 +3789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>99</v>
       </c>
@@ -3805,7 +3800,7 @@
         <v>113</v>
       </c>
       <c r="D80" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="G80" s="1" t="s">
@@ -3818,7 +3813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>99</v>
       </c>
@@ -3829,7 +3824,7 @@
         <v>113</v>
       </c>
       <c r="D81" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="G81" s="1" t="s">
@@ -3842,7 +3837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>99</v>
       </c>
@@ -3853,7 +3848,7 @@
         <v>113</v>
       </c>
       <c r="D82" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="G82" s="1" t="s">
@@ -3866,7 +3861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>99</v>
       </c>
@@ -3877,7 +3872,7 @@
         <v>117</v>
       </c>
       <c r="D83" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="G83" s="1" t="s">
@@ -3890,7 +3885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>99</v>
       </c>
@@ -3901,7 +3896,7 @@
         <v>115</v>
       </c>
       <c r="D84" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="G84" s="1" t="s">
@@ -3914,7 +3909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>99</v>
       </c>
@@ -3925,7 +3920,7 @@
         <v>113</v>
       </c>
       <c r="D85" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="G85" s="1" t="s">
@@ -3938,7 +3933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>99</v>
       </c>
@@ -3949,7 +3944,7 @@
         <v>110</v>
       </c>
       <c r="D86" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="G86" s="1" t="s">
@@ -3962,7 +3957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
@@ -3973,7 +3968,7 @@
         <v>110</v>
       </c>
       <c r="D87" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="G87" s="1" t="s">
@@ -3986,7 +3981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>99</v>
       </c>
@@ -3997,7 +3992,7 @@
         <v>144</v>
       </c>
       <c r="D88" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="G88" s="1" t="s">
@@ -4010,7 +4005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -4021,7 +4016,7 @@
         <v>117</v>
       </c>
       <c r="D89" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="G89" s="1" t="s">
@@ -4034,7 +4029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>99</v>
       </c>
@@ -4045,7 +4040,7 @@
         <v>117</v>
       </c>
       <c r="D90" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="G90" s="1" t="s">
@@ -4058,7 +4053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>99</v>
       </c>
@@ -4069,7 +4064,7 @@
         <v>144</v>
       </c>
       <c r="D91" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="G91" s="1" t="s">
@@ -4082,7 +4077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>99</v>
       </c>
@@ -4093,7 +4088,7 @@
         <v>117</v>
       </c>
       <c r="D92" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
@@ -4106,7 +4101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>99</v>
       </c>
@@ -4117,7 +4112,7 @@
         <v>110</v>
       </c>
       <c r="D93" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -4130,7 +4125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
@@ -4141,7 +4136,7 @@
         <v>115</v>
       </c>
       <c r="D94" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="G94" s="1" t="s">
@@ -4154,7 +4149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>151</v>
       </c>
@@ -4165,7 +4160,7 @@
         <v>153</v>
       </c>
       <c r="D95" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="G95" s="1" t="s">
@@ -4178,7 +4173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>151</v>
       </c>
@@ -4189,7 +4184,7 @@
         <v>153</v>
       </c>
       <c r="D96" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="G96" s="1" t="s">
@@ -4202,7 +4197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>151</v>
       </c>
@@ -4213,7 +4208,7 @@
         <v>153</v>
       </c>
       <c r="D97" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="G97" s="1" t="s">
@@ -4226,7 +4221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>151</v>
       </c>
@@ -4237,7 +4232,7 @@
         <v>153</v>
       </c>
       <c r="D98" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="G98" s="1" t="s">
@@ -4250,7 +4245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>151</v>
       </c>
@@ -4261,7 +4256,7 @@
         <v>153</v>
       </c>
       <c r="D99" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="G99" s="1" t="s">
@@ -4274,7 +4269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>151</v>
       </c>
@@ -4285,7 +4280,7 @@
         <v>153</v>
       </c>
       <c r="D100" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="G100" s="1" t="s">
@@ -4298,7 +4293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>151</v>
       </c>
@@ -4309,7 +4304,7 @@
         <v>153</v>
       </c>
       <c r="D101" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G101" s="1" t="s">
@@ -4322,7 +4317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>151</v>
       </c>
@@ -4333,7 +4328,7 @@
         <v>153</v>
       </c>
       <c r="D102" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="G102" s="1" t="s">
@@ -4346,7 +4341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>151</v>
       </c>
@@ -4357,7 +4352,7 @@
         <v>153</v>
       </c>
       <c r="D103" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="G103" s="1" t="s">
@@ -4370,7 +4365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>151</v>
       </c>
@@ -4381,7 +4376,7 @@
         <v>153</v>
       </c>
       <c r="D104" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="G104" s="1" t="s">
@@ -4394,7 +4389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>151</v>
       </c>
@@ -4405,7 +4400,7 @@
         <v>164</v>
       </c>
       <c r="D105" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="G105" s="1" t="s">
@@ -4418,7 +4413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>151</v>
       </c>
@@ -4429,7 +4424,7 @@
         <v>153</v>
       </c>
       <c r="D106" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="G106" s="1" t="s">
@@ -4442,7 +4437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>151</v>
       </c>
@@ -4453,7 +4448,7 @@
         <v>153</v>
       </c>
       <c r="D107" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="G107" s="1" t="s">
@@ -4466,7 +4461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>151</v>
       </c>
@@ -4477,7 +4472,7 @@
         <v>153</v>
       </c>
       <c r="D108" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="G108" s="1" t="s">
@@ -4490,7 +4485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>151</v>
       </c>
@@ -4501,7 +4496,7 @@
         <v>153</v>
       </c>
       <c r="D109" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="G109" s="1" t="s">
@@ -4514,7 +4509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>151</v>
       </c>
@@ -4525,7 +4520,7 @@
         <v>153</v>
       </c>
       <c r="D110" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="G110" s="1" t="s">
@@ -4538,7 +4533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>170</v>
       </c>
@@ -4549,7 +4544,7 @@
         <v>172</v>
       </c>
       <c r="D111" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="G111" s="1" t="s">
@@ -4562,7 +4557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>170</v>
       </c>
@@ -4573,7 +4568,7 @@
         <v>174</v>
       </c>
       <c r="D112" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="G112" s="1" t="s">
@@ -4586,7 +4581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>170</v>
       </c>
@@ -4597,7 +4592,7 @@
         <v>176</v>
       </c>
       <c r="D113" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="G113" s="1" t="s">
@@ -4610,7 +4605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>170</v>
       </c>
@@ -4621,7 +4616,7 @@
         <v>178</v>
       </c>
       <c r="D114" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="G114" s="1" t="s">
@@ -4634,7 +4629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>170</v>
       </c>
@@ -4645,7 +4640,7 @@
         <v>180</v>
       </c>
       <c r="D115" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="G115" s="1" t="s">
@@ -4658,7 +4653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>170</v>
       </c>
@@ -4669,7 +4664,7 @@
         <v>182</v>
       </c>
       <c r="D116" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="G116" s="1" t="s">
@@ -4682,7 +4677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>170</v>
       </c>
@@ -4693,7 +4688,7 @@
         <v>184</v>
       </c>
       <c r="D117" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="G117" s="1" t="s">
@@ -4706,7 +4701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>170</v>
       </c>
@@ -4717,7 +4712,7 @@
         <v>186</v>
       </c>
       <c r="D118" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="G118" s="1" t="s">
@@ -4730,7 +4725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>170</v>
       </c>
@@ -4741,7 +4736,7 @@
         <v>188</v>
       </c>
       <c r="D119" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="G119" s="1" t="s">
@@ -4754,7 +4749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>170</v>
       </c>
@@ -4765,7 +4760,7 @@
         <v>184</v>
       </c>
       <c r="D120" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="G120" s="1" t="s">
@@ -4778,7 +4773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>170</v>
       </c>
@@ -4789,7 +4784,7 @@
         <v>191</v>
       </c>
       <c r="D121" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="G121" s="1" t="s">
@@ -4802,7 +4797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>170</v>
       </c>
@@ -4813,7 +4808,7 @@
         <v>188</v>
       </c>
       <c r="D122" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="G122" s="1" t="s">
@@ -4826,7 +4821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>170</v>
       </c>
@@ -4837,7 +4832,7 @@
         <v>188</v>
       </c>
       <c r="D123" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="G123" s="1" t="s">
@@ -4850,7 +4845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>170</v>
       </c>
@@ -4861,7 +4856,7 @@
         <v>195</v>
       </c>
       <c r="D124" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="G124" s="1" t="s">
@@ -4874,7 +4869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>196</v>
       </c>
@@ -4885,7 +4880,7 @@
         <v>198</v>
       </c>
       <c r="D125" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="G125" s="1" t="s">
@@ -4898,7 +4893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>196</v>
       </c>
@@ -4909,7 +4904,7 @@
         <v>200</v>
       </c>
       <c r="D126" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="G126" s="1" t="s">
@@ -4922,7 +4917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>196</v>
       </c>
@@ -4933,7 +4928,7 @@
         <v>202</v>
       </c>
       <c r="D127" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="G127" s="1" t="s">
@@ -4946,7 +4941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>196</v>
       </c>
@@ -4957,7 +4952,7 @@
         <v>200</v>
       </c>
       <c r="D128" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="G128" s="1" t="s">
@@ -4970,7 +4965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>196</v>
       </c>
@@ -4981,7 +4976,7 @@
         <v>200</v>
       </c>
       <c r="D129" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="G129" s="1" t="s">
@@ -4994,7 +4989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>196</v>
       </c>
@@ -5005,7 +5000,7 @@
         <v>200</v>
       </c>
       <c r="D130" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" ref="D130:D193" si="2">ROW() - 1</f>
         <v>129</v>
       </c>
       <c r="G130" s="1" t="s">
@@ -5018,7 +5013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>196</v>
       </c>
@@ -5029,7 +5024,7 @@
         <v>207</v>
       </c>
       <c r="D131" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="G131" s="1" t="s">
@@ -5042,7 +5037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>208</v>
       </c>
@@ -5053,7 +5048,7 @@
         <v>210</v>
       </c>
       <c r="D132" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="G132" s="1" t="s">
@@ -5066,7 +5061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>208</v>
       </c>
@@ -5077,7 +5072,7 @@
         <v>212</v>
       </c>
       <c r="D133" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="G133" s="1" t="s">
@@ -5090,7 +5085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>208</v>
       </c>
@@ -5101,7 +5096,7 @@
         <v>214</v>
       </c>
       <c r="D134" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="G134" s="1" t="s">
@@ -5114,7 +5109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>208</v>
       </c>
@@ -5125,7 +5120,7 @@
         <v>216</v>
       </c>
       <c r="D135" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="G135" s="1" t="s">
@@ -5138,7 +5133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>208</v>
       </c>
@@ -5149,7 +5144,7 @@
         <v>218</v>
       </c>
       <c r="D136" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="G136" s="1" t="s">
@@ -5162,7 +5157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>208</v>
       </c>
@@ -5173,7 +5168,7 @@
         <v>220</v>
       </c>
       <c r="D137" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="G137" s="1" t="s">
@@ -5186,7 +5181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>208</v>
       </c>
@@ -5197,7 +5192,7 @@
         <v>222</v>
       </c>
       <c r="D138" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="G138" s="1" t="s">
@@ -5210,7 +5205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>208</v>
       </c>
@@ -5221,7 +5216,7 @@
         <v>224</v>
       </c>
       <c r="D139" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="G139" s="1" t="s">
@@ -5234,7 +5229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>208</v>
       </c>
@@ -5245,7 +5240,7 @@
         <v>210</v>
       </c>
       <c r="D140" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="G140" s="1" t="s">
@@ -5258,7 +5253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>208</v>
       </c>
@@ -5269,7 +5264,7 @@
         <v>227</v>
       </c>
       <c r="D141" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="G141" s="1" t="s">
@@ -5282,7 +5277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>208</v>
       </c>
@@ -5293,7 +5288,7 @@
         <v>210</v>
       </c>
       <c r="D142" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="G142" s="1" t="s">
@@ -5306,7 +5301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>208</v>
       </c>
@@ -5317,7 +5312,7 @@
         <v>214</v>
       </c>
       <c r="D143" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="G143" s="1" t="s">
@@ -5330,7 +5325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>208</v>
       </c>
@@ -5341,7 +5336,7 @@
         <v>231</v>
       </c>
       <c r="D144" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="G144" s="1" t="s">
@@ -5354,7 +5349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>208</v>
       </c>
@@ -5365,7 +5360,7 @@
         <v>220</v>
       </c>
       <c r="D145" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="G145" s="1" t="s">
@@ -5378,7 +5373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>208</v>
       </c>
@@ -5389,7 +5384,7 @@
         <v>234</v>
       </c>
       <c r="D146" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="G146" s="1" t="s">
@@ -5402,7 +5397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>208</v>
       </c>
@@ -5413,7 +5408,7 @@
         <v>236</v>
       </c>
       <c r="D147" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="G147" s="1" t="s">
@@ -5426,7 +5421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>208</v>
       </c>
@@ -5437,7 +5432,7 @@
         <v>220</v>
       </c>
       <c r="D148" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="G148" s="1" t="s">
@@ -5450,7 +5445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>208</v>
       </c>
@@ -5461,7 +5456,7 @@
         <v>231</v>
       </c>
       <c r="D149" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="G149" s="1" t="s">
@@ -5474,7 +5469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>208</v>
       </c>
@@ -5485,7 +5480,7 @@
         <v>210</v>
       </c>
       <c r="D150" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="G150" s="1" t="s">
@@ -5498,7 +5493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>208</v>
       </c>
@@ -5506,7 +5501,7 @@
         <v>240</v>
       </c>
       <c r="D151" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="G151" s="1" t="s">
@@ -5519,7 +5514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>208</v>
       </c>
@@ -5530,7 +5525,7 @@
         <v>242</v>
       </c>
       <c r="D152" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="G152" s="1" t="s">
@@ -5543,7 +5538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>208</v>
       </c>
@@ -5554,7 +5549,7 @@
         <v>218</v>
       </c>
       <c r="D153" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="G153" s="1" t="s">
@@ -5567,7 +5562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>208</v>
       </c>
@@ -5578,7 +5573,7 @@
         <v>231</v>
       </c>
       <c r="D154" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="G154" s="1" t="s">
@@ -5591,7 +5586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>208</v>
       </c>
@@ -5602,7 +5597,7 @@
         <v>246</v>
       </c>
       <c r="D155" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="G155" s="1" t="s">
@@ -5615,7 +5610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>247</v>
       </c>
@@ -5626,7 +5621,7 @@
         <v>249</v>
       </c>
       <c r="D156" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="G156" s="1" t="s">
@@ -5639,7 +5634,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>247</v>
       </c>
@@ -5650,7 +5645,7 @@
         <v>249</v>
       </c>
       <c r="D157" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="G157" s="1" t="s">
@@ -5663,7 +5658,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>247</v>
       </c>
@@ -5674,7 +5669,7 @@
         <v>255</v>
       </c>
       <c r="D158" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="G158" s="1" t="s">
@@ -5687,7 +5682,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>247</v>
       </c>
@@ -5698,7 +5693,7 @@
         <v>258</v>
       </c>
       <c r="D159" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="G159" s="1" t="s">
@@ -5711,7 +5706,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>247</v>
       </c>
@@ -5722,7 +5717,7 @@
         <v>255</v>
       </c>
       <c r="D160" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="G160" s="1" t="s">
@@ -5735,7 +5730,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>247</v>
       </c>
@@ -5746,7 +5741,7 @@
         <v>255</v>
       </c>
       <c r="D161" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="G161" s="1" t="s">
@@ -5759,7 +5754,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>247</v>
       </c>
@@ -5770,7 +5765,7 @@
         <v>266</v>
       </c>
       <c r="D162" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="G162" s="1" t="s">
@@ -5783,7 +5778,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>247</v>
       </c>
@@ -5794,7 +5789,7 @@
         <v>269</v>
       </c>
       <c r="D163" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="G163" s="1" t="s">
@@ -5807,7 +5802,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>247</v>
       </c>
@@ -5818,7 +5813,7 @@
         <v>255</v>
       </c>
       <c r="D164" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>163</v>
       </c>
       <c r="G164" s="1" t="s">
@@ -5831,7 +5826,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>247</v>
       </c>
@@ -5842,7 +5837,7 @@
         <v>274</v>
       </c>
       <c r="D165" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="G165" s="1" t="s">
@@ -5855,7 +5850,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>247</v>
       </c>
@@ -5866,7 +5861,7 @@
         <v>277</v>
       </c>
       <c r="D166" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="G166" s="1" t="s">
@@ -5879,7 +5874,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>247</v>
       </c>
@@ -5890,7 +5885,7 @@
         <v>249</v>
       </c>
       <c r="D167" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="G167" s="1" t="s">
@@ -5903,7 +5898,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>247</v>
       </c>
@@ -5914,7 +5909,7 @@
         <v>255</v>
       </c>
       <c r="D168" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="G168" s="1" t="s">
@@ -5927,7 +5922,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>247</v>
       </c>
@@ -5938,7 +5933,7 @@
         <v>266</v>
       </c>
       <c r="D169" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="G169" s="1" t="s">
@@ -5951,7 +5946,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>285</v>
       </c>
@@ -5962,7 +5957,7 @@
         <v>287</v>
       </c>
       <c r="D170" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="G170" s="1" t="s">
@@ -5975,7 +5970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>285</v>
       </c>
@@ -5986,7 +5981,7 @@
         <v>289</v>
       </c>
       <c r="D171" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="G171" s="1" t="s">
@@ -5999,7 +5994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>285</v>
       </c>
@@ -6010,7 +6005,7 @@
         <v>291</v>
       </c>
       <c r="D172" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="G172" s="1" t="s">
@@ -6023,7 +6018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>285</v>
       </c>
@@ -6034,7 +6029,7 @@
         <v>293</v>
       </c>
       <c r="D173" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="G173" s="1" t="s">
@@ -6047,7 +6042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>285</v>
       </c>
@@ -6058,7 +6053,7 @@
         <v>295</v>
       </c>
       <c r="D174" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
       <c r="G174" s="1" t="s">
@@ -6071,7 +6066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>285</v>
       </c>
@@ -6082,7 +6077,7 @@
         <v>297</v>
       </c>
       <c r="D175" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
       <c r="G175" s="1" t="s">
@@ -6095,7 +6090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>285</v>
       </c>
@@ -6106,7 +6101,7 @@
         <v>299</v>
       </c>
       <c r="D176" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="G176" s="1" t="s">
@@ -6119,7 +6114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>285</v>
       </c>
@@ -6130,7 +6125,7 @@
         <v>301</v>
       </c>
       <c r="D177" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>176</v>
       </c>
       <c r="G177" s="1" t="s">
@@ -6143,7 +6138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>285</v>
       </c>
@@ -6154,7 +6149,7 @@
         <v>297</v>
       </c>
       <c r="D178" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="G178" s="1" t="s">
@@ -6167,7 +6162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>285</v>
       </c>
@@ -6178,7 +6173,7 @@
         <v>295</v>
       </c>
       <c r="D179" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
       <c r="G179" s="1" t="s">
@@ -6191,7 +6186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>285</v>
       </c>
@@ -6202,7 +6197,7 @@
         <v>295</v>
       </c>
       <c r="D180" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
       <c r="G180" s="1" t="s">
@@ -6215,7 +6210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>285</v>
       </c>
@@ -6226,7 +6221,7 @@
         <v>287</v>
       </c>
       <c r="D181" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="G181" s="1" t="s">
@@ -6239,7 +6234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>285</v>
       </c>
@@ -6250,7 +6245,7 @@
         <v>295</v>
       </c>
       <c r="D182" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="G182" s="1" t="s">
@@ -6263,7 +6258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>285</v>
       </c>
@@ -6274,7 +6269,7 @@
         <v>308</v>
       </c>
       <c r="D183" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="G183" s="1" t="s">
@@ -6287,7 +6282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>285</v>
       </c>
@@ -6298,7 +6293,7 @@
         <v>308</v>
       </c>
       <c r="D184" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
       <c r="G184" s="1" t="s">
@@ -6311,7 +6306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>285</v>
       </c>
@@ -6322,7 +6317,7 @@
         <v>287</v>
       </c>
       <c r="D185" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="G185" s="1" t="s">
@@ -6335,7 +6330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>285</v>
       </c>
@@ -6346,7 +6341,7 @@
         <v>287</v>
       </c>
       <c r="D186" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>185</v>
       </c>
       <c r="G186" s="1" t="s">
@@ -6359,7 +6354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>285</v>
       </c>
@@ -6370,7 +6365,7 @@
         <v>295</v>
       </c>
       <c r="D187" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>186</v>
       </c>
       <c r="G187" s="1" t="s">
@@ -6383,7 +6378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>285</v>
       </c>
@@ -6394,7 +6389,7 @@
         <v>314</v>
       </c>
       <c r="D188" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
       <c r="G188" s="1" t="s">
@@ -6407,7 +6402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>285</v>
       </c>
@@ -6418,7 +6413,7 @@
         <v>295</v>
       </c>
       <c r="D189" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>188</v>
       </c>
       <c r="G189" s="1" t="s">
@@ -6431,7 +6426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>285</v>
       </c>
@@ -6442,7 +6437,7 @@
         <v>295</v>
       </c>
       <c r="D190" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>189</v>
       </c>
       <c r="G190" s="1" t="s">
@@ -6455,7 +6450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>285</v>
       </c>
@@ -6466,7 +6461,7 @@
         <v>295</v>
       </c>
       <c r="D191" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="G191" s="1" t="s">
@@ -6479,7 +6474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>285</v>
       </c>
@@ -6490,7 +6485,7 @@
         <v>295</v>
       </c>
       <c r="D192" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>191</v>
       </c>
       <c r="G192" s="1" t="s">
@@ -6503,7 +6498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>285</v>
       </c>
@@ -6514,7 +6509,7 @@
         <v>295</v>
       </c>
       <c r="D193" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="G193" s="1" t="s">
@@ -6527,7 +6522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>285</v>
       </c>
@@ -6538,7 +6533,7 @@
         <v>295</v>
       </c>
       <c r="D194" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" ref="D194:D257" si="3">ROW() - 1</f>
         <v>193</v>
       </c>
       <c r="G194" s="1" t="s">
@@ -6551,7 +6546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>285</v>
       </c>
@@ -6562,7 +6557,7 @@
         <v>295</v>
       </c>
       <c r="D195" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>194</v>
       </c>
       <c r="G195" s="1" t="s">
@@ -6575,7 +6570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>285</v>
       </c>
@@ -6586,7 +6581,7 @@
         <v>295</v>
       </c>
       <c r="D196" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="G196" s="1" t="s">
@@ -6599,7 +6594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>285</v>
       </c>
@@ -6610,7 +6605,7 @@
         <v>287</v>
       </c>
       <c r="D197" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="G197" s="1" t="s">
@@ -6623,7 +6618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>324</v>
       </c>
@@ -6634,7 +6629,7 @@
         <v>326</v>
       </c>
       <c r="D198" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>197</v>
       </c>
       <c r="G198" s="1" t="s">
@@ -6647,7 +6642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>324</v>
       </c>
@@ -6658,7 +6653,7 @@
         <v>328</v>
       </c>
       <c r="D199" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
       <c r="G199" s="1" t="s">
@@ -6671,7 +6666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>324</v>
       </c>
@@ -6682,7 +6677,7 @@
         <v>330</v>
       </c>
       <c r="D200" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>199</v>
       </c>
       <c r="G200" s="1" t="s">
@@ -6695,7 +6690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>324</v>
       </c>
@@ -6706,7 +6701,7 @@
         <v>326</v>
       </c>
       <c r="D201" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="G201" s="1" t="s">
@@ -6719,7 +6714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>324</v>
       </c>
@@ -6730,7 +6725,7 @@
         <v>326</v>
       </c>
       <c r="D202" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>201</v>
       </c>
       <c r="G202" s="1" t="s">
@@ -6743,7 +6738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>324</v>
       </c>
@@ -6754,7 +6749,7 @@
         <v>328</v>
       </c>
       <c r="D203" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="G203" s="1" t="s">
@@ -6767,7 +6762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>324</v>
       </c>
@@ -6778,7 +6773,7 @@
         <v>326</v>
       </c>
       <c r="D204" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>203</v>
       </c>
       <c r="G204" s="1" t="s">
@@ -6791,7 +6786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>324</v>
       </c>
@@ -6802,7 +6797,7 @@
         <v>328</v>
       </c>
       <c r="D205" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>204</v>
       </c>
       <c r="G205" s="1" t="s">
@@ -6815,7 +6810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>324</v>
       </c>
@@ -6826,7 +6821,7 @@
         <v>328</v>
       </c>
       <c r="D206" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="G206" s="1" t="s">
@@ -6839,7 +6834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>324</v>
       </c>
@@ -6850,7 +6845,7 @@
         <v>330</v>
       </c>
       <c r="D207" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>206</v>
       </c>
       <c r="G207" s="1" t="s">
@@ -6863,7 +6858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>324</v>
       </c>
@@ -6874,7 +6869,7 @@
         <v>339</v>
       </c>
       <c r="D208" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>207</v>
       </c>
       <c r="G208" s="1" t="s">
@@ -6887,7 +6882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>324</v>
       </c>
@@ -6898,7 +6893,7 @@
         <v>328</v>
       </c>
       <c r="D209" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
       <c r="G209" s="1" t="s">
@@ -6911,7 +6906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>324</v>
       </c>
@@ -6922,7 +6917,7 @@
         <v>330</v>
       </c>
       <c r="D210" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>209</v>
       </c>
       <c r="G210" s="1" t="s">
@@ -6935,7 +6930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>324</v>
       </c>
@@ -6946,7 +6941,7 @@
         <v>326</v>
       </c>
       <c r="D211" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="G211" s="1" t="s">
@@ -6959,7 +6954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>324</v>
       </c>
@@ -6970,7 +6965,7 @@
         <v>330</v>
       </c>
       <c r="D212" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="G212" s="1" t="s">
@@ -6983,7 +6978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>324</v>
       </c>
@@ -6994,7 +6989,7 @@
         <v>326</v>
       </c>
       <c r="D213" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>212</v>
       </c>
       <c r="G213" s="1" t="s">
@@ -7007,7 +7002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>324</v>
       </c>
@@ -7018,7 +7013,7 @@
         <v>330</v>
       </c>
       <c r="D214" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>213</v>
       </c>
       <c r="G214" s="1" t="s">
@@ -7031,7 +7026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>324</v>
       </c>
@@ -7042,7 +7037,7 @@
         <v>328</v>
       </c>
       <c r="D215" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>214</v>
       </c>
       <c r="G215" s="1" t="s">
@@ -7055,7 +7050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>324</v>
       </c>
@@ -7066,7 +7061,7 @@
         <v>326</v>
       </c>
       <c r="D216" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>215</v>
       </c>
       <c r="G216" s="1" t="s">
@@ -7079,7 +7074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>324</v>
       </c>
@@ -7090,7 +7085,7 @@
         <v>339</v>
       </c>
       <c r="D217" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>216</v>
       </c>
       <c r="G217" s="1" t="s">
@@ -7103,7 +7098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>324</v>
       </c>
@@ -7114,7 +7109,7 @@
         <v>330</v>
       </c>
       <c r="D218" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="G218" s="1" t="s">
@@ -7127,7 +7122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>324</v>
       </c>
@@ -7138,7 +7133,7 @@
         <v>330</v>
       </c>
       <c r="D219" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>218</v>
       </c>
       <c r="G219" s="1" t="s">
@@ -7151,7 +7146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>324</v>
       </c>
@@ -7162,7 +7157,7 @@
         <v>328</v>
       </c>
       <c r="D220" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="G220" s="1" t="s">
@@ -7175,7 +7170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>324</v>
       </c>
@@ -7186,7 +7181,7 @@
         <v>353</v>
       </c>
       <c r="D221" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="G221" s="1" t="s">
@@ -7199,7 +7194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>324</v>
       </c>
@@ -7210,7 +7205,7 @@
         <v>326</v>
       </c>
       <c r="D222" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>221</v>
       </c>
       <c r="G222" s="1" t="s">
@@ -7223,7 +7218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>324</v>
       </c>
@@ -7234,7 +7229,7 @@
         <v>356</v>
       </c>
       <c r="D223" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="G223" s="1" t="s">
@@ -7247,7 +7242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>324</v>
       </c>
@@ -7258,7 +7253,7 @@
         <v>358</v>
       </c>
       <c r="D224" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>223</v>
       </c>
       <c r="G224" s="1" t="s">
@@ -7271,7 +7266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>324</v>
       </c>
@@ -7282,7 +7277,7 @@
         <v>360</v>
       </c>
       <c r="D225" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>224</v>
       </c>
       <c r="G225" s="1" t="s">
@@ -7295,7 +7290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>324</v>
       </c>
@@ -7306,7 +7301,7 @@
         <v>326</v>
       </c>
       <c r="D226" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="G226" s="1" t="s">
@@ -7319,7 +7314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>324</v>
       </c>
@@ -7330,7 +7325,7 @@
         <v>326</v>
       </c>
       <c r="D227" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>226</v>
       </c>
       <c r="G227" s="1" t="s">
@@ -7343,7 +7338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>324</v>
       </c>
@@ -7354,7 +7349,7 @@
         <v>328</v>
       </c>
       <c r="D228" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>227</v>
       </c>
       <c r="G228" s="1" t="s">
@@ -7367,7 +7362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>364</v>
       </c>
@@ -7378,7 +7373,7 @@
         <v>366</v>
       </c>
       <c r="D229" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="G229" s="1" t="s">
@@ -7391,7 +7386,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>364</v>
       </c>
@@ -7402,7 +7397,7 @@
         <v>369</v>
       </c>
       <c r="D230" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>229</v>
       </c>
       <c r="G230" s="1" t="s">
@@ -7415,7 +7410,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>364</v>
       </c>
@@ -7426,7 +7421,7 @@
         <v>372</v>
       </c>
       <c r="D231" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="G231" s="1" t="s">
@@ -7439,7 +7434,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>364</v>
       </c>
@@ -7450,7 +7445,7 @@
         <v>375</v>
       </c>
       <c r="D232" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>231</v>
       </c>
       <c r="G232" s="1" t="s">
@@ -7463,7 +7458,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>364</v>
       </c>
@@ -7474,7 +7469,7 @@
         <v>369</v>
       </c>
       <c r="D233" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>232</v>
       </c>
       <c r="G233" s="1" t="s">
@@ -7487,7 +7482,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>364</v>
       </c>
@@ -7498,14 +7493,8 @@
         <v>366</v>
       </c>
       <c r="D234" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>233</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>250</v>
@@ -7514,27 +7503,21 @@
         <v>2022</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="J234" t="s">
-        <v>383</v>
-      </c>
-      <c r="K234" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>369</v>
       </c>
       <c r="D235" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>234</v>
       </c>
       <c r="G235" s="1" t="s">
@@ -7548,186 +7531,186 @@
       </c>
       <c r="J235" s="4"/>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D236" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>235</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H236" s="3">
         <v>2023</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D237" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>236</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H237" s="3">
         <v>2024</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D238" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>237</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H238" s="3">
         <v>2021</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D239" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H239" s="3">
         <v>2023</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D240" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>239</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H240" s="3">
         <v>2024</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D241" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H241" s="3">
         <v>2021</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D242" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>241</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H242" s="3">
         <v>2021</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D243" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>242</v>
       </c>
       <c r="G243" s="1" t="s">
@@ -7737,21 +7720,21 @@
         <v>0</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="C244" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D244" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>243</v>
       </c>
       <c r="G244" s="1" t="s">
@@ -7761,21 +7744,21 @@
         <v>0</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D245" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="G245" s="1" t="s">
@@ -7785,21 +7768,21 @@
         <v>0</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D246" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="G246" s="1" t="s">
@@ -7809,21 +7792,21 @@
         <v>0</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D247" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>246</v>
       </c>
       <c r="G247" s="1" t="s">
@@ -7833,21 +7816,21 @@
         <v>0</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D248" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>247</v>
       </c>
       <c r="G248" s="1" t="s">
@@ -7857,42 +7840,42 @@
         <v>0</v>
       </c>
       <c r="I248" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D249" s="1">
+        <f t="shared" si="3"/>
+        <v>248</v>
+      </c>
+      <c r="H249" s="3">
+        <v>0</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="249" spans="1:11">
-      <c r="A249" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B249" s="1" t="s">
+      <c r="C250" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C249" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D249" s="1">
-        <f>ROW() - 1</f>
-        <v>248</v>
-      </c>
-      <c r="H249" s="3">
-        <v>0</v>
-      </c>
-      <c r="I249" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11">
-      <c r="A250" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="D250" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>249</v>
       </c>
       <c r="G250" s="1" t="s">
@@ -7902,45 +7885,45 @@
         <v>0</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D251" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H251" s="3">
         <v>2023</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D252" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>251</v>
       </c>
       <c r="G252" s="1" t="s">
@@ -7950,21 +7933,21 @@
         <v>0</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D253" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
       <c r="G253" s="1" t="s">
@@ -7974,21 +7957,21 @@
         <v>0</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D254" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>253</v>
       </c>
       <c r="G254" s="1" t="s">
@@ -7998,93 +7981,93 @@
         <v>0</v>
       </c>
       <c r="I254" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D255" s="1">
+        <f t="shared" si="3"/>
+        <v>254</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H255" s="3">
+        <v>0</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="255" spans="1:11">
-      <c r="A255" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B255" s="1" t="s">
+      <c r="C256" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C255" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D255" s="1">
-        <f>ROW() - 1</f>
-        <v>254</v>
-      </c>
-      <c r="G255" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H255" s="3">
-        <v>0</v>
-      </c>
-      <c r="I255" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11">
-      <c r="A256" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="D256" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H256" s="3">
         <v>2022</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D257" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H257" s="3">
         <v>0</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D258" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" ref="D258:D276" si="4">ROW() - 1</f>
         <v>257</v>
       </c>
       <c r="G258" s="1" t="s">
@@ -8094,156 +8077,156 @@
         <v>0</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D259" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="4"/>
         <v>258</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H259" s="3">
         <v>2021</v>
       </c>
       <c r="I259" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D260" s="1">
+        <f t="shared" si="4"/>
+        <v>259</v>
+      </c>
+      <c r="H260" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="260" spans="1:11">
-      <c r="A260" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B260" s="1" t="s">
+      <c r="D261" s="1">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="H261" s="3">
+        <v>0</v>
+      </c>
+      <c r="I261" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C260" s="1" t="s">
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D260" s="1">
-        <f>ROW() - 1</f>
-        <v>259</v>
-      </c>
-      <c r="H260" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11">
-      <c r="A261" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D261" s="1">
-        <f>ROW() - 1</f>
-        <v>260</v>
-      </c>
-      <c r="H261" s="3">
-        <v>0</v>
-      </c>
-      <c r="I261" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11">
-      <c r="A262" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="C262" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D262" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="4"/>
         <v>261</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H262" s="3">
         <v>2023</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D263" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="4"/>
         <v>262</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H263" s="3">
         <v>2022</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D264" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="4"/>
         <v>263</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H264" s="3">
         <v>2022</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D265" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="4"/>
         <v>264</v>
       </c>
       <c r="G265" s="1" t="s">
@@ -8253,21 +8236,21 @@
         <v>0</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D266" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="4"/>
         <v>265</v>
       </c>
       <c r="G266" s="1" t="s">
@@ -8277,87 +8260,87 @@
         <v>0</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D267" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="4"/>
         <v>266</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H267" s="3">
         <v>2023</v>
       </c>
       <c r="I267" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D268" s="1">
+        <f t="shared" si="4"/>
+        <v>267</v>
+      </c>
+      <c r="H268" s="3">
+        <v>0</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="268" spans="1:11">
-      <c r="A268" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B268" s="1" t="s">
+      <c r="C269" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="D269" s="1">
+        <f t="shared" si="4"/>
+        <v>268</v>
+      </c>
+      <c r="H269" s="3">
+        <v>0</v>
+      </c>
+      <c r="I269" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D268" s="1">
-        <f>ROW() - 1</f>
-        <v>267</v>
-      </c>
-      <c r="H268" s="3">
-        <v>0</v>
-      </c>
-      <c r="I268" s="1" t="s">
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="269" spans="1:11">
-      <c r="A269" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B269" s="1" t="s">
+      <c r="C270" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C269" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D269" s="1">
-        <f>ROW() - 1</f>
-        <v>268</v>
-      </c>
-      <c r="H269" s="3">
-        <v>0</v>
-      </c>
-      <c r="I269" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11">
-      <c r="A270" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>482</v>
-      </c>
       <c r="D270" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="4"/>
         <v>269</v>
       </c>
       <c r="G270" s="1" t="s">
@@ -8367,21 +8350,21 @@
         <v>0</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D271" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="G271" s="1" t="s">
@@ -8391,21 +8374,21 @@
         <v>0</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D272" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="4"/>
         <v>271</v>
       </c>
       <c r="G272" s="1" t="s">
@@ -8415,21 +8398,21 @@
         <v>0</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D273" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="4"/>
         <v>272</v>
       </c>
       <c r="G273" s="1" t="s">
@@ -8439,94 +8422,86 @@
         <v>0</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D274" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="4"/>
         <v>273</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H274" s="3">
         <v>2022</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D275" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="4"/>
         <v>274</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H275" s="3">
         <v>2021</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D276" s="1">
-        <f>ROW() - 1</f>
+        <f t="shared" si="4"/>
         <v>275</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H276" s="3">
         <v>2023</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <autoFilter ref="A1:I276"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:I276" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/elections/verification/data/students_db.xlsx
+++ b/elections/verification/data/students_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ampps\www\usac-website\elections\verification\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3982B9F6-700C-4879-BF36-1D6FC4C67FAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384CEE59-F30C-4898-BA7F-6D6B7EE25F5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1864,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C268" workbookViewId="0">
-      <selection activeCell="K234" sqref="K234"/>
+    <sheetView tabSelected="1" topLeftCell="C217" workbookViewId="0">
+      <selection activeCell="F221" sqref="F221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/elections/verification/data/students_db.xlsx
+++ b/elections/verification/data/students_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ampps\www\usac-website\elections\verification\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384CEE59-F30C-4898-BA7F-6D6B7EE25F5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDD2566-B502-4FD9-B2CF-DD05E892941C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C217" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F221" sqref="F221"/>
     </sheetView>
   </sheetViews>

--- a/elections/verification/data/students_db.xlsx
+++ b/elections/verification/data/students_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ampps\www\usac-website\elections\verification\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDD2566-B502-4FD9-B2CF-DD05E892941C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26EBA1CE-61DC-4803-9365-5558F10EB1F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$276</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$336</definedName>
   </definedNames>
-  <calcPr calcId="999999"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="729">
   <si>
     <t>PROVINCE</t>
   </si>
@@ -115,9 +115,30 @@
     <t>UIBE</t>
   </si>
   <si>
+    <t>BPzD4L5NhoWgGUy</t>
+  </si>
+  <si>
+    <t>T8mwMnMh</t>
+  </si>
+  <si>
+    <t>wilsontabamuzigu@yahoo.com</t>
+  </si>
+  <si>
+    <t>2022/03/17 23:11:30</t>
+  </si>
+  <si>
     <t>ATUKUNDA NOELINE</t>
   </si>
   <si>
+    <t>LkQ7ySZ2K6HoanP</t>
+  </si>
+  <si>
+    <t>QuMYZ7VQ</t>
+  </si>
+  <si>
+    <t>atukundanoeline5@gmail.com</t>
+  </si>
+  <si>
     <t>BAKEBWA JONATHAN MUGAJU</t>
   </si>
   <si>
@@ -130,6 +151,15 @@
     <t>BEIHANG UNIVERSITY</t>
   </si>
   <si>
+    <t>1g95IwBKtLSyTXp</t>
+  </si>
+  <si>
+    <t>D71HChCO</t>
+  </si>
+  <si>
+    <t>emolujohnfrancis91@gmail.com</t>
+  </si>
+  <si>
     <t>HIGIRO BRIAN LUMUMBA</t>
   </si>
   <si>
@@ -148,6 +178,15 @@
     <t>BUAA</t>
   </si>
   <si>
+    <t>7tz1nuITKNcjLr2</t>
+  </si>
+  <si>
+    <t>wEHyBQzC</t>
+  </si>
+  <si>
+    <t>katende2020@163.com</t>
+  </si>
+  <si>
     <t>LILLIAN KOBUSINGYE</t>
   </si>
   <si>
@@ -175,6 +214,18 @@
     <t>RUTAGATSA ANDREW</t>
   </si>
   <si>
+    <t>Of3uIzE7ZNH1vV2</t>
+  </si>
+  <si>
+    <t>ce32xwGR</t>
+  </si>
+  <si>
+    <t>andrewrutagatsa@gmail.com</t>
+  </si>
+  <si>
+    <t>2022/03/17 20:47:27</t>
+  </si>
+  <si>
     <t>Chongqing</t>
   </si>
   <si>
@@ -184,6 +235,18 @@
     <t>SOUTHWEST UNIVERSITY</t>
   </si>
   <si>
+    <t>H6mZKqQa5xCYItX</t>
+  </si>
+  <si>
+    <t>wvKsHiDb</t>
+  </si>
+  <si>
+    <t>allmuganga98@gmail.com</t>
+  </si>
+  <si>
+    <t>2022/03/18 00:50:34</t>
+  </si>
+  <si>
     <t>TUSABA ESTHER</t>
   </si>
   <si>
@@ -244,6 +307,15 @@
     <t>HAINAN MEDICAL COLLEGE</t>
   </si>
   <si>
+    <t>qsCuJZlOnWTd8vm</t>
+  </si>
+  <si>
+    <t>vTVjAqyj</t>
+  </si>
+  <si>
+    <t>anyanzovuchiri@gmail.com</t>
+  </si>
+  <si>
     <t>Heilongjiang</t>
   </si>
   <si>
@@ -277,6 +349,15 @@
     <t>Henan University of technology</t>
   </si>
   <si>
+    <t>o6APLZHc87K1t9D</t>
+  </si>
+  <si>
+    <t>8gHFtNTB</t>
+  </si>
+  <si>
+    <t>ainomugishaevans0700@gmail.com</t>
+  </si>
+  <si>
     <t>Alima Mory Kamba</t>
   </si>
   <si>
@@ -304,6 +385,18 @@
     <t>Gendi Fred</t>
   </si>
   <si>
+    <t>XD7fqtdNhPiluFb</t>
+  </si>
+  <si>
+    <t>mRYb1yaj</t>
+  </si>
+  <si>
+    <t>genddyfred@gmail.com</t>
+  </si>
+  <si>
+    <t>2022/03/18 00:02:59</t>
+  </si>
+  <si>
     <t>Gumisiriza Joshua</t>
   </si>
   <si>
@@ -463,6 +556,18 @@
     <t>RUKUNDO EMMANUEL</t>
   </si>
   <si>
+    <t>hLivYzpbPHVXDc7</t>
+  </si>
+  <si>
+    <t>qNDtA40r</t>
+  </si>
+  <si>
+    <t>emmanuelrukundo97@gmail.com</t>
+  </si>
+  <si>
+    <t>2022/03/18 01:27:44</t>
+  </si>
+  <si>
     <t>SCOLA NAGASHA</t>
   </si>
   <si>
@@ -544,6 +649,18 @@
     <t>Nanjing Agricultural University</t>
   </si>
   <si>
+    <t>XVetfEkxMzoGCZh</t>
+  </si>
+  <si>
+    <t>Mw0SAYWK</t>
+  </si>
+  <si>
+    <t>ericmale7@gmail.com</t>
+  </si>
+  <si>
+    <t>2022/03/17 21:14:48</t>
+  </si>
+  <si>
     <t>Omedi Jacob Ojobi,</t>
   </si>
   <si>
@@ -556,6 +673,18 @@
     <t>Nanjing university of science and technology</t>
   </si>
   <si>
+    <t>JdykaQqVfxmtcAz</t>
+  </si>
+  <si>
+    <t>rQcmoDs6</t>
+  </si>
+  <si>
+    <t>banksnicos@gmail.com</t>
+  </si>
+  <si>
+    <t>2022/03/17 22:51:24</t>
+  </si>
+  <si>
     <t>Bosco Bakwatanisa</t>
   </si>
   <si>
@@ -676,6 +805,15 @@
     <t>LIAONING UNIVERSITY</t>
   </si>
   <si>
+    <t>4jFVr9qMGfZED76</t>
+  </si>
+  <si>
+    <t>7v9asDgz</t>
+  </si>
+  <si>
+    <t>asingwiregilbert036@gmail.com</t>
+  </si>
+  <si>
     <t>ATWINE JAMES</t>
   </si>
   <si>
@@ -736,6 +874,18 @@
     <t>SHENYANG INSTITUTE OF TECHNOLOGY (SIT)</t>
   </si>
   <si>
+    <t>M7epYZunSitE9bx</t>
+  </si>
+  <si>
+    <t>MXk4Hcdx</t>
+  </si>
+  <si>
+    <t>nakasendwaracheal@gmail.com</t>
+  </si>
+  <si>
+    <t>2022/03/18 01:18:14</t>
+  </si>
+  <si>
     <t>NAKAYE EVELYN MBEKEKA</t>
   </si>
   <si>
@@ -877,9 +1027,18 @@
     <t>WYCLIFFE WALUBI T</t>
   </si>
   <si>
+    <t>XJsPvtx8ATZ6kde</t>
+  </si>
+  <si>
+    <t>MjQJMuZb</t>
+  </si>
+  <si>
     <t>15691878306</t>
   </si>
   <si>
+    <t>wyclefsnow3@gmail.com</t>
+  </si>
+  <si>
     <t>Shandong</t>
   </si>
   <si>
@@ -943,6 +1102,15 @@
     <t>LAMUNU HANIFA</t>
   </si>
   <si>
+    <t>XrahDL1iJ2Kn7Hu</t>
+  </si>
+  <si>
+    <t>GpeenWtK</t>
+  </si>
+  <si>
+    <t>hanifalamunu6@gmail.com</t>
+  </si>
+  <si>
     <t>Lucy Kaahwa</t>
   </si>
   <si>
@@ -1165,9 +1333,21 @@
     <t>Nakibinge Simon</t>
   </si>
   <si>
+    <t>yz4Ym3M8KRHrcvW</t>
+  </si>
+  <si>
+    <t>gDaAHF0Q</t>
+  </si>
+  <si>
     <t>13258281883</t>
   </si>
   <si>
+    <t>slemonla13@gmail.com</t>
+  </si>
+  <si>
+    <t>2022/03/17 12:46:07</t>
+  </si>
+  <si>
     <t>Rukundo Emmanuel</t>
   </si>
   <si>
@@ -1180,12 +1360,24 @@
     <t>Tianjin University</t>
   </si>
   <si>
+    <t>MLRokP59uhvbe31</t>
+  </si>
+  <si>
+    <t>kSrZcBEH</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>15822502371</t>
   </si>
   <si>
+    <t>allankaboyo@gmail.com</t>
+  </si>
+  <si>
+    <t>2022/03/17 22:11:15</t>
+  </si>
+  <si>
     <t>Feza Mutungi</t>
   </si>
   <si>
@@ -1222,9 +1414,21 @@
     <t>Tianjin Normal University</t>
   </si>
   <si>
+    <t>eKZtLb4yXnO7NRx</t>
+  </si>
+  <si>
+    <t>2Mpm9p11</t>
+  </si>
+  <si>
     <t>18514453644</t>
   </si>
   <si>
+    <t>namagandaclaire4@gmail.com</t>
+  </si>
+  <si>
+    <t>2022/03/17 23:57:52</t>
+  </si>
+  <si>
     <t>Twebaze B. Collins</t>
   </si>
   <si>
@@ -1499,13 +1703,522 @@
   </si>
   <si>
     <t>15858559681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KASAJJA ISAAC </t>
+  </si>
+  <si>
+    <t>OMADANG BENARD PASCAL</t>
+  </si>
+  <si>
+    <t>ARIHO BENJAMIN</t>
+  </si>
+  <si>
+    <t>Alinda Deus</t>
+  </si>
+  <si>
+    <t>NAKAANA JOSIAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIAN  MBABAZI </t>
+  </si>
+  <si>
+    <t>MUJAWIMANA ALPHONSINA</t>
+  </si>
+  <si>
+    <t>MAGUNDA</t>
+  </si>
+  <si>
+    <t>Allan Kakwezi</t>
+  </si>
+  <si>
+    <t>Nambalirwa Hellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NALIKKA DROLENCE </t>
+  </si>
+  <si>
+    <t>Odongo Inguula Ronald</t>
+  </si>
+  <si>
+    <t>ABAASA VICTOR</t>
+  </si>
+  <si>
+    <t>Namirembe Teddy</t>
+  </si>
+  <si>
+    <t>Gloria Ntegeka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hussein Mubikirwa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPONDO GENO KAREN HOPE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mulindwa Moses </t>
+  </si>
+  <si>
+    <t>Michael Gasim Bullen</t>
+  </si>
+  <si>
+    <t>Aswillah Settimba</t>
+  </si>
+  <si>
+    <t>Muhindo Silver</t>
+  </si>
+  <si>
+    <t>Muhwana Maureen Margaret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgina Najuna Njuneki </t>
+  </si>
+  <si>
+    <t>OLANYA ALEX</t>
+  </si>
+  <si>
+    <t>Nabwire Joan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUNYAMI ABUBAKAR </t>
+  </si>
+  <si>
+    <t>Aineamani Charity</t>
+  </si>
+  <si>
+    <t>Gideon Kibirige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namuli Brandy </t>
+  </si>
+  <si>
+    <t>KATUNGI JULIUS</t>
+  </si>
+  <si>
+    <t>Fred Agaba</t>
+  </si>
+  <si>
+    <t>Engwau Timothy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julius mulumba </t>
+  </si>
+  <si>
+    <t>Kalungi Albert</t>
+  </si>
+  <si>
+    <t>Mutonyi Sumaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kakuru Paul </t>
+  </si>
+  <si>
+    <t>Milundi john</t>
+  </si>
+  <si>
+    <t>ANYINE RACHAEL</t>
+  </si>
+  <si>
+    <t>WASHABA ARUHO JONAN</t>
+  </si>
+  <si>
+    <t>Washaba Jonan Aruho</t>
+  </si>
+  <si>
+    <t>Musede Simon</t>
+  </si>
+  <si>
+    <t>Bridget Atuhaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busuulwa Solomon Darlen </t>
+  </si>
+  <si>
+    <t>Lilliane Aol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opondo Geno Karen Hope </t>
+  </si>
+  <si>
+    <t>Okitoi Noah</t>
+  </si>
+  <si>
+    <t>OKOTEL MOSES</t>
+  </si>
+  <si>
+    <t>Shamim Namponye</t>
+  </si>
+  <si>
+    <t>Padde</t>
+  </si>
+  <si>
+    <t>Lubanga Nasifu</t>
+  </si>
+  <si>
+    <t>Nagawa Roy</t>
+  </si>
+  <si>
+    <t>Waswa Edgar</t>
+  </si>
+  <si>
+    <t>Oballim John Kennedy</t>
+  </si>
+  <si>
+    <t>Nakasoma Edith</t>
+  </si>
+  <si>
+    <t>John Roberts Padde</t>
+  </si>
+  <si>
+    <t>New Student</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> China University of Petroleum (East China),Qingdao</t>
+  </si>
+  <si>
+    <t>CHINA UNIVERSITY OF PETROLEUM(EAST CHINA), QINGDAO</t>
+  </si>
+  <si>
+    <t>SHANGHAI INTERNATIONAL STUDIES UNIVERSITY</t>
+  </si>
+  <si>
+    <t>Central China Normal University</t>
+  </si>
+  <si>
+    <t>Nanjing university of information science and technology</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF SCIENCE AND TECHNOLOGY OF CHINA, HEFEI</t>
+  </si>
+  <si>
+    <t>SOUTHERN MEDICAL UNIVERSITY</t>
+  </si>
+  <si>
+    <t>Southern Medical University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEIJING JIAOTONG UNIVERSITY </t>
+  </si>
+  <si>
+    <t>Tongji University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chang’an University </t>
+  </si>
+  <si>
+    <t>Nanjing University of information and Technology</t>
+  </si>
+  <si>
+    <t>TIANGONG UNIVERSITY</t>
+  </si>
+  <si>
+    <t>Beijing Normal University</t>
+  </si>
+  <si>
+    <t>China University of Petroleum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NANJING UNIVERSITY OF AERONAUTICS AND ASTRONAUTICS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of internation business and economics </t>
+  </si>
+  <si>
+    <t>Jinzhou Medical University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiangsu university </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changsha University of Science and Technology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beijing International Studies University </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of International Business and Economics </t>
+  </si>
+  <si>
+    <t>Beijing Jiatong university</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dongbei university of finance and economics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHANDONG UNIVERSITY </t>
+  </si>
+  <si>
+    <t>Naijing University of science and Technologye</t>
+  </si>
+  <si>
+    <t>China University of Petroleum (East China)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beijing Jiaotong University </t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF SCIENCE AND TECHNOLOGY LIAONING</t>
+  </si>
+  <si>
+    <t>Shenyang Jianzhu University</t>
+  </si>
+  <si>
+    <t>Dalian Maritime University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China pharmaceutical university </t>
+  </si>
+  <si>
+    <t>Dalian polythenic university (DPU)</t>
+  </si>
+  <si>
+    <t>Southwest university</t>
+  </si>
+  <si>
+    <t>Computing science and software engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalian polytechnic University </t>
+  </si>
+  <si>
+    <t>Beijing University of Business and Technology</t>
+  </si>
+  <si>
+    <t>China Three Georges University</t>
+  </si>
+  <si>
+    <t>Petroleum engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hainan medical university </t>
+  </si>
+  <si>
+    <t>Huazhong University of Science and Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHINA UNIVERSITY OF PETROLEUM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanjing University of Aeronautics and Astronautics </t>
+  </si>
+  <si>
+    <t>Beijing Institute of Technology</t>
+  </si>
+  <si>
+    <t>University of science and Technology of China , Hefei</t>
+  </si>
+  <si>
+    <t>Anhui Medical University</t>
+  </si>
+  <si>
+    <t>Zhenghzou international university</t>
+  </si>
+  <si>
+    <t>China Three Gorges University</t>
+  </si>
+  <si>
+    <t>Wuhan university</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wuhan university </t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>2023</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">isaackasajja20@gmail.com </t>
+  </si>
+  <si>
+    <t>benardpascal256@outlook.com</t>
+  </si>
+  <si>
+    <t>benjaariho@gmail.com</t>
+  </si>
+  <si>
+    <t>dedetdeus@gmail.com</t>
+  </si>
+  <si>
+    <t>nakaanajosiah1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mbabazivian@gmail.com </t>
+  </si>
+  <si>
+    <t>minamuja78@gmail.com</t>
+  </si>
+  <si>
+    <t>shaficmagunda19@yahoo.com</t>
+  </si>
+  <si>
+    <t>allankakwezi@gmail.com</t>
+  </si>
+  <si>
+    <t>helennambalirwa@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drolencek@yahoo.com </t>
+  </si>
+  <si>
+    <t>odongoronieplanks@gmail.com</t>
+  </si>
+  <si>
+    <t>victorabaasa@gmail.com</t>
+  </si>
+  <si>
+    <t>namirembeteddy9@gmail.com</t>
+  </si>
+  <si>
+    <t>gglosh61@gmail.com</t>
+  </si>
+  <si>
+    <t>kakshuss@gmail.com</t>
+  </si>
+  <si>
+    <t>tiakarenopondo@outlook.com</t>
+  </si>
+  <si>
+    <t>Mulindwamoses1@hotmail.com</t>
+  </si>
+  <si>
+    <t>mjgasim@gmail.com</t>
+  </si>
+  <si>
+    <t>aswillahsettimba@gmail.com</t>
+  </si>
+  <si>
+    <t>muhindosilver@gmail.com</t>
+  </si>
+  <si>
+    <t>maureen.muhwana@gmail.com</t>
+  </si>
+  <si>
+    <t>nyiteraa@gmail.com</t>
+  </si>
+  <si>
+    <t>trayzalex@gmail.com</t>
+  </si>
+  <si>
+    <t>joanahnabwire@gmail.com</t>
+  </si>
+  <si>
+    <t>munyamibaker@hotmail.com</t>
+  </si>
+  <si>
+    <t>charityrwekaza@gmail.com</t>
+  </si>
+  <si>
+    <t>gideonkibirige@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">namulib@yahoo.com </t>
+  </si>
+  <si>
+    <t>juliuskatungi02@gmail.com</t>
+  </si>
+  <si>
+    <t>agabaf8@gmail.com</t>
+  </si>
+  <si>
+    <t>engwautimothy@gmail.com</t>
+  </si>
+  <si>
+    <t>mulumbajulius@yahoo.com</t>
+  </si>
+  <si>
+    <t>twicenice45623@gmail.com/kalungialbert45623@gmail.com</t>
+  </si>
+  <si>
+    <t>mutonyi014@gmail.com</t>
+  </si>
+  <si>
+    <t>paulkakuru11a gmail.com</t>
+  </si>
+  <si>
+    <t>Milundijohn@gmail.com</t>
+  </si>
+  <si>
+    <t>rachaelzac01@gmail.com</t>
+  </si>
+  <si>
+    <t>jonan.w@yahoo.com</t>
+  </si>
+  <si>
+    <t>Jonan.w@yahoo.com</t>
+  </si>
+  <si>
+    <t>musedesimon13@gmail.com</t>
+  </si>
+  <si>
+    <t>bridgetatuhaire0@gmail.com</t>
+  </si>
+  <si>
+    <t>bsolomondarlen@gmail.com</t>
+  </si>
+  <si>
+    <t>aollilliane@gmail.com</t>
+  </si>
+  <si>
+    <t>nohokit@gmail.com</t>
+  </si>
+  <si>
+    <t>okotelmoses89@gmail.com</t>
+  </si>
+  <si>
+    <t>kalanzishimmy@gmail.com/snamponye0@gmail.com</t>
+  </si>
+  <si>
+    <t>padde.j@yahoo.com</t>
+  </si>
+  <si>
+    <t>nasifu93@gmail.com</t>
+  </si>
+  <si>
+    <t>roykiggundu@gmail.com</t>
+  </si>
+  <si>
+    <t>Waswaedgar@gmail.com</t>
+  </si>
+  <si>
+    <t>jkoballim@gmail.com</t>
+  </si>
+  <si>
+    <t>nakasomaedith20@gmail.com</t>
+  </si>
+  <si>
+    <t>jpadde@covab.mak.ac.ug</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1516,6 +2229,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1545,7 +2266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1558,6 +2279,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1862,10 +2590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K276"/>
+  <dimension ref="A1:K336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F221" sqref="F221"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="B338" sqref="B338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2147,6 +2875,12 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2155,6 +2889,12 @@
       </c>
       <c r="I11" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -2162,7 +2902,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>29</v>
@@ -2171,6 +2911,12 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2179,6 +2925,9 @@
       </c>
       <c r="I12" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2186,10 +2935,10 @@
         <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
@@ -2210,15 +2959,21 @@
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
@@ -2227,6 +2982,9 @@
       </c>
       <c r="I14" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -2234,10 +2992,10 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
@@ -2258,10 +3016,10 @@
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
@@ -2277,20 +3035,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2300,13 +3064,16 @@
       <c r="I17" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>29</v>
@@ -2325,12 +3092,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>29</v>
@@ -2349,12 +3116,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>29</v>
@@ -2373,15 +3140,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
@@ -2397,12 +3164,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
@@ -2421,15 +3188,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
@@ -2445,12 +3212,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>29</v>
@@ -2459,6 +3226,12 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>14</v>
       </c>
@@ -2468,21 +3241,33 @@
       <c r="I24" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="G25" s="1" t="s">
         <v>14</v>
       </c>
@@ -2492,16 +3277,22 @@
       <c r="I25" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
@@ -2517,15 +3308,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
@@ -2541,15 +3332,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
@@ -2565,15 +3356,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
@@ -2589,15 +3380,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
@@ -2613,15 +3404,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
@@ -2637,15 +3428,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
@@ -2661,15 +3452,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
@@ -2685,15 +3476,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
@@ -2709,15 +3500,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
@@ -2733,20 +3524,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
+      <c r="E36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>14</v>
       </c>
@@ -2756,16 +3553,19 @@
       <c r="I36" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
@@ -2781,15 +3581,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
@@ -2805,15 +3605,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
@@ -2829,15 +3629,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
@@ -2853,15 +3653,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="0"/>
@@ -2877,20 +3677,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
+      <c r="E42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="G42" s="1" t="s">
         <v>14</v>
       </c>
@@ -2900,16 +3706,19 @@
       <c r="I42" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="0"/>
@@ -2925,15 +3734,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="0"/>
@@ -2949,15 +3758,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="0"/>
@@ -2973,15 +3782,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="0"/>
@@ -2997,15 +3806,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="0"/>
@@ -3021,20 +3830,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
+      <c r="E48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="G48" s="1" t="s">
         <v>14</v>
       </c>
@@ -3044,16 +3859,22 @@
       <c r="I48" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="J48" t="s">
+        <v>122</v>
+      </c>
+      <c r="K48" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="0"/>
@@ -3071,13 +3892,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="0"/>
@@ -3095,13 +3916,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="0"/>
@@ -3119,13 +3940,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="0"/>
@@ -3143,13 +3964,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="0"/>
@@ -3167,13 +3988,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="0"/>
@@ -3191,13 +4012,13 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="0"/>
@@ -3215,13 +4036,13 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="0"/>
@@ -3239,13 +4060,13 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="0"/>
@@ -3263,13 +4084,13 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="0"/>
@@ -3287,13 +4108,13 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="0"/>
@@ -3311,13 +4132,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="0"/>
@@ -3335,13 +4156,13 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="0"/>
@@ -3359,13 +4180,13 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="0"/>
@@ -3383,13 +4204,13 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="0"/>
@@ -3407,13 +4228,13 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="0"/>
@@ -3431,13 +4252,13 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" si="0"/>
@@ -3455,13 +4276,13 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" ref="D66:D129" si="1">ROW() - 1</f>
@@ -3479,13 +4300,13 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" si="1"/>
@@ -3503,13 +4324,13 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="1"/>
@@ -3527,13 +4348,13 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" si="1"/>
@@ -3551,13 +4372,13 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" si="1"/>
@@ -3575,13 +4396,13 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" si="1"/>
@@ -3599,13 +4420,13 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" si="1"/>
@@ -3623,13 +4444,13 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" si="1"/>
@@ -3647,13 +4468,13 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="1"/>
@@ -3671,13 +4492,13 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="D75" s="1">
         <f t="shared" si="1"/>
@@ -3695,13 +4516,13 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D76" s="1">
         <f t="shared" si="1"/>
@@ -3719,13 +4540,13 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="1"/>
@@ -3743,13 +4564,13 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" si="1"/>
@@ -3767,13 +4588,13 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="D79" s="1">
         <f t="shared" si="1"/>
@@ -3791,13 +4612,13 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D80" s="1">
         <f t="shared" si="1"/>
@@ -3813,15 +4634,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" si="1"/>
@@ -3837,15 +4658,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D82" s="1">
         <f t="shared" si="1"/>
@@ -3861,15 +4682,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="D83" s="1">
         <f t="shared" si="1"/>
@@ -3885,15 +4706,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="D84" s="1">
         <f t="shared" si="1"/>
@@ -3909,15 +4730,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="1"/>
@@ -3933,15 +4754,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="D86" s="1">
         <f t="shared" si="1"/>
@@ -3957,15 +4778,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D87" s="1">
         <f t="shared" si="1"/>
@@ -3981,15 +4802,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" si="1"/>
@@ -4005,20 +4826,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="D89" s="1">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
+      <c r="E89" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="G89" s="1" t="s">
         <v>14</v>
       </c>
@@ -4028,16 +4855,22 @@
       <c r="I89" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89" t="s">
+        <v>179</v>
+      </c>
+      <c r="K89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="D90" s="1">
         <f t="shared" si="1"/>
@@ -4053,15 +4886,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D91" s="1">
         <f t="shared" si="1"/>
@@ -4077,15 +4910,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D92" s="1">
         <f t="shared" si="1"/>
@@ -4101,15 +4934,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D93" s="1">
         <f t="shared" si="1"/>
@@ -4125,15 +4958,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="D94" s="1">
         <f t="shared" si="1"/>
@@ -4149,15 +4982,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D95" s="1">
         <f t="shared" si="1"/>
@@ -4173,15 +5006,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D96" s="1">
         <f t="shared" si="1"/>
@@ -4197,15 +5030,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D97" s="1">
         <f t="shared" si="1"/>
@@ -4221,15 +5054,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D98" s="1">
         <f t="shared" si="1"/>
@@ -4245,15 +5078,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D99" s="1">
         <f t="shared" si="1"/>
@@ -4269,15 +5102,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D100" s="1">
         <f t="shared" si="1"/>
@@ -4293,15 +5126,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D101" s="1">
         <f t="shared" si="1"/>
@@ -4317,15 +5150,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D102" s="1">
         <f t="shared" si="1"/>
@@ -4341,15 +5174,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D103" s="1">
         <f t="shared" si="1"/>
@@ -4365,15 +5198,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D104" s="1">
         <f t="shared" si="1"/>
@@ -4389,15 +5222,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="D105" s="1">
         <f t="shared" si="1"/>
@@ -4413,15 +5246,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D106" s="1">
         <f t="shared" si="1"/>
@@ -4437,15 +5270,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D107" s="1">
         <f t="shared" si="1"/>
@@ -4461,15 +5294,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D108" s="1">
         <f t="shared" si="1"/>
@@ -4485,15 +5318,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D109" s="1">
         <f t="shared" si="1"/>
@@ -4509,15 +5342,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D110" s="1">
         <f t="shared" si="1"/>
@@ -4533,20 +5366,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="D111" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
+      <c r="E111" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="G111" s="1" t="s">
         <v>14</v>
       </c>
@@ -4556,16 +5395,22 @@
       <c r="I111" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J111" t="s">
+        <v>210</v>
+      </c>
+      <c r="K111" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="D112" s="1">
         <f t="shared" si="1"/>
@@ -4581,20 +5426,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="D113" s="1">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
+      <c r="E113" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="G113" s="1" t="s">
         <v>14</v>
       </c>
@@ -4604,16 +5455,22 @@
       <c r="I113" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J113" t="s">
+        <v>218</v>
+      </c>
+      <c r="K113" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D114" s="1">
         <f t="shared" si="1"/>
@@ -4629,15 +5486,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="D115" s="1">
         <f t="shared" si="1"/>
@@ -4653,15 +5510,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="D116" s="1">
         <f t="shared" si="1"/>
@@ -4677,15 +5534,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="D117" s="1">
         <f t="shared" si="1"/>
@@ -4701,15 +5558,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="D118" s="1">
         <f t="shared" si="1"/>
@@ -4725,15 +5582,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="D119" s="1">
         <f t="shared" si="1"/>
@@ -4749,15 +5606,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="D120" s="1">
         <f t="shared" si="1"/>
@@ -4773,15 +5630,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="D121" s="1">
         <f t="shared" si="1"/>
@@ -4797,15 +5654,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="D122" s="1">
         <f t="shared" si="1"/>
@@ -4821,15 +5678,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="D123" s="1">
         <f t="shared" si="1"/>
@@ -4845,15 +5702,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="D124" s="1">
         <f t="shared" si="1"/>
@@ -4869,15 +5726,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="D125" s="1">
         <f t="shared" si="1"/>
@@ -4893,15 +5750,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="D126" s="1">
         <f t="shared" si="1"/>
@@ -4917,15 +5774,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="D127" s="1">
         <f t="shared" si="1"/>
@@ -4941,15 +5798,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="D128" s="1">
         <f t="shared" si="1"/>
@@ -4965,15 +5822,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="D129" s="1">
         <f t="shared" si="1"/>
@@ -4989,15 +5846,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="D130" s="1">
         <f t="shared" ref="D130:D193" si="2">ROW() - 1</f>
@@ -5013,15 +5870,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="D131" s="1">
         <f t="shared" si="2"/>
@@ -5037,15 +5894,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="D132" s="1">
         <f t="shared" si="2"/>
@@ -5061,15 +5918,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="D133" s="1">
         <f t="shared" si="2"/>
@@ -5085,15 +5942,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="D134" s="1">
         <f t="shared" si="2"/>
@@ -5109,20 +5966,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="D135" s="1">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
+      <c r="E135" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="G135" s="1" t="s">
         <v>14</v>
       </c>
@@ -5132,16 +5995,19 @@
       <c r="I135" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J135" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="D136" s="1">
         <f t="shared" si="2"/>
@@ -5157,15 +6023,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="D137" s="1">
         <f t="shared" si="2"/>
@@ -5181,15 +6047,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="D138" s="1">
         <f t="shared" si="2"/>
@@ -5205,15 +6071,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="D139" s="1">
         <f t="shared" si="2"/>
@@ -5229,15 +6095,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="D140" s="1">
         <f t="shared" si="2"/>
@@ -5253,15 +6119,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="D141" s="1">
         <f t="shared" si="2"/>
@@ -5277,15 +6143,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="D142" s="1">
         <f t="shared" si="2"/>
@@ -5301,15 +6167,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="D143" s="1">
         <f t="shared" si="2"/>
@@ -5325,15 +6191,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="D144" s="1">
         <f t="shared" si="2"/>
@@ -5349,15 +6215,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="D145" s="1">
         <f t="shared" si="2"/>
@@ -5373,15 +6239,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="D146" s="1">
         <f t="shared" si="2"/>
@@ -5397,20 +6263,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="D147" s="1">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
+      <c r="E147" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G147" s="1" t="s">
         <v>14</v>
       </c>
@@ -5420,16 +6292,22 @@
       <c r="I147" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J147" t="s">
+        <v>285</v>
+      </c>
+      <c r="K147" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="D148" s="1">
         <f t="shared" si="2"/>
@@ -5445,15 +6323,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="D149" s="1">
         <f t="shared" si="2"/>
@@ -5469,15 +6347,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="D150" s="1">
         <f t="shared" si="2"/>
@@ -5493,12 +6371,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="D151" s="1">
         <f t="shared" si="2"/>
@@ -5514,15 +6392,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="D152" s="1">
         <f t="shared" si="2"/>
@@ -5538,15 +6416,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="D153" s="1">
         <f t="shared" si="2"/>
@@ -5562,15 +6440,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="D154" s="1">
         <f t="shared" si="2"/>
@@ -5586,15 +6464,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="D155" s="1">
         <f t="shared" si="2"/>
@@ -5610,351 +6488,360 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="D156" s="1">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H156" s="3">
         <v>2023</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="D157" s="1">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H157" s="3">
         <v>2023</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="D158" s="1">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H158" s="3">
         <v>2023</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="D159" s="1">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H159" s="3">
         <v>2022</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="D160" s="1">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H160" s="3">
         <v>2023</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="D161" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="H161" s="3">
         <v>2023</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="D162" s="1">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H162" s="3">
         <v>2023</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="D163" s="1">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H163" s="3">
         <v>2021</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="D164" s="1">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="H164" s="3">
         <v>2022</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
       <c r="D165" s="1">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H165" s="3">
         <v>2024</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="D166" s="1">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="H166" s="3">
         <v>2022</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="D167" s="1">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="H167" s="3">
         <v>2023</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="D168" s="1">
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H168" s="3">
         <v>2023</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="D169" s="1">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
+      <c r="E169" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="G169" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H169" s="3">
         <v>2022</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+      <c r="J169" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="D170" s="1">
         <f t="shared" si="2"/>
@@ -5970,15 +6857,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="D171" s="1">
         <f t="shared" si="2"/>
@@ -5994,15 +6881,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="D172" s="1">
         <f t="shared" si="2"/>
@@ -6018,15 +6905,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>293</v>
+        <v>346</v>
       </c>
       <c r="D173" s="1">
         <f t="shared" si="2"/>
@@ -6042,15 +6929,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="D174" s="1">
         <f t="shared" si="2"/>
@@ -6066,15 +6953,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c r="D175" s="1">
         <f t="shared" si="2"/>
@@ -6090,15 +6977,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>298</v>
+        <v>351</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="D176" s="1">
         <f t="shared" si="2"/>
@@ -6114,15 +7001,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="D177" s="1">
         <f t="shared" si="2"/>
@@ -6138,15 +7025,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c r="D178" s="1">
         <f t="shared" si="2"/>
@@ -6162,15 +7049,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>303</v>
+        <v>356</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="D179" s="1">
         <f t="shared" si="2"/>
@@ -6186,15 +7073,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="D180" s="1">
         <f t="shared" si="2"/>
@@ -6210,20 +7097,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="D181" s="1">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
+      <c r="E181" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="G181" s="1" t="s">
         <v>14</v>
       </c>
@@ -6233,16 +7126,19 @@
       <c r="I181" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J181" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>306</v>
+        <v>362</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="D182" s="1">
         <f t="shared" si="2"/>
@@ -6258,15 +7154,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>307</v>
+        <v>363</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>308</v>
+        <v>364</v>
       </c>
       <c r="D183" s="1">
         <f t="shared" si="2"/>
@@ -6282,15 +7178,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>309</v>
+        <v>365</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>308</v>
+        <v>364</v>
       </c>
       <c r="D184" s="1">
         <f t="shared" si="2"/>
@@ -6306,15 +7202,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>310</v>
+        <v>366</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="D185" s="1">
         <f t="shared" si="2"/>
@@ -6330,15 +7226,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>311</v>
+        <v>367</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="D186" s="1">
         <f t="shared" si="2"/>
@@ -6354,15 +7250,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="D187" s="1">
         <f t="shared" si="2"/>
@@ -6378,15 +7274,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>313</v>
+        <v>369</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>314</v>
+        <v>370</v>
       </c>
       <c r="D188" s="1">
         <f t="shared" si="2"/>
@@ -6402,15 +7298,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="D189" s="1">
         <f t="shared" si="2"/>
@@ -6426,15 +7322,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="D190" s="1">
         <f t="shared" si="2"/>
@@ -6450,15 +7346,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="D191" s="1">
         <f t="shared" si="2"/>
@@ -6474,15 +7370,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>318</v>
+        <v>374</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="D192" s="1">
         <f t="shared" si="2"/>
@@ -6500,13 +7396,13 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="D193" s="1">
         <f t="shared" si="2"/>
@@ -6524,13 +7420,13 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="D194" s="1">
         <f t="shared" ref="D194:D257" si="3">ROW() - 1</f>
@@ -6548,13 +7444,13 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="D195" s="1">
         <f t="shared" si="3"/>
@@ -6572,13 +7468,13 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="D196" s="1">
         <f t="shared" si="3"/>
@@ -6596,13 +7492,13 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>323</v>
+        <v>379</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="D197" s="1">
         <f t="shared" si="3"/>
@@ -6620,13 +7516,13 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>325</v>
+        <v>381</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="D198" s="1">
         <f t="shared" si="3"/>
@@ -6644,13 +7540,13 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>327</v>
+        <v>383</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="D199" s="1">
         <f t="shared" si="3"/>
@@ -6668,13 +7564,13 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>329</v>
+        <v>385</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="D200" s="1">
         <f t="shared" si="3"/>
@@ -6692,13 +7588,13 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>331</v>
+        <v>387</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="D201" s="1">
         <f t="shared" si="3"/>
@@ -6716,13 +7612,13 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>332</v>
+        <v>388</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="D202" s="1">
         <f t="shared" si="3"/>
@@ -6740,13 +7636,13 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="D203" s="1">
         <f t="shared" si="3"/>
@@ -6764,13 +7660,13 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>334</v>
+        <v>390</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="D204" s="1">
         <f t="shared" si="3"/>
@@ -6788,13 +7684,13 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>335</v>
+        <v>391</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="D205" s="1">
         <f t="shared" si="3"/>
@@ -6812,13 +7708,13 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="D206" s="1">
         <f t="shared" si="3"/>
@@ -6836,13 +7732,13 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="D207" s="1">
         <f t="shared" si="3"/>
@@ -6860,13 +7756,13 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>338</v>
+        <v>394</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>339</v>
+        <v>395</v>
       </c>
       <c r="D208" s="1">
         <f t="shared" si="3"/>
@@ -6884,13 +7780,13 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="D209" s="1">
         <f t="shared" si="3"/>
@@ -6908,13 +7804,13 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="D210" s="1">
         <f t="shared" si="3"/>
@@ -6932,13 +7828,13 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>342</v>
+        <v>398</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="D211" s="1">
         <f t="shared" si="3"/>
@@ -6956,13 +7852,13 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>343</v>
+        <v>399</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="D212" s="1">
         <f t="shared" si="3"/>
@@ -6980,13 +7876,13 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="D213" s="1">
         <f t="shared" si="3"/>
@@ -7004,13 +7900,13 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>345</v>
+        <v>401</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="D214" s="1">
         <f t="shared" si="3"/>
@@ -7028,13 +7924,13 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>346</v>
+        <v>402</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="D215" s="1">
         <f t="shared" si="3"/>
@@ -7052,13 +7948,13 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="D216" s="1">
         <f t="shared" si="3"/>
@@ -7076,13 +7972,13 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>339</v>
+        <v>395</v>
       </c>
       <c r="D217" s="1">
         <f t="shared" si="3"/>
@@ -7100,13 +7996,13 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>349</v>
+        <v>405</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="D218" s="1">
         <f t="shared" si="3"/>
@@ -7124,13 +8020,13 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="D219" s="1">
         <f t="shared" si="3"/>
@@ -7148,13 +8044,13 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="D220" s="1">
         <f t="shared" si="3"/>
@@ -7172,13 +8068,13 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>352</v>
+        <v>408</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="D221" s="1">
         <f t="shared" si="3"/>
@@ -7196,13 +8092,13 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="D222" s="1">
         <f t="shared" si="3"/>
@@ -7220,13 +8116,13 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>355</v>
+        <v>411</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="D223" s="1">
         <f t="shared" si="3"/>
@@ -7244,13 +8140,13 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="D224" s="1">
         <f t="shared" si="3"/>
@@ -7266,15 +8162,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="D225" s="1">
         <f t="shared" si="3"/>
@@ -7290,15 +8186,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="D226" s="1">
         <f t="shared" si="3"/>
@@ -7314,15 +8210,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="D227" s="1">
         <f t="shared" si="3"/>
@@ -7338,15 +8234,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="D228" s="1">
         <f t="shared" si="3"/>
@@ -7362,166 +8258,178 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>366</v>
+        <v>422</v>
       </c>
       <c r="D229" s="1">
         <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H229" s="3">
         <v>2022</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>368</v>
+        <v>424</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>369</v>
+        <v>425</v>
       </c>
       <c r="D230" s="1">
         <f t="shared" si="3"/>
         <v>229</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="H230" s="3">
         <v>2023</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>371</v>
+        <v>427</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="D231" s="1">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H231" s="3">
         <v>2022</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="D232" s="1">
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="H232" s="3">
         <v>2021</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>369</v>
+        <v>425</v>
       </c>
       <c r="D233" s="1">
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H233" s="3">
         <v>2022</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>366</v>
+        <v>422</v>
       </c>
       <c r="D234" s="1">
         <f t="shared" si="3"/>
         <v>233</v>
       </c>
+      <c r="E234" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="G234" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H234" s="3">
         <v>2022</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+      <c r="J234" t="s">
+        <v>439</v>
+      </c>
+      <c r="K234" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>381</v>
+        <v>441</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>369</v>
+        <v>425</v>
       </c>
       <c r="D235" s="1">
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H235" s="3">
         <v>2021</v>
@@ -7531,327 +8439,351 @@
       </c>
       <c r="J235" s="4"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>382</v>
+        <v>442</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>383</v>
+        <v>443</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>384</v>
+        <v>444</v>
       </c>
       <c r="D236" s="1">
         <f t="shared" si="3"/>
         <v>235</v>
       </c>
+      <c r="E236" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="G236" s="1" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="H236" s="3">
         <v>2023</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+      <c r="J236" t="s">
+        <v>449</v>
+      </c>
+      <c r="K236" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>382</v>
+        <v>442</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>387</v>
+        <v>451</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>388</v>
+        <v>452</v>
       </c>
       <c r="D237" s="1">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="H237" s="3">
         <v>2024</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>382</v>
+        <v>442</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="D238" s="1">
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="H238" s="3">
         <v>2021</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>382</v>
+        <v>442</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>394</v>
+        <v>458</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>395</v>
+        <v>459</v>
       </c>
       <c r="D239" s="1">
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="H239" s="3">
         <v>2023</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>382</v>
+        <v>442</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>397</v>
+        <v>461</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>398</v>
+        <v>462</v>
       </c>
       <c r="D240" s="1">
         <f t="shared" si="3"/>
         <v>239</v>
       </c>
+      <c r="E240" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>464</v>
+      </c>
       <c r="G240" s="1" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="H240" s="3">
         <v>2024</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>399</v>
+        <v>465</v>
+      </c>
+      <c r="J240" t="s">
+        <v>466</v>
+      </c>
+      <c r="K240" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>382</v>
+        <v>442</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>400</v>
+        <v>468</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="D241" s="1">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="H241" s="3">
         <v>2021</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>403</v>
+        <v>471</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>382</v>
+        <v>442</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>404</v>
+        <v>472</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
       <c r="D242" s="1">
         <f t="shared" si="3"/>
         <v>241</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="H242" s="3">
         <v>2021</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>406</v>
+        <v>474</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>408</v>
+        <v>476</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>409</v>
+        <v>477</v>
       </c>
       <c r="D243" s="1">
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="H243" s="3">
         <v>0</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>410</v>
+        <v>478</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>412</v>
+        <v>480</v>
       </c>
       <c r="D244" s="1">
         <f t="shared" si="3"/>
         <v>243</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H244" s="3">
         <v>0</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>413</v>
+        <v>481</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>414</v>
+        <v>482</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>415</v>
+        <v>483</v>
       </c>
       <c r="D245" s="1">
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H245" s="3">
         <v>0</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>416</v>
+        <v>484</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>417</v>
+        <v>485</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>409</v>
+        <v>477</v>
       </c>
       <c r="D246" s="1">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="H246" s="3">
         <v>0</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>418</v>
+        <v>486</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>419</v>
+        <v>487</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>420</v>
+        <v>488</v>
       </c>
       <c r="D247" s="1">
         <f t="shared" si="3"/>
         <v>246</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H247" s="3">
         <v>0</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>421</v>
+        <v>489</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>422</v>
+        <v>490</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>423</v>
+        <v>491</v>
       </c>
       <c r="D248" s="1">
         <f t="shared" si="3"/>
         <v>247</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H248" s="3">
         <v>0</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>424</v>
+        <v>492</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>425</v>
+        <v>493</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>426</v>
+        <v>494</v>
       </c>
       <c r="D249" s="1">
         <f t="shared" si="3"/>
@@ -7861,258 +8793,258 @@
         <v>0</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>427</v>
+        <v>495</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>428</v>
+        <v>496</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>429</v>
+        <v>497</v>
       </c>
       <c r="D250" s="1">
         <f t="shared" si="3"/>
         <v>249</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H250" s="3">
         <v>0</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>430</v>
+        <v>498</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>431</v>
+        <v>499</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>432</v>
+        <v>500</v>
       </c>
       <c r="D251" s="1">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="H251" s="3">
         <v>2023</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>433</v>
+        <v>501</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>434</v>
+        <v>502</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>423</v>
+        <v>491</v>
       </c>
       <c r="D252" s="1">
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H252" s="3">
         <v>0</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>435</v>
+        <v>503</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>436</v>
+        <v>504</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>409</v>
+        <v>477</v>
       </c>
       <c r="D253" s="1">
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="H253" s="3">
         <v>0</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>437</v>
+        <v>505</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>438</v>
+        <v>506</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="D254" s="1">
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H254" s="3">
         <v>0</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>440</v>
+        <v>508</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>441</v>
+        <v>509</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>442</v>
+        <v>510</v>
       </c>
       <c r="D255" s="1">
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="H255" s="3">
         <v>0</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>443</v>
+        <v>511</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>444</v>
+        <v>512</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>445</v>
+        <v>513</v>
       </c>
       <c r="D256" s="1">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="H256" s="3">
         <v>2022</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>446</v>
+        <v>514</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>447</v>
+        <v>515</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>409</v>
+        <v>477</v>
       </c>
       <c r="D257" s="1">
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="H257" s="3">
         <v>0</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>448</v>
+        <v>516</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>409</v>
+        <v>477</v>
       </c>
       <c r="D258" s="1">
         <f t="shared" ref="D258:D276" si="4">ROW() - 1</f>
         <v>257</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="H258" s="3">
         <v>0</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>450</v>
+        <v>518</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>451</v>
+        <v>519</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>409</v>
+        <v>477</v>
       </c>
       <c r="D259" s="1">
         <f t="shared" si="4"/>
         <v>258</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="H259" s="3">
         <v>2021</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>452</v>
+        <v>520</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>453</v>
+        <v>521</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>454</v>
+        <v>522</v>
       </c>
       <c r="D260" s="1">
         <f t="shared" si="4"/>
@@ -8124,13 +9056,13 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>455</v>
+        <v>523</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>456</v>
+        <v>524</v>
       </c>
       <c r="D261" s="1">
         <f t="shared" si="4"/>
@@ -8140,162 +9072,162 @@
         <v>0</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>457</v>
+        <v>525</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>458</v>
+        <v>526</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>445</v>
+        <v>513</v>
       </c>
       <c r="D262" s="1">
         <f t="shared" si="4"/>
         <v>261</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="H262" s="3">
         <v>2023</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>459</v>
+        <v>527</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>461</v>
+        <v>529</v>
       </c>
       <c r="D263" s="1">
         <f t="shared" si="4"/>
         <v>262</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="H263" s="3">
         <v>2022</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>462</v>
+        <v>530</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>463</v>
+        <v>531</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>445</v>
+        <v>513</v>
       </c>
       <c r="D264" s="1">
         <f t="shared" si="4"/>
         <v>263</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="H264" s="3">
         <v>2022</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>464</v>
+        <v>532</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>409</v>
+        <v>477</v>
       </c>
       <c r="D265" s="1">
         <f t="shared" si="4"/>
         <v>264</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="H265" s="3">
         <v>0</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>467</v>
+        <v>535</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>432</v>
+        <v>500</v>
       </c>
       <c r="D266" s="1">
         <f t="shared" si="4"/>
         <v>265</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H266" s="3">
         <v>0</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>468</v>
+        <v>536</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>469</v>
+        <v>537</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>445</v>
+        <v>513</v>
       </c>
       <c r="D267" s="1">
         <f t="shared" si="4"/>
         <v>266</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="H267" s="3">
         <v>2023</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>470</v>
+        <v>538</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>471</v>
+        <v>539</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>472</v>
+        <v>540</v>
       </c>
       <c r="D268" s="1">
         <f t="shared" si="4"/>
@@ -8305,18 +9237,18 @@
         <v>0</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>473</v>
+        <v>541</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>474</v>
+        <v>542</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>475</v>
+        <v>543</v>
       </c>
       <c r="D269" s="1">
         <f t="shared" si="4"/>
@@ -8326,182 +9258,1202 @@
         <v>0</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>476</v>
+        <v>544</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>477</v>
+        <v>545</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>478</v>
+        <v>546</v>
       </c>
       <c r="D270" s="1">
         <f t="shared" si="4"/>
         <v>269</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H270" s="3">
         <v>0</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>480</v>
+        <v>548</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>409</v>
+        <v>477</v>
       </c>
       <c r="D271" s="1">
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H271" s="3">
         <v>0</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>481</v>
+        <v>549</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>482</v>
+        <v>550</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>445</v>
+        <v>513</v>
       </c>
       <c r="D272" s="1">
         <f t="shared" si="4"/>
         <v>271</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H272" s="3">
         <v>0</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>483</v>
+        <v>551</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>484</v>
+        <v>552</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>445</v>
+        <v>513</v>
       </c>
       <c r="D273" s="1">
         <f t="shared" si="4"/>
         <v>272</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H273" s="3">
         <v>0</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>485</v>
+        <v>553</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>409</v>
+        <v>477</v>
       </c>
       <c r="D274" s="1">
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="H274" s="3">
         <v>2022</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>487</v>
+        <v>555</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>488</v>
+        <v>556</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>461</v>
+        <v>529</v>
       </c>
       <c r="D275" s="1">
         <f t="shared" si="4"/>
         <v>274</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="H275" s="3">
         <v>2021</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>489</v>
+        <v>557</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>490</v>
+        <v>558</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>445</v>
+        <v>513</v>
       </c>
       <c r="D276" s="1">
         <f t="shared" si="4"/>
         <v>275</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="H276" s="3">
         <v>2023</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>491</v>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A277" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H277" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A278" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H278" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A279" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H279" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A280" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="H280" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A281" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H281" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A282" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H282" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A283" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H283" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A284" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="H284" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A285" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="H285" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A286" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H286" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A287" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H287" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A288" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H288" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A289" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H289" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A290" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H290" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A291" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="H291" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A292" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="H292" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A293" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="H293" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A294" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H294" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A295" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H295" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A296" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="H296" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A297" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="H297" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A298" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="H298" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A299" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="H299" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A300" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="H300" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A301" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="H301" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A302" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="H302" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A303" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="H303" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="I303" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A304" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="H304" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="I304" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A305" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="H305" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A306" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="H306" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="I306" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A307" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="H307" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A308" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="H308" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="I308" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A309" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="H309" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A310" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="H310" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A311" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="H311" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A312" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="H312" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="I312" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A313" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="H313" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="I313" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A314" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="H314" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="I314" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A315" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="H315" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="I315" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A316" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H316" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="I316" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A317" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="H317" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="I317" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A318" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H318" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="I318" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A319" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H319" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="I319" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A320" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="H320" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="I320" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A321" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H321" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="I321" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A322" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="H322" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="I322" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A323" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="H323" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="I323" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A324" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="H324" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="I324" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A325" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H325" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="I325" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A326" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="H326" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="I326" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A327" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="H327" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="I327" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A328" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="H328" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="I328" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A329" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H329" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="I329" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A330" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H330" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="I330" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A331" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H331" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="I331" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A332" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="H332" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="I332" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A333" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="H333" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="I333" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A334" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="H334" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="I334" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A335" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="H335" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="I335" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A336" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H336" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="I336" s="1" t="s">
+        <v>728</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:I276" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <autoFilter ref="B1:B336" xr:uid="{A43662D9-A3FE-4653-AB6C-1096B2BB49C0}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/elections/verification/data/students_db.xlsx
+++ b/elections/verification/data/students_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ampps\www\usac-website\elections\verification\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26EBA1CE-61DC-4803-9365-5558F10EB1F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACD9883F-9C31-4956-BAC1-11F3822261F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17700" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="730">
   <si>
     <t>PROVINCE</t>
   </si>
@@ -37,10 +37,10 @@
     <t>ID</t>
   </si>
   <si>
-    <t>VOTER_ID</t>
-  </si>
-  <si>
-    <t>VOTER_PASS</t>
+    <t>gjQEPTf9atVSmK1</t>
+  </si>
+  <si>
+    <t>NDhEhxfn</t>
   </si>
   <si>
     <t>CURRENTLY IN CHINA (YES or NO)</t>
@@ -52,7 +52,7 @@
     <t>CONTACT</t>
   </si>
   <si>
-    <t>EMAIL</t>
+    <t>nakaanajosiah1@gmail.com</t>
   </si>
   <si>
     <t>VERIFIED</t>
@@ -814,6 +814,9 @@
     <t>asingwiregilbert036@gmail.com</t>
   </si>
   <si>
+    <t>2022/03/18 05:55:09</t>
+  </si>
+  <si>
     <t>ATWINE JAMES</t>
   </si>
   <si>
@@ -1039,6 +1042,9 @@
     <t>wyclefsnow3@gmail.com</t>
   </si>
   <si>
+    <t>2022/03/18 05:40:05</t>
+  </si>
+  <si>
     <t>Shandong</t>
   </si>
   <si>
@@ -1435,138 +1441,135 @@
     <t>Tiangong University</t>
   </si>
   <si>
+    <t>Woyeya Christopher</t>
+  </si>
+  <si>
+    <t>Tianjin Universisty</t>
+  </si>
+  <si>
+    <t>18222337109</t>
+  </si>
+  <si>
+    <t>Zheijiang</t>
+  </si>
+  <si>
+    <t>Agonza Lewis Conrad</t>
+  </si>
+  <si>
+    <t>Zhejiang Normal University</t>
+  </si>
+  <si>
+    <t>17858978702</t>
+  </si>
+  <si>
+    <t>Ahimbisibwe Duncan Byron</t>
+  </si>
+  <si>
+    <t>Zhejiang university of Technology</t>
+  </si>
+  <si>
+    <t>19884153433</t>
+  </si>
+  <si>
+    <t>Amannya Andrew Travis</t>
+  </si>
+  <si>
+    <t>Zheijiang university of finance and economics</t>
+  </si>
+  <si>
+    <t>13221831857</t>
+  </si>
+  <si>
+    <t>Byanjeru Kankunda</t>
+  </si>
+  <si>
+    <t>15651023919</t>
+  </si>
+  <si>
+    <t>Catherine Nakazibwe</t>
+  </si>
+  <si>
+    <t>Wenzhou medical university</t>
+  </si>
+  <si>
+    <t>18857730250</t>
+  </si>
+  <si>
+    <t>Genevieve Nattabi</t>
+  </si>
+  <si>
+    <t>Zhejiang university of science and technology</t>
+  </si>
+  <si>
+    <t>13296732635</t>
+  </si>
+  <si>
+    <t>Isaac Ojok</t>
+  </si>
+  <si>
+    <t>Zhejiang University Hangzhou</t>
+  </si>
+  <si>
+    <t>15068110791</t>
+  </si>
+  <si>
+    <t>Kabuuza nana nabila</t>
+  </si>
+  <si>
+    <t>Zhejiang normal university</t>
+  </si>
+  <si>
+    <t>18892618579</t>
+  </si>
+  <si>
+    <t>Kangavve Patrick</t>
+  </si>
+  <si>
+    <t>Zhejiang University</t>
+  </si>
+  <si>
+    <t>18817791387</t>
+  </si>
+  <si>
+    <t>Kasagga Arnold Leonard</t>
+  </si>
+  <si>
+    <t>13018985783</t>
+  </si>
+  <si>
+    <t>Kebirungi Kirabo</t>
+  </si>
+  <si>
+    <t>13185185281</t>
+  </si>
+  <si>
+    <t>Liminya Jesca</t>
+  </si>
+  <si>
+    <t>Zheijang university of S&amp;T</t>
+  </si>
+  <si>
+    <t>17816898044</t>
+  </si>
+  <si>
+    <t>Mbabali Quraish</t>
+  </si>
+  <si>
+    <t>Zhejiang University of technology</t>
+  </si>
+  <si>
+    <t>13291249519</t>
+  </si>
+  <si>
+    <t>Mubiru Faheemy Kato Mutebi</t>
+  </si>
+  <si>
+    <t>Wenzhou University</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>13212009225</t>
-  </si>
-  <si>
-    <t>Woyeya Christopher</t>
-  </si>
-  <si>
-    <t>Tianjin Universisty</t>
-  </si>
-  <si>
-    <t>18222337109</t>
-  </si>
-  <si>
-    <t>Zheijiang</t>
-  </si>
-  <si>
-    <t>Agonza Lewis Conrad</t>
-  </si>
-  <si>
-    <t>Zhejiang Normal University</t>
-  </si>
-  <si>
-    <t>17858978702</t>
-  </si>
-  <si>
-    <t>Ahimbisibwe Duncan Byron</t>
-  </si>
-  <si>
-    <t>Zhejiang university of Technology</t>
-  </si>
-  <si>
-    <t>19884153433</t>
-  </si>
-  <si>
-    <t>Amannya Andrew Travis</t>
-  </si>
-  <si>
-    <t>Zheijiang university of finance and economics</t>
-  </si>
-  <si>
-    <t>13221831857</t>
-  </si>
-  <si>
-    <t>Byanjeru Kankunda</t>
-  </si>
-  <si>
-    <t>15651023919</t>
-  </si>
-  <si>
-    <t>Catherine Nakazibwe</t>
-  </si>
-  <si>
-    <t>Wenzhou medical university</t>
-  </si>
-  <si>
-    <t>18857730250</t>
-  </si>
-  <si>
-    <t>Genevieve Nattabi</t>
-  </si>
-  <si>
-    <t>Zhejiang university of science and technology</t>
-  </si>
-  <si>
-    <t>13296732635</t>
-  </si>
-  <si>
-    <t>Isaac Ojok</t>
-  </si>
-  <si>
-    <t>Zhejiang University Hangzhou</t>
-  </si>
-  <si>
-    <t>15068110791</t>
-  </si>
-  <si>
-    <t>Kabuuza nana nabila</t>
-  </si>
-  <si>
-    <t>Zhejiang normal university</t>
-  </si>
-  <si>
-    <t>18892618579</t>
-  </si>
-  <si>
-    <t>Kangavve Patrick</t>
-  </si>
-  <si>
-    <t>Zhejiang University</t>
-  </si>
-  <si>
-    <t>18817791387</t>
-  </si>
-  <si>
-    <t>Kasagga Arnold Leonard</t>
-  </si>
-  <si>
-    <t>13018985783</t>
-  </si>
-  <si>
-    <t>Kebirungi Kirabo</t>
-  </si>
-  <si>
-    <t>13185185281</t>
-  </si>
-  <si>
-    <t>Liminya Jesca</t>
-  </si>
-  <si>
-    <t>Zheijang university of S&amp;T</t>
-  </si>
-  <si>
-    <t>17816898044</t>
-  </si>
-  <si>
-    <t>Mbabali Quraish</t>
-  </si>
-  <si>
-    <t>Zhejiang University of technology</t>
-  </si>
-  <si>
-    <t>13291249519</t>
-  </si>
-  <si>
-    <t>Mubiru Faheemy Kato Mutebi</t>
-  </si>
-  <si>
-    <t>Wenzhou University</t>
-  </si>
-  <si>
     <t>+256779009373/15858556729</t>
   </si>
   <si>
@@ -1705,520 +1708,518 @@
     <t>15858559681</t>
   </si>
   <si>
+    <t>New Student</t>
+  </si>
+  <si>
     <t xml:space="preserve">KASAJJA ISAAC </t>
   </si>
   <si>
+    <t xml:space="preserve"> China University of Petroleum (East China),Qingdao</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isaackasajja20@gmail.com </t>
+  </si>
+  <si>
     <t>OMADANG BENARD PASCAL</t>
   </si>
   <si>
+    <t>CHINA UNIVERSITY OF PETROLEUM(EAST CHINA), QINGDAO</t>
+  </si>
+  <si>
+    <t>benardpascal256@outlook.com</t>
+  </si>
+  <si>
     <t>ARIHO BENJAMIN</t>
   </si>
   <si>
+    <t>SHANGHAI INTERNATIONAL STUDIES UNIVERSITY</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>benjaariho@gmail.com</t>
+  </si>
+  <si>
     <t>Alinda Deus</t>
   </si>
   <si>
+    <t>Central China Normal University</t>
+  </si>
+  <si>
+    <t>dedetdeus@gmail.com</t>
+  </si>
+  <si>
     <t>NAKAANA JOSIAH</t>
   </si>
   <si>
+    <t>Nanjing university of information science and technology</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">VIAN  MBABAZI </t>
   </si>
   <si>
+    <t>UNIVERSITY OF SCIENCE AND TECHNOLOGY OF CHINA, HEFEI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mbabazivian@gmail.com </t>
+  </si>
+  <si>
     <t>MUJAWIMANA ALPHONSINA</t>
   </si>
   <si>
+    <t>SOUTHERN MEDICAL UNIVERSITY</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>minamuja78@gmail.com</t>
+  </si>
+  <si>
+    <t>Southern Medical University</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
     <t>MAGUNDA</t>
   </si>
   <si>
+    <t xml:space="preserve">BEIJING JIAOTONG UNIVERSITY </t>
+  </si>
+  <si>
+    <t>shaficmagunda19@yahoo.com</t>
+  </si>
+  <si>
     <t>Allan Kakwezi</t>
   </si>
   <si>
+    <t>Tongji University</t>
+  </si>
+  <si>
+    <t>allankakwezi@gmail.com</t>
+  </si>
+  <si>
     <t>Nambalirwa Hellen</t>
   </si>
   <si>
+    <t xml:space="preserve">Chang’an University </t>
+  </si>
+  <si>
+    <t>helennambalirwa@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">NALIKKA DROLENCE </t>
   </si>
   <si>
+    <t xml:space="preserve">drolencek@yahoo.com </t>
+  </si>
+  <si>
     <t>Odongo Inguula Ronald</t>
   </si>
   <si>
+    <t>Nanjing University of information and Technology</t>
+  </si>
+  <si>
+    <t>odongoronieplanks@gmail.com</t>
+  </si>
+  <si>
     <t>ABAASA VICTOR</t>
   </si>
   <si>
+    <t>TIANGONG UNIVERSITY</t>
+  </si>
+  <si>
+    <t>victorabaasa@gmail.com</t>
+  </si>
+  <si>
     <t>Namirembe Teddy</t>
   </si>
   <si>
+    <t>namirembeteddy9@gmail.com</t>
+  </si>
+  <si>
     <t>Gloria Ntegeka</t>
   </si>
   <si>
+    <t>Beijing Normal University</t>
+  </si>
+  <si>
+    <t>gglosh61@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hussein Mubikirwa </t>
   </si>
   <si>
+    <t>China University of Petroleum</t>
+  </si>
+  <si>
+    <t>kakshuss@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">OPONDO GENO KAREN HOPE </t>
   </si>
   <si>
+    <t xml:space="preserve">NANJING UNIVERSITY OF AERONAUTICS AND ASTRONAUTICS </t>
+  </si>
+  <si>
+    <t>tiakarenopondo@outlook.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mulindwa Moses </t>
   </si>
   <si>
+    <t xml:space="preserve">University of internation business and economics </t>
+  </si>
+  <si>
+    <t>Mulindwamoses1@hotmail.com</t>
+  </si>
+  <si>
     <t>Michael Gasim Bullen</t>
   </si>
   <si>
+    <t>Jinzhou Medical University</t>
+  </si>
+  <si>
+    <t>mjgasim@gmail.com</t>
+  </si>
+  <si>
     <t>Aswillah Settimba</t>
   </si>
   <si>
+    <t xml:space="preserve">Jiangsu university </t>
+  </si>
+  <si>
+    <t>aswillahsettimba@gmail.com</t>
+  </si>
+  <si>
     <t>Muhindo Silver</t>
   </si>
   <si>
+    <t xml:space="preserve">Changsha University of Science and Technology </t>
+  </si>
+  <si>
+    <t>muhindosilver@gmail.com</t>
+  </si>
+  <si>
     <t>Muhwana Maureen Margaret</t>
   </si>
   <si>
+    <t xml:space="preserve">Beijing International Studies University </t>
+  </si>
+  <si>
+    <t>maureen.muhwana@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Georgina Najuna Njuneki </t>
   </si>
   <si>
+    <t xml:space="preserve">University of International Business and Economics </t>
+  </si>
+  <si>
+    <t>nyiteraa@gmail.com</t>
+  </si>
+  <si>
     <t>OLANYA ALEX</t>
   </si>
   <si>
+    <t>Beijing Jiatong university</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>trayzalex@gmail.com</t>
+  </si>
+  <si>
     <t>Nabwire Joan</t>
   </si>
   <si>
+    <t xml:space="preserve">Dongbei university of finance and economics </t>
+  </si>
+  <si>
+    <t>joanahnabwire@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">MUNYAMI ABUBAKAR </t>
   </si>
   <si>
+    <t xml:space="preserve">SHANDONG UNIVERSITY </t>
+  </si>
+  <si>
+    <t>munyamibaker@hotmail.com</t>
+  </si>
+  <si>
     <t>Aineamani Charity</t>
   </si>
   <si>
+    <t>Naijing University of science and Technologye</t>
+  </si>
+  <si>
+    <t>charityrwekaza@gmail.com</t>
+  </si>
+  <si>
     <t>Gideon Kibirige</t>
   </si>
   <si>
+    <t>China University of Petroleum (East China)</t>
+  </si>
+  <si>
+    <t>gideonkibirige@yahoo.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Namuli Brandy </t>
   </si>
   <si>
+    <t xml:space="preserve">Beijing Jiaotong University </t>
+  </si>
+  <si>
+    <t xml:space="preserve">namulib@yahoo.com </t>
+  </si>
+  <si>
     <t>KATUNGI JULIUS</t>
   </si>
   <si>
+    <t>UNIVERSITY OF SCIENCE AND TECHNOLOGY LIAONING</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>juliuskatungi02@gmail.com</t>
+  </si>
+  <si>
     <t>Fred Agaba</t>
   </si>
   <si>
+    <t>Shenyang Jianzhu University</t>
+  </si>
+  <si>
+    <t>agabaf8@gmail.com</t>
+  </si>
+  <si>
     <t>Engwau Timothy</t>
   </si>
   <si>
+    <t>Dalian Maritime University</t>
+  </si>
+  <si>
+    <t>engwautimothy@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Julius mulumba </t>
   </si>
   <si>
+    <t xml:space="preserve">China pharmaceutical university </t>
+  </si>
+  <si>
+    <t>mulumbajulius@yahoo.com</t>
+  </si>
+  <si>
     <t>Kalungi Albert</t>
   </si>
   <si>
+    <t>Dalian polythenic university (DPU)</t>
+  </si>
+  <si>
+    <t>twicenice45623@gmail.com/kalungialbert45623@gmail.com</t>
+  </si>
+  <si>
     <t>Mutonyi Sumaya</t>
   </si>
   <si>
+    <t>Southwest university</t>
+  </si>
+  <si>
+    <t>mutonyi014@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kakuru Paul </t>
   </si>
   <si>
+    <t>Computing science and software engineering</t>
+  </si>
+  <si>
+    <t>paulkakuru11a gmail.com</t>
+  </si>
+  <si>
     <t>Milundi john</t>
   </si>
   <si>
+    <t xml:space="preserve">Dalian polytechnic University </t>
+  </si>
+  <si>
+    <t>Milundijohn@gmail.com</t>
+  </si>
+  <si>
     <t>ANYINE RACHAEL</t>
   </si>
   <si>
+    <t>Beijing University of Business and Technology</t>
+  </si>
+  <si>
+    <t>rachaelzac01@gmail.com</t>
+  </si>
+  <si>
     <t>WASHABA ARUHO JONAN</t>
   </si>
   <si>
+    <t>jonan.w@yahoo.com</t>
+  </si>
+  <si>
     <t>Washaba Jonan Aruho</t>
   </si>
   <si>
+    <t>China Three Georges University</t>
+  </si>
+  <si>
+    <t>Jonan.w@yahoo.com</t>
+  </si>
+  <si>
     <t>Musede Simon</t>
   </si>
   <si>
+    <t>musedesimon13@gmail.com</t>
+  </si>
+  <si>
     <t>Bridget Atuhaire</t>
   </si>
   <si>
+    <t>Petroleum engineering</t>
+  </si>
+  <si>
+    <t>bridgetatuhaire0@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Busuulwa Solomon Darlen </t>
   </si>
   <si>
+    <t xml:space="preserve">Hainan medical university </t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>bsolomondarlen@gmail.com</t>
+  </si>
+  <si>
     <t>Lilliane Aol</t>
   </si>
   <si>
+    <t>Huazhong University of Science and Technology</t>
+  </si>
+  <si>
+    <t>aollilliane@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHINA UNIVERSITY OF PETROLEUM </t>
+  </si>
+  <si>
     <t xml:space="preserve">Opondo Geno Karen Hope </t>
   </si>
   <si>
+    <t xml:space="preserve">Nanjing University of Aeronautics and Astronautics </t>
+  </si>
+  <si>
     <t>Okitoi Noah</t>
   </si>
   <si>
+    <t>Beijing Institute of Technology</t>
+  </si>
+  <si>
+    <t>nohokit@gmail.com</t>
+  </si>
+  <si>
+    <t>University of science and Technology of China , Hefei</t>
+  </si>
+  <si>
     <t>OKOTEL MOSES</t>
   </si>
   <si>
+    <t>Anhui Medical University</t>
+  </si>
+  <si>
+    <t>okotelmoses89@gmail.com</t>
+  </si>
+  <si>
     <t>Shamim Namponye</t>
   </si>
   <si>
+    <t>Zhenghzou international university</t>
+  </si>
+  <si>
+    <t>kalanzishimmy@gmail.com/snamponye0@gmail.com</t>
+  </si>
+  <si>
+    <t>China Three Gorges University</t>
+  </si>
+  <si>
     <t>Padde</t>
   </si>
   <si>
+    <t>padde.j@yahoo.com</t>
+  </si>
+  <si>
     <t>Lubanga Nasifu</t>
   </si>
   <si>
+    <t>nasifu93@gmail.com</t>
+  </si>
+  <si>
     <t>Nagawa Roy</t>
   </si>
   <si>
+    <t>Wuhan university</t>
+  </si>
+  <si>
+    <t>roykiggundu@gmail.com</t>
+  </si>
+  <si>
     <t>Waswa Edgar</t>
   </si>
   <si>
+    <t xml:space="preserve">Wuhan university </t>
+  </si>
+  <si>
+    <t>Waswaedgar@gmail.com</t>
+  </si>
+  <si>
     <t>Oballim John Kennedy</t>
   </si>
   <si>
+    <t>jkoballim@gmail.com</t>
+  </si>
+  <si>
     <t>Nakasoma Edith</t>
   </si>
   <si>
-    <t>John Roberts Padde</t>
-  </si>
-  <si>
-    <t>New Student</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> China University of Petroleum (East China),Qingdao</t>
-  </si>
-  <si>
-    <t>CHINA UNIVERSITY OF PETROLEUM(EAST CHINA), QINGDAO</t>
-  </si>
-  <si>
-    <t>SHANGHAI INTERNATIONAL STUDIES UNIVERSITY</t>
-  </si>
-  <si>
-    <t>Central China Normal University</t>
-  </si>
-  <si>
-    <t>Nanjing university of information science and technology</t>
-  </si>
-  <si>
-    <t>UNIVERSITY OF SCIENCE AND TECHNOLOGY OF CHINA, HEFEI</t>
-  </si>
-  <si>
-    <t>SOUTHERN MEDICAL UNIVERSITY</t>
-  </si>
-  <si>
-    <t>Southern Medical University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEIJING JIAOTONG UNIVERSITY </t>
-  </si>
-  <si>
-    <t>Tongji University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chang’an University </t>
-  </si>
-  <si>
-    <t>Nanjing University of information and Technology</t>
-  </si>
-  <si>
-    <t>TIANGONG UNIVERSITY</t>
-  </si>
-  <si>
-    <t>Beijing Normal University</t>
-  </si>
-  <si>
-    <t>China University of Petroleum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NANJING UNIVERSITY OF AERONAUTICS AND ASTRONAUTICS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of internation business and economics </t>
-  </si>
-  <si>
-    <t>Jinzhou Medical University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiangsu university </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changsha University of Science and Technology </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beijing International Studies University </t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of International Business and Economics </t>
-  </si>
-  <si>
-    <t>Beijing Jiatong university</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dongbei university of finance and economics </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHANDONG UNIVERSITY </t>
-  </si>
-  <si>
-    <t>Naijing University of science and Technologye</t>
-  </si>
-  <si>
-    <t>China University of Petroleum (East China)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beijing Jiaotong University </t>
-  </si>
-  <si>
-    <t>UNIVERSITY OF SCIENCE AND TECHNOLOGY LIAONING</t>
-  </si>
-  <si>
-    <t>Shenyang Jianzhu University</t>
-  </si>
-  <si>
-    <t>Dalian Maritime University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China pharmaceutical university </t>
-  </si>
-  <si>
-    <t>Dalian polythenic university (DPU)</t>
-  </si>
-  <si>
-    <t>Southwest university</t>
-  </si>
-  <si>
-    <t>Computing science and software engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dalian polytechnic University </t>
-  </si>
-  <si>
-    <t>Beijing University of Business and Technology</t>
-  </si>
-  <si>
-    <t>China Three Georges University</t>
-  </si>
-  <si>
-    <t>Petroleum engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hainan medical university </t>
-  </si>
-  <si>
-    <t>Huazhong University of Science and Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHINA UNIVERSITY OF PETROLEUM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nanjing University of Aeronautics and Astronautics </t>
-  </si>
-  <si>
-    <t>Beijing Institute of Technology</t>
-  </si>
-  <si>
-    <t>University of science and Technology of China , Hefei</t>
-  </si>
-  <si>
-    <t>Anhui Medical University</t>
-  </si>
-  <si>
-    <t>Zhenghzou international university</t>
-  </si>
-  <si>
-    <t>China Three Gorges University</t>
-  </si>
-  <si>
-    <t>Wuhan university</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wuhan university </t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2027</t>
-  </si>
-  <si>
-    <t>2026</t>
-  </si>
-  <si>
-    <t>2023</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">isaackasajja20@gmail.com </t>
-  </si>
-  <si>
-    <t>benardpascal256@outlook.com</t>
-  </si>
-  <si>
-    <t>benjaariho@gmail.com</t>
-  </si>
-  <si>
-    <t>dedetdeus@gmail.com</t>
-  </si>
-  <si>
-    <t>nakaanajosiah1@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mbabazivian@gmail.com </t>
-  </si>
-  <si>
-    <t>minamuja78@gmail.com</t>
-  </si>
-  <si>
-    <t>shaficmagunda19@yahoo.com</t>
-  </si>
-  <si>
-    <t>allankakwezi@gmail.com</t>
-  </si>
-  <si>
-    <t>helennambalirwa@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drolencek@yahoo.com </t>
-  </si>
-  <si>
-    <t>odongoronieplanks@gmail.com</t>
-  </si>
-  <si>
-    <t>victorabaasa@gmail.com</t>
-  </si>
-  <si>
-    <t>namirembeteddy9@gmail.com</t>
-  </si>
-  <si>
-    <t>gglosh61@gmail.com</t>
-  </si>
-  <si>
-    <t>kakshuss@gmail.com</t>
-  </si>
-  <si>
-    <t>tiakarenopondo@outlook.com</t>
-  </si>
-  <si>
-    <t>Mulindwamoses1@hotmail.com</t>
-  </si>
-  <si>
-    <t>mjgasim@gmail.com</t>
-  </si>
-  <si>
-    <t>aswillahsettimba@gmail.com</t>
-  </si>
-  <si>
-    <t>muhindosilver@gmail.com</t>
-  </si>
-  <si>
-    <t>maureen.muhwana@gmail.com</t>
-  </si>
-  <si>
-    <t>nyiteraa@gmail.com</t>
-  </si>
-  <si>
-    <t>trayzalex@gmail.com</t>
-  </si>
-  <si>
-    <t>joanahnabwire@gmail.com</t>
-  </si>
-  <si>
-    <t>munyamibaker@hotmail.com</t>
-  </si>
-  <si>
-    <t>charityrwekaza@gmail.com</t>
-  </si>
-  <si>
-    <t>gideonkibirige@yahoo.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">namulib@yahoo.com </t>
-  </si>
-  <si>
-    <t>juliuskatungi02@gmail.com</t>
-  </si>
-  <si>
-    <t>agabaf8@gmail.com</t>
-  </si>
-  <si>
-    <t>engwautimothy@gmail.com</t>
-  </si>
-  <si>
-    <t>mulumbajulius@yahoo.com</t>
-  </si>
-  <si>
-    <t>twicenice45623@gmail.com/kalungialbert45623@gmail.com</t>
-  </si>
-  <si>
-    <t>mutonyi014@gmail.com</t>
-  </si>
-  <si>
-    <t>paulkakuru11a gmail.com</t>
-  </si>
-  <si>
-    <t>Milundijohn@gmail.com</t>
-  </si>
-  <si>
-    <t>rachaelzac01@gmail.com</t>
-  </si>
-  <si>
-    <t>jonan.w@yahoo.com</t>
-  </si>
-  <si>
-    <t>Jonan.w@yahoo.com</t>
-  </si>
-  <si>
-    <t>musedesimon13@gmail.com</t>
-  </si>
-  <si>
-    <t>bridgetatuhaire0@gmail.com</t>
-  </si>
-  <si>
-    <t>bsolomondarlen@gmail.com</t>
-  </si>
-  <si>
-    <t>aollilliane@gmail.com</t>
-  </si>
-  <si>
-    <t>nohokit@gmail.com</t>
-  </si>
-  <si>
-    <t>okotelmoses89@gmail.com</t>
-  </si>
-  <si>
-    <t>kalanzishimmy@gmail.com/snamponye0@gmail.com</t>
-  </si>
-  <si>
-    <t>padde.j@yahoo.com</t>
-  </si>
-  <si>
-    <t>nasifu93@gmail.com</t>
-  </si>
-  <si>
-    <t>roykiggundu@gmail.com</t>
-  </si>
-  <si>
-    <t>Waswaedgar@gmail.com</t>
-  </si>
-  <si>
-    <t>jkoballim@gmail.com</t>
-  </si>
-  <si>
     <t>nakasomaedith20@gmail.com</t>
   </si>
   <si>
-    <t>jpadde@covab.mak.ac.ug</t>
+    <t>OGUTI ANN MOVE</t>
+  </si>
+  <si>
+    <t>NORTHEASTERN UNIVERSITY, Shenyang</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18840045074 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2229,14 +2230,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2279,8 +2272,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2590,10 +2583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K336"/>
+  <dimension ref="A1:U336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="B338" sqref="B338"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="B336" sqref="B336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2610,7 +2603,7 @@
     <col min="10" max="10" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2644,8 +2637,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="U1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2669,7 +2665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2693,7 +2689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2717,7 +2713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2741,7 +2737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2765,7 +2761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2789,7 +2785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2813,7 +2809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2837,7 +2833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2861,7 +2857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -2897,7 +2893,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -2930,7 +2926,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -2954,7 +2950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -2987,7 +2983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -3011,7 +3007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -4036,7 +4032,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>134</v>
@@ -4052,7 +4048,7 @@
         <v>14</v>
       </c>
       <c r="H56" s="3">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>14</v>
@@ -5822,7 +5818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>239</v>
       </c>
@@ -5846,7 +5842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>239</v>
       </c>
@@ -5870,7 +5866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>239</v>
       </c>
@@ -5894,7 +5890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>251</v>
       </c>
@@ -5918,7 +5914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>251</v>
       </c>
@@ -5936,13 +5932,13 @@
         <v>14</v>
       </c>
       <c r="H133" s="3">
-        <v>0</v>
+        <v>2023</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>251</v>
       </c>
@@ -5966,7 +5962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>251</v>
       </c>
@@ -5998,16 +5994,19 @@
       <c r="J135" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K135" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D136" s="1">
         <f t="shared" si="2"/>
@@ -6023,15 +6022,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D137" s="1">
         <f t="shared" si="2"/>
@@ -6047,15 +6046,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D138" s="1">
         <f t="shared" si="2"/>
@@ -6071,15 +6070,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D139" s="1">
         <f t="shared" si="2"/>
@@ -6095,12 +6094,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>253</v>
@@ -6119,15 +6118,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D141" s="1">
         <f t="shared" si="2"/>
@@ -6143,12 +6142,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>253</v>
@@ -6167,12 +6166,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>257</v>
@@ -6191,15 +6190,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D144" s="1">
         <f t="shared" si="2"/>
@@ -6220,10 +6219,10 @@
         <v>251</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D145" s="1">
         <f t="shared" si="2"/>
@@ -6244,10 +6243,10 @@
         <v>251</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D146" s="1">
         <f t="shared" si="2"/>
@@ -6268,20 +6267,20 @@
         <v>251</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D147" s="1">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>14</v>
@@ -6293,10 +6292,10 @@
         <v>14</v>
       </c>
       <c r="J147" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K147" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
@@ -6304,10 +6303,10 @@
         <v>251</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D148" s="1">
         <f t="shared" si="2"/>
@@ -6328,10 +6327,10 @@
         <v>251</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D149" s="1">
         <f t="shared" si="2"/>
@@ -6352,7 +6351,7 @@
         <v>251</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>253</v>
@@ -6376,7 +6375,7 @@
         <v>251</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D151" s="1">
         <f t="shared" si="2"/>
@@ -6397,10 +6396,10 @@
         <v>251</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D152" s="1">
         <f t="shared" si="2"/>
@@ -6421,10 +6420,10 @@
         <v>251</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D153" s="1">
         <f t="shared" si="2"/>
@@ -6445,10 +6444,10 @@
         <v>251</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D154" s="1">
         <f t="shared" si="2"/>
@@ -6469,10 +6468,10 @@
         <v>251</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D155" s="1">
         <f t="shared" si="2"/>
@@ -6490,358 +6489,361 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D156" s="1">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H156" s="3">
         <v>2023</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D157" s="1">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H157" s="3">
         <v>2023</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D158" s="1">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H158" s="3">
         <v>2023</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D159" s="1">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H159" s="3">
         <v>2022</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D160" s="1">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H160" s="3">
         <v>2023</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D161" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H161" s="3">
         <v>2023</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D162" s="1">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H162" s="3">
         <v>2023</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D163" s="1">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H163" s="3">
         <v>2021</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D164" s="1">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H164" s="3">
         <v>2022</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D165" s="1">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H165" s="3">
         <v>2024</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D166" s="1">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H166" s="3">
         <v>2022</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D167" s="1">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H167" s="3">
         <v>2023</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D168" s="1">
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H168" s="3">
         <v>2023</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D169" s="1">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H169" s="3">
         <v>2022</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J169" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+      <c r="K169" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D170" s="1">
         <f t="shared" si="2"/>
@@ -6857,15 +6859,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D171" s="1">
         <f t="shared" si="2"/>
@@ -6881,15 +6883,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D172" s="1">
         <f t="shared" si="2"/>
@@ -6905,15 +6907,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D173" s="1">
         <f t="shared" si="2"/>
@@ -6929,15 +6931,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D174" s="1">
         <f t="shared" si="2"/>
@@ -6953,15 +6955,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D175" s="1">
         <f t="shared" si="2"/>
@@ -6977,15 +6979,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D176" s="1">
         <f t="shared" si="2"/>
@@ -7003,13 +7005,13 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D177" s="1">
         <f t="shared" si="2"/>
@@ -7027,13 +7029,13 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D178" s="1">
         <f t="shared" si="2"/>
@@ -7051,13 +7053,13 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D179" s="1">
         <f t="shared" si="2"/>
@@ -7075,13 +7077,13 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D180" s="1">
         <f t="shared" si="2"/>
@@ -7099,23 +7101,23 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D181" s="1">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>14</v>
@@ -7127,18 +7129,18 @@
         <v>14</v>
       </c>
       <c r="J181" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D182" s="1">
         <f t="shared" si="2"/>
@@ -7156,13 +7158,13 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D183" s="1">
         <f t="shared" si="2"/>
@@ -7180,13 +7182,13 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D184" s="1">
         <f t="shared" si="2"/>
@@ -7204,13 +7206,13 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D185" s="1">
         <f t="shared" si="2"/>
@@ -7228,13 +7230,13 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D186" s="1">
         <f t="shared" si="2"/>
@@ -7252,13 +7254,13 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D187" s="1">
         <f t="shared" si="2"/>
@@ -7276,13 +7278,13 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D188" s="1">
         <f t="shared" si="2"/>
@@ -7300,13 +7302,13 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D189" s="1">
         <f t="shared" si="2"/>
@@ -7324,13 +7326,13 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D190" s="1">
         <f t="shared" si="2"/>
@@ -7348,13 +7350,13 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D191" s="1">
         <f t="shared" si="2"/>
@@ -7372,13 +7374,13 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D192" s="1">
         <f t="shared" si="2"/>
@@ -7396,13 +7398,13 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D193" s="1">
         <f t="shared" si="2"/>
@@ -7420,13 +7422,13 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D194" s="1">
         <f t="shared" ref="D194:D257" si="3">ROW() - 1</f>
@@ -7444,13 +7446,13 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D195" s="1">
         <f t="shared" si="3"/>
@@ -7468,13 +7470,13 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D196" s="1">
         <f t="shared" si="3"/>
@@ -7492,13 +7494,13 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D197" s="1">
         <f t="shared" si="3"/>
@@ -7516,13 +7518,13 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D198" s="1">
         <f t="shared" si="3"/>
@@ -7540,13 +7542,13 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D199" s="1">
         <f t="shared" si="3"/>
@@ -7564,13 +7566,13 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D200" s="1">
         <f t="shared" si="3"/>
@@ -7588,13 +7590,13 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D201" s="1">
         <f t="shared" si="3"/>
@@ -7612,13 +7614,13 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D202" s="1">
         <f t="shared" si="3"/>
@@ -7636,13 +7638,13 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D203" s="1">
         <f t="shared" si="3"/>
@@ -7660,13 +7662,13 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D204" s="1">
         <f t="shared" si="3"/>
@@ -7684,13 +7686,13 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D205" s="1">
         <f t="shared" si="3"/>
@@ -7708,13 +7710,13 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D206" s="1">
         <f t="shared" si="3"/>
@@ -7732,13 +7734,13 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D207" s="1">
         <f t="shared" si="3"/>
@@ -7756,13 +7758,13 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D208" s="1">
         <f t="shared" si="3"/>
@@ -7780,13 +7782,13 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D209" s="1">
         <f t="shared" si="3"/>
@@ -7804,13 +7806,13 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D210" s="1">
         <f t="shared" si="3"/>
@@ -7828,13 +7830,13 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D211" s="1">
         <f t="shared" si="3"/>
@@ -7852,13 +7854,13 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D212" s="1">
         <f t="shared" si="3"/>
@@ -7876,13 +7878,13 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D213" s="1">
         <f t="shared" si="3"/>
@@ -7900,13 +7902,13 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D214" s="1">
         <f t="shared" si="3"/>
@@ -7924,13 +7926,13 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D215" s="1">
         <f t="shared" si="3"/>
@@ -7948,13 +7950,13 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D216" s="1">
         <f t="shared" si="3"/>
@@ -7972,13 +7974,13 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D217" s="1">
         <f t="shared" si="3"/>
@@ -7996,13 +7998,13 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D218" s="1">
         <f t="shared" si="3"/>
@@ -8020,13 +8022,13 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D219" s="1">
         <f t="shared" si="3"/>
@@ -8044,13 +8046,13 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D220" s="1">
         <f t="shared" si="3"/>
@@ -8068,13 +8070,13 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D221" s="1">
         <f t="shared" si="3"/>
@@ -8092,13 +8094,13 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D222" s="1">
         <f t="shared" si="3"/>
@@ -8116,13 +8118,13 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D223" s="1">
         <f t="shared" si="3"/>
@@ -8140,13 +8142,13 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D224" s="1">
         <f t="shared" si="3"/>
@@ -8164,13 +8166,13 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D225" s="1">
         <f t="shared" si="3"/>
@@ -8188,13 +8190,13 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D226" s="1">
         <f t="shared" si="3"/>
@@ -8212,13 +8214,13 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D227" s="1">
         <f t="shared" si="3"/>
@@ -8236,13 +8238,13 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D228" s="1">
         <f t="shared" si="3"/>
@@ -8260,176 +8262,176 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D229" s="1">
         <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H229" s="3">
         <v>2022</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D230" s="1">
         <f t="shared" si="3"/>
         <v>229</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H230" s="3">
         <v>2023</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D231" s="1">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H231" s="3">
         <v>2022</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D232" s="1">
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H232" s="3">
         <v>2021</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D233" s="1">
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H233" s="3">
         <v>2022</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D234" s="1">
         <f t="shared" si="3"/>
         <v>233</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H234" s="3">
         <v>2022</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="J234" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K234" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D235" s="1">
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H235" s="3">
         <v>2021</v>
@@ -8441,175 +8443,172 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D236" s="1">
         <f t="shared" si="3"/>
         <v>235</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H236" s="3">
         <v>2023</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J236" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K236" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D237" s="1">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H237" s="3">
         <v>2024</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D238" s="1">
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H238" s="3">
         <v>2021</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D239" s="1">
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H239" s="3">
         <v>2023</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D240" s="1">
         <f t="shared" si="3"/>
         <v>239</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H240" s="3">
         <v>2024</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="J240" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K240" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D241" s="1">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="G241" s="1" t="s">
-        <v>470</v>
-      </c>
       <c r="H241" s="3">
-        <v>2021</v>
-      </c>
-      <c r="I241" s="1" t="s">
-        <v>471</v>
+        <v>2022</v>
+      </c>
+      <c r="I241" s="1">
+        <v>13212009225</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>472</v>
@@ -8622,7 +8621,7 @@
         <v>241</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H242" s="3">
         <v>2021</v>
@@ -8646,7 +8645,7 @@
         <v>242</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H243" s="3">
         <v>0</v>
@@ -8670,7 +8669,7 @@
         <v>243</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H244" s="3">
         <v>0</v>
@@ -8694,7 +8693,7 @@
         <v>244</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H245" s="3">
         <v>0</v>
@@ -8718,7 +8717,7 @@
         <v>245</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H246" s="3">
         <v>0</v>
@@ -8742,7 +8741,7 @@
         <v>246</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H247" s="3">
         <v>0</v>
@@ -8766,7 +8765,7 @@
         <v>247</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H248" s="3">
         <v>0</v>
@@ -8811,7 +8810,7 @@
         <v>249</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H250" s="3">
         <v>0</v>
@@ -8835,7 +8834,7 @@
         <v>250</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H251" s="3">
         <v>2023</v>
@@ -8859,7 +8858,7 @@
         <v>251</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H252" s="3">
         <v>0</v>
@@ -8883,7 +8882,7 @@
         <v>252</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H253" s="3">
         <v>0</v>
@@ -8907,7 +8906,7 @@
         <v>253</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H254" s="3">
         <v>0</v>
@@ -8931,7 +8930,7 @@
         <v>254</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H255" s="3">
         <v>0</v>
@@ -8955,13 +8954,13 @@
         <v>255</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="H256" s="3">
         <v>2022</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -8969,7 +8968,7 @@
         <v>475</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>477</v>
@@ -8979,13 +8978,13 @@
         <v>256</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H257" s="3">
         <v>0</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -8993,23 +8992,23 @@
         <v>475</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>477</v>
       </c>
       <c r="D258" s="1">
-        <f t="shared" ref="D258:D276" si="4">ROW() - 1</f>
+        <f t="shared" ref="D258:E277" si="4">ROW() - 1</f>
         <v>257</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H258" s="3">
         <v>0</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -9017,7 +9016,7 @@
         <v>475</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>477</v>
@@ -9027,13 +9026,13 @@
         <v>258</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H259" s="3">
         <v>2021</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
@@ -9041,10 +9040,10 @@
         <v>475</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D260" s="1">
         <f t="shared" si="4"/>
@@ -9059,10 +9058,10 @@
         <v>475</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D261" s="1">
         <f t="shared" si="4"/>
@@ -9072,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -9080,7 +9079,7 @@
         <v>475</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>513</v>
@@ -9090,13 +9089,13 @@
         <v>261</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="H262" s="3">
         <v>2023</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -9104,23 +9103,23 @@
         <v>475</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D263" s="1">
         <f t="shared" si="4"/>
         <v>262</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="H263" s="3">
         <v>2022</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -9128,7 +9127,7 @@
         <v>475</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>513</v>
@@ -9138,13 +9137,13 @@
         <v>263</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H264" s="3">
         <v>2022</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -9152,7 +9151,7 @@
         <v>475</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>477</v>
@@ -9162,13 +9161,13 @@
         <v>264</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H265" s="3">
         <v>0</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -9176,7 +9175,7 @@
         <v>475</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>500</v>
@@ -9186,13 +9185,13 @@
         <v>265</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H266" s="3">
         <v>0</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
@@ -9200,7 +9199,7 @@
         <v>475</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>513</v>
@@ -9210,13 +9209,13 @@
         <v>266</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H267" s="3">
         <v>2023</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
@@ -9224,10 +9223,10 @@
         <v>475</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D268" s="1">
         <f t="shared" si="4"/>
@@ -9237,7 +9236,7 @@
         <v>0</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -9245,10 +9244,10 @@
         <v>475</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D269" s="1">
         <f t="shared" si="4"/>
@@ -9258,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -9266,23 +9265,23 @@
         <v>475</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D270" s="1">
         <f t="shared" si="4"/>
         <v>269</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H270" s="3">
         <v>0</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
@@ -9290,7 +9289,7 @@
         <v>475</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>477</v>
@@ -9300,13 +9299,13 @@
         <v>270</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H271" s="3">
         <v>0</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
@@ -9314,7 +9313,7 @@
         <v>475</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>513</v>
@@ -9324,13 +9323,13 @@
         <v>271</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H272" s="3">
         <v>0</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
@@ -9338,7 +9337,7 @@
         <v>475</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>513</v>
@@ -9348,13 +9347,13 @@
         <v>272</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H273" s="3">
         <v>0</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
@@ -9362,7 +9361,7 @@
         <v>475</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>477</v>
@@ -9372,13 +9371,13 @@
         <v>273</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H274" s="3">
         <v>2022</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
@@ -9386,23 +9385,23 @@
         <v>475</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D275" s="1">
         <f t="shared" si="4"/>
         <v>274</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H275" s="3">
         <v>2021</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
@@ -9410,7 +9409,7 @@
         <v>475</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>513</v>
@@ -9420,1040 +9419,1282 @@
         <v>275</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H276" s="3">
         <v>2023</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>616</v>
+        <v>563</v>
+      </c>
+      <c r="D277" s="6">
+        <f t="shared" si="4"/>
+        <v>276</v>
       </c>
       <c r="H277" s="7" t="s">
-        <v>674</v>
+        <v>564</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>675</v>
+        <v>565</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>617</v>
+        <v>567</v>
+      </c>
+      <c r="D278" s="6">
+        <f t="shared" ref="D278:D335" si="5">ROW() - 1</f>
+        <v>277</v>
       </c>
       <c r="H278" s="8" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>676</v>
+        <v>568</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>618</v>
+        <v>570</v>
+      </c>
+      <c r="D279" s="6">
+        <f t="shared" si="5"/>
+        <v>278</v>
       </c>
       <c r="H279" s="8" t="s">
-        <v>667</v>
+        <v>571</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>677</v>
+        <v>572</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>619</v>
+        <v>574</v>
+      </c>
+      <c r="D280" s="6">
+        <f t="shared" si="5"/>
+        <v>279</v>
       </c>
       <c r="H280" s="8" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>678</v>
+        <v>575</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>620</v>
+        <v>577</v>
+      </c>
+      <c r="D281" s="6">
+        <f t="shared" si="5"/>
+        <v>280</v>
       </c>
       <c r="H281" s="8" t="s">
-        <v>668</v>
+        <v>578</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>679</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>621</v>
+        <v>580</v>
+      </c>
+      <c r="D282" s="6">
+        <f t="shared" si="5"/>
+        <v>281</v>
       </c>
       <c r="H282" s="8" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>680</v>
+        <v>581</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>622</v>
+        <v>583</v>
+      </c>
+      <c r="D283" s="6">
+        <f t="shared" si="5"/>
+        <v>282</v>
       </c>
       <c r="H283" s="8" t="s">
-        <v>669</v>
+        <v>584</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>681</v>
+        <v>585</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>623</v>
+        <v>586</v>
+      </c>
+      <c r="D284" s="6">
+        <f t="shared" si="5"/>
+        <v>283</v>
       </c>
       <c r="H284" s="8" t="s">
-        <v>670</v>
+        <v>587</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>681</v>
+        <v>585</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>624</v>
+        <v>589</v>
+      </c>
+      <c r="D285" s="6">
+        <f t="shared" si="5"/>
+        <v>284</v>
       </c>
       <c r="H285" s="8" t="s">
-        <v>667</v>
+        <v>571</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>682</v>
+        <v>590</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>625</v>
+        <v>592</v>
+      </c>
+      <c r="D286" s="6">
+        <f t="shared" si="5"/>
+        <v>285</v>
       </c>
       <c r="H286" s="8" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>683</v>
+        <v>593</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>569</v>
+        <v>594</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>626</v>
+        <v>595</v>
+      </c>
+      <c r="D287" s="6">
+        <f t="shared" si="5"/>
+        <v>286</v>
       </c>
       <c r="H287" s="8" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>684</v>
+        <v>596</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>570</v>
+        <v>597</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="D288" s="6">
+        <f t="shared" si="5"/>
+        <v>287</v>
+      </c>
       <c r="H288" s="8" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>685</v>
+        <v>598</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B289" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D289" s="6">
+        <f t="shared" si="5"/>
+        <v>288</v>
+      </c>
+      <c r="H289" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="C289" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="H289" s="8" t="s">
-        <v>667</v>
-      </c>
       <c r="I289" s="1" t="s">
-        <v>686</v>
+        <v>601</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>572</v>
+        <v>602</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>628</v>
+        <v>603</v>
+      </c>
+      <c r="D290" s="6">
+        <f t="shared" si="5"/>
+        <v>289</v>
       </c>
       <c r="H290" s="8" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>687</v>
+        <v>604</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>573</v>
+        <v>605</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>619</v>
+        <v>574</v>
+      </c>
+      <c r="D291" s="6">
+        <f t="shared" si="5"/>
+        <v>290</v>
       </c>
       <c r="H291" s="8" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>688</v>
+        <v>606</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>574</v>
+        <v>607</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>629</v>
+        <v>608</v>
+      </c>
+      <c r="D292" s="6">
+        <f t="shared" si="5"/>
+        <v>291</v>
       </c>
       <c r="H292" s="8" t="s">
-        <v>667</v>
+        <v>571</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>689</v>
+        <v>609</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>575</v>
+        <v>610</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>630</v>
+        <v>611</v>
+      </c>
+      <c r="D293" s="6">
+        <f t="shared" si="5"/>
+        <v>292</v>
       </c>
       <c r="H293" s="8" t="s">
-        <v>669</v>
+        <v>584</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>690</v>
+        <v>612</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D294" s="6">
+        <f t="shared" si="5"/>
+        <v>293</v>
+      </c>
+      <c r="H294" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="I294" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="H294" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="I294" s="1" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D295" s="6">
+        <f t="shared" si="5"/>
+        <v>294</v>
+      </c>
+      <c r="H295" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="I295" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="H295" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="I295" s="1" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>577</v>
+        <v>616</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>632</v>
+        <v>617</v>
+      </c>
+      <c r="D296" s="6">
+        <f t="shared" si="5"/>
+        <v>295</v>
       </c>
       <c r="H296" s="8" t="s">
-        <v>667</v>
+        <v>571</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>692</v>
+        <v>618</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B297" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D297" s="6">
+        <f t="shared" si="5"/>
+        <v>296</v>
+      </c>
+      <c r="H297" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="C297" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="H297" s="8" t="s">
-        <v>668</v>
-      </c>
       <c r="I297" s="1" t="s">
-        <v>693</v>
+        <v>621</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>579</v>
+        <v>622</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>634</v>
+        <v>623</v>
+      </c>
+      <c r="D298" s="6">
+        <f t="shared" si="5"/>
+        <v>297</v>
       </c>
       <c r="H298" s="8" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>694</v>
+        <v>624</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>580</v>
+        <v>625</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>635</v>
+        <v>626</v>
+      </c>
+      <c r="D299" s="6">
+        <f t="shared" si="5"/>
+        <v>298</v>
       </c>
       <c r="H299" s="8" t="s">
-        <v>667</v>
+        <v>571</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>695</v>
+        <v>627</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>581</v>
+        <v>628</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>636</v>
+        <v>629</v>
+      </c>
+      <c r="D300" s="6">
+        <f t="shared" si="5"/>
+        <v>299</v>
       </c>
       <c r="H300" s="8" t="s">
-        <v>667</v>
+        <v>571</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>696</v>
+        <v>630</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>582</v>
+        <v>631</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>637</v>
+        <v>632</v>
+      </c>
+      <c r="D301" s="6">
+        <f t="shared" si="5"/>
+        <v>300</v>
       </c>
       <c r="H301" s="8" t="s">
-        <v>667</v>
+        <v>571</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>697</v>
+        <v>633</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>583</v>
+        <v>634</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
+      </c>
+      <c r="D302" s="6">
+        <f t="shared" si="5"/>
+        <v>301</v>
       </c>
       <c r="H302" s="8" t="s">
-        <v>671</v>
+        <v>636</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>698</v>
+        <v>637</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>584</v>
+        <v>638</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>639</v>
       </c>
+      <c r="D303" s="6">
+        <f t="shared" si="5"/>
+        <v>302</v>
+      </c>
       <c r="H303" s="8" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>699</v>
+        <v>640</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>585</v>
+        <v>641</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
+      </c>
+      <c r="D304" s="6">
+        <f t="shared" si="5"/>
+        <v>303</v>
       </c>
       <c r="H304" s="8" t="s">
-        <v>667</v>
+        <v>571</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>700</v>
+        <v>643</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>586</v>
+        <v>644</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>641</v>
+        <v>645</v>
+      </c>
+      <c r="D305" s="6">
+        <f t="shared" si="5"/>
+        <v>304</v>
       </c>
       <c r="H305" s="8" t="s">
-        <v>668</v>
+        <v>578</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>701</v>
+        <v>646</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>587</v>
+        <v>647</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>642</v>
+        <v>648</v>
+      </c>
+      <c r="D306" s="6">
+        <f t="shared" si="5"/>
+        <v>305</v>
       </c>
       <c r="H306" s="8" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>702</v>
+        <v>649</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>588</v>
+        <v>650</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>643</v>
+        <v>651</v>
+      </c>
+      <c r="D307" s="6">
+        <f t="shared" si="5"/>
+        <v>306</v>
       </c>
       <c r="H307" s="8" t="s">
-        <v>667</v>
+        <v>571</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>703</v>
+        <v>652</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>589</v>
+        <v>653</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>644</v>
+        <v>654</v>
+      </c>
+      <c r="D308" s="6">
+        <f t="shared" si="5"/>
+        <v>307</v>
       </c>
       <c r="H308" s="8" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>704</v>
+        <v>656</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>590</v>
+        <v>657</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>645</v>
+        <v>658</v>
+      </c>
+      <c r="D309" s="6">
+        <f t="shared" si="5"/>
+        <v>308</v>
       </c>
       <c r="H309" s="8" t="s">
-        <v>668</v>
+        <v>578</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>705</v>
+        <v>659</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>591</v>
+        <v>660</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>646</v>
+        <v>661</v>
+      </c>
+      <c r="D310" s="6">
+        <f t="shared" si="5"/>
+        <v>309</v>
       </c>
       <c r="H310" s="8" t="s">
-        <v>667</v>
+        <v>571</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>706</v>
+        <v>662</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>592</v>
+        <v>663</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>647</v>
+        <v>664</v>
+      </c>
+      <c r="D311" s="6">
+        <f t="shared" si="5"/>
+        <v>310</v>
       </c>
       <c r="H311" s="8" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>593</v>
+        <v>666</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>648</v>
+        <v>667</v>
+      </c>
+      <c r="D312" s="6">
+        <f t="shared" si="5"/>
+        <v>311</v>
       </c>
       <c r="H312" s="8" t="s">
-        <v>670</v>
+        <v>587</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>594</v>
+        <v>669</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>649</v>
+        <v>670</v>
+      </c>
+      <c r="D313" s="6">
+        <f t="shared" si="5"/>
+        <v>312</v>
       </c>
       <c r="H313" s="8" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>709</v>
+        <v>671</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>595</v>
+        <v>672</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>650</v>
+        <v>673</v>
+      </c>
+      <c r="D314" s="6">
+        <f t="shared" si="5"/>
+        <v>313</v>
       </c>
       <c r="H314" s="8" t="s">
-        <v>669</v>
+        <v>584</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>710</v>
+        <v>674</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>596</v>
+        <v>675</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>651</v>
+        <v>676</v>
+      </c>
+      <c r="D315" s="6">
+        <f t="shared" si="5"/>
+        <v>314</v>
       </c>
       <c r="H315" s="8" t="s">
-        <v>670</v>
+        <v>587</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>711</v>
+        <v>677</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>597</v>
+        <v>678</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>652</v>
+        <v>679</v>
+      </c>
+      <c r="D316" s="6">
+        <f t="shared" si="5"/>
+        <v>315</v>
       </c>
       <c r="H316" s="8" t="s">
-        <v>668</v>
+        <v>578</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>598</v>
+        <v>681</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>619</v>
+        <v>574</v>
+      </c>
+      <c r="D317" s="6">
+        <f t="shared" si="5"/>
+        <v>316</v>
       </c>
       <c r="H317" s="8" t="s">
-        <v>668</v>
+        <v>578</v>
       </c>
       <c r="I317" s="1" t="s">
-        <v>713</v>
+        <v>682</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>599</v>
+        <v>683</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>653</v>
+        <v>684</v>
+      </c>
+      <c r="D318" s="6">
+        <f t="shared" si="5"/>
+        <v>317</v>
       </c>
       <c r="H318" s="8" t="s">
-        <v>668</v>
+        <v>578</v>
       </c>
       <c r="I318" s="1" t="s">
-        <v>714</v>
+        <v>685</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>600</v>
+        <v>686</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>500</v>
       </c>
+      <c r="D319" s="6">
+        <f t="shared" si="5"/>
+        <v>318</v>
+      </c>
       <c r="H319" s="8" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>601</v>
+        <v>688</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>654</v>
+        <v>689</v>
+      </c>
+      <c r="D320" s="6">
+        <f t="shared" si="5"/>
+        <v>319</v>
       </c>
       <c r="H320" s="8" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>716</v>
+        <v>690</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>602</v>
+        <v>691</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>655</v>
+        <v>692</v>
+      </c>
+      <c r="D321" s="6">
+        <f t="shared" si="5"/>
+        <v>320</v>
       </c>
       <c r="H321" s="8" t="s">
-        <v>673</v>
+        <v>693</v>
       </c>
       <c r="I321" s="1" t="s">
-        <v>717</v>
+        <v>694</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>603</v>
+        <v>695</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>656</v>
+        <v>696</v>
+      </c>
+      <c r="D322" s="6">
+        <f t="shared" si="5"/>
+        <v>321</v>
       </c>
       <c r="H322" s="8" t="s">
-        <v>670</v>
+        <v>587</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>657</v>
+        <v>698</v>
+      </c>
+      <c r="D323" s="6">
+        <f t="shared" si="5"/>
+        <v>322</v>
       </c>
       <c r="H323" s="8" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>675</v>
+        <v>565</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D324" s="6">
+        <f t="shared" si="5"/>
+        <v>323</v>
+      </c>
+      <c r="H324" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="I324" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="H324" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="I324" s="1" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>605</v>
+        <v>701</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>659</v>
+        <v>702</v>
+      </c>
+      <c r="D325" s="6">
+        <f t="shared" si="5"/>
+        <v>324</v>
       </c>
       <c r="H325" s="8" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>660</v>
+        <v>704</v>
+      </c>
+      <c r="D326" s="6">
+        <f t="shared" si="5"/>
+        <v>325</v>
       </c>
       <c r="H326" s="8" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>680</v>
+        <v>581</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>606</v>
+        <v>705</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>661</v>
+        <v>706</v>
+      </c>
+      <c r="D327" s="6">
+        <f t="shared" si="5"/>
+        <v>326</v>
       </c>
       <c r="H327" s="8" t="s">
-        <v>670</v>
+        <v>587</v>
       </c>
       <c r="I327" s="1" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>607</v>
+        <v>708</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>662</v>
+        <v>709</v>
+      </c>
+      <c r="D328" s="6">
+        <f t="shared" si="5"/>
+        <v>327</v>
       </c>
       <c r="H328" s="8" t="s">
-        <v>670</v>
+        <v>587</v>
       </c>
       <c r="I328" s="1" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>598</v>
+        <v>681</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>663</v>
+        <v>711</v>
+      </c>
+      <c r="D329" s="6">
+        <f t="shared" si="5"/>
+        <v>328</v>
       </c>
       <c r="H329" s="8" t="s">
-        <v>668</v>
+        <v>578</v>
       </c>
       <c r="I329" s="1" t="s">
-        <v>714</v>
+        <v>685</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>608</v>
+        <v>712</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="D330" s="6">
+        <f t="shared" si="5"/>
+        <v>329</v>
+      </c>
       <c r="H330" s="8" t="s">
-        <v>667</v>
+        <v>571</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>609</v>
+        <v>714</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="D331" s="6">
+        <f t="shared" si="5"/>
+        <v>330</v>
+      </c>
       <c r="H331" s="8" t="s">
-        <v>668</v>
+        <v>578</v>
       </c>
       <c r="I331" s="1" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>610</v>
+        <v>716</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>664</v>
+        <v>717</v>
+      </c>
+      <c r="D332" s="6">
+        <f t="shared" si="5"/>
+        <v>331</v>
       </c>
       <c r="H332" s="8" t="s">
-        <v>668</v>
+        <v>578</v>
       </c>
       <c r="I332" s="1" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>611</v>
+        <v>719</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>665</v>
+        <v>720</v>
+      </c>
+      <c r="D333" s="6">
+        <f t="shared" si="5"/>
+        <v>332</v>
       </c>
       <c r="H333" s="8" t="s">
-        <v>668</v>
+        <v>578</v>
       </c>
       <c r="I333" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>612</v>
+        <v>722</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>623</v>
+        <v>586</v>
+      </c>
+      <c r="D334" s="6">
+        <f t="shared" si="5"/>
+        <v>333</v>
       </c>
       <c r="H334" s="8" t="s">
-        <v>668</v>
+        <v>578</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" s="6" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>613</v>
+        <v>724</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>619</v>
+        <v>574</v>
+      </c>
+      <c r="D335" s="6">
+        <f t="shared" si="5"/>
+        <v>334</v>
       </c>
       <c r="H335" s="8" t="s">
-        <v>673</v>
+        <v>693</v>
       </c>
       <c r="I335" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" s="6" t="s">
-        <v>615</v>
+        <v>251</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>614</v>
+        <v>726</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H336" s="8" t="s">
-        <v>666</v>
+        <v>727</v>
+      </c>
+      <c r="D336" s="1">
+        <v>335</v>
+      </c>
+      <c r="G336" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="H336" s="8">
+        <v>2023</v>
       </c>
       <c r="I336" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="B1:B336" xr:uid="{A43662D9-A3FE-4653-AB6C-1096B2BB49C0}"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <autoFilter ref="B1:B336" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/elections/verification/data/students_db.xlsx
+++ b/elections/verification/data/students_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ampps\www\usac-website\elections\verification\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACD9883F-9C31-4956-BAC1-11F3822261F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11392A8-5EB4-4BE0-B895-6480736EA95E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17700" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2583,10 +2583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U336"/>
+  <dimension ref="A1:K336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="B336" sqref="B336"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2603,7 +2603,7 @@
     <col min="10" max="10" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2637,11 +2637,8 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U1">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2665,7 +2662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2689,7 +2686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2713,7 +2710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2737,7 +2734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2761,7 +2758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2785,7 +2782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2809,7 +2806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2833,7 +2830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2857,7 +2854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -2893,7 +2890,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -2926,7 +2923,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -2950,7 +2947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -2983,7 +2980,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -3007,7 +3004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -8998,7 +8995,7 @@
         <v>477</v>
       </c>
       <c r="D258" s="1">
-        <f t="shared" ref="D258:E277" si="4">ROW() - 1</f>
+        <f t="shared" ref="D258:D277" si="4">ROW() - 1</f>
         <v>257</v>
       </c>
       <c r="G258" s="1" t="s">

--- a/elections/verification/data/students_db.xlsx
+++ b/elections/verification/data/students_db.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20338"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ampps\www\usac-website\elections\verification\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11392A8-5EB4-4BE0-B895-6480736EA95E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17700" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$336</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$B$1:$B$336</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="735">
   <si>
     <t>PROVINCE</t>
   </si>
@@ -2213,30 +2207,46 @@
   </si>
   <si>
     <t xml:space="preserve">18840045074 </t>
+  </si>
+  <si>
+    <t>Breaking news</t>
+  </si>
+  <si>
+    <t>ghjgh</t>
+  </si>
+  <si>
+    <t>tryrt</t>
+  </si>
+  <si>
+    <t>uytu</t>
+  </si>
+  <si>
+    <t>dsfdgd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
     </font>
     <font>
-      <u/>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2244,55 +2254,52 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="49" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -2582,28 +2589,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K336"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:K338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.125" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="true" style="1"/>
+    <col min="2" max="2" width="37" customWidth="true" style="1"/>
+    <col min="3" max="3" width="36.875" customWidth="true" style="1"/>
+    <col min="4" max="4" width="5.25" customWidth="true" style="1"/>
+    <col min="5" max="5" width="14.75" customWidth="true" style="1"/>
+    <col min="6" max="6" width="14.375" customWidth="true" style="1"/>
+    <col min="7" max="7" width="9.875" customWidth="true" style="1"/>
+    <col min="8" max="8" width="16.25" customWidth="true" style="2"/>
+    <col min="9" max="9" width="18.5" customWidth="true" style="1"/>
+    <col min="10" max="10" width="29.125" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2638,7 +2648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2649,7 +2659,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D65" si="0">ROW() - 1</f>
+        <f>ROW() - 1</f>
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2662,7 +2672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2673,7 +2683,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -2686,7 +2696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2697,7 +2707,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -2710,7 +2720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2721,7 +2731,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2734,7 +2744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2745,7 +2755,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -2758,7 +2768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2769,7 +2779,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -2782,7 +2792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2793,7 +2803,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -2806,7 +2816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2817,7 +2827,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -2830,7 +2840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2841,7 +2851,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -2854,7 +2864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -2865,7 +2875,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2890,7 +2900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -2901,7 +2911,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2923,7 +2933,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -2934,7 +2944,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -2947,7 +2957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -2958,7 +2968,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2980,7 +2990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -2991,7 +3001,7 @@
         <v>46</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -3004,7 +3014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -3015,7 +3025,7 @@
         <v>48</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -3028,7 +3038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -3039,7 +3049,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -3061,7 +3071,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -3072,7 +3082,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -3085,7 +3095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -3096,7 +3106,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -3109,7 +3119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -3120,7 +3130,7 @@
         <v>29</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>19</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -3133,7 +3143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -3144,7 +3154,7 @@
         <v>58</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -3157,7 +3167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -3168,7 +3178,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>21</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -3181,7 +3191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -3192,7 +3202,7 @@
         <v>61</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>22</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -3205,7 +3215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -3216,7 +3226,7 @@
         <v>29</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -3241,7 +3251,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
@@ -3252,7 +3262,7 @@
         <v>69</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>24</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -3277,7 +3287,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -3288,7 +3298,7 @@
         <v>75</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>25</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -3301,7 +3311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
@@ -3312,7 +3322,7 @@
         <v>69</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -3325,7 +3335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
         <v>77</v>
       </c>
@@ -3336,7 +3346,7 @@
         <v>79</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>27</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -3349,7 +3359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>77</v>
       </c>
@@ -3360,7 +3370,7 @@
         <v>81</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -3373,7 +3383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
         <v>77</v>
       </c>
@@ -3384,7 +3394,7 @@
         <v>83</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>29</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -3397,7 +3407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
         <v>84</v>
       </c>
@@ -3408,7 +3418,7 @@
         <v>86</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>30</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -3421,7 +3431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
         <v>84</v>
       </c>
@@ -3432,7 +3442,7 @@
         <v>86</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>31</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -3445,7 +3455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
         <v>84</v>
       </c>
@@ -3456,7 +3466,7 @@
         <v>86</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>32</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -3469,7 +3479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
         <v>84</v>
       </c>
@@ -3480,7 +3490,7 @@
         <v>86</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>33</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -3493,7 +3503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
         <v>84</v>
       </c>
@@ -3504,7 +3514,7 @@
         <v>91</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>34</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -3517,7 +3527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>84</v>
       </c>
@@ -3528,7 +3538,7 @@
         <v>93</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>35</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -3550,7 +3560,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>97</v>
       </c>
@@ -3561,7 +3571,7 @@
         <v>99</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>36</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -3574,7 +3584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
         <v>97</v>
       </c>
@@ -3585,7 +3595,7 @@
         <v>101</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>37</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -3598,7 +3608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
         <v>97</v>
       </c>
@@ -3609,7 +3619,7 @@
         <v>99</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>38</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -3622,7 +3632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
         <v>97</v>
       </c>
@@ -3633,7 +3643,7 @@
         <v>101</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>39</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -3646,7 +3656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
         <v>97</v>
       </c>
@@ -3657,7 +3667,7 @@
         <v>101</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>40</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -3670,7 +3680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
         <v>105</v>
       </c>
@@ -3681,7 +3691,7 @@
         <v>107</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>41</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -3703,7 +3713,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
         <v>105</v>
       </c>
@@ -3714,7 +3724,7 @@
         <v>112</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>42</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -3727,7 +3737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>105</v>
       </c>
@@ -3738,7 +3748,7 @@
         <v>114</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>43</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -3751,7 +3761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>105</v>
       </c>
@@ -3762,7 +3772,7 @@
         <v>116</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>44</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -3775,7 +3785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>105</v>
       </c>
@@ -3786,7 +3796,7 @@
         <v>114</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>45</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -3799,7 +3809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>105</v>
       </c>
@@ -3810,7 +3820,7 @@
         <v>114</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>46</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -3823,7 +3833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>105</v>
       </c>
@@ -3834,7 +3844,7 @@
         <v>114</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>47</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -3859,7 +3869,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
         <v>105</v>
       </c>
@@ -3870,7 +3880,7 @@
         <v>107</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>48</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -3883,7 +3893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
         <v>105</v>
       </c>
@@ -3894,7 +3904,7 @@
         <v>114</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>49</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -3907,7 +3917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
@@ -3918,7 +3928,7 @@
         <v>127</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>50</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -3931,7 +3941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
         <v>105</v>
       </c>
@@ -3942,7 +3952,7 @@
         <v>114</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>51</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -3955,7 +3965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
@@ -3966,7 +3976,7 @@
         <v>114</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>52</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -3979,7 +3989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
         <v>130</v>
       </c>
@@ -3990,7 +4000,7 @@
         <v>131</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>53</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -4003,7 +4013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
         <v>130</v>
       </c>
@@ -4014,7 +4024,7 @@
         <v>133</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>54</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -4027,7 +4037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
         <v>27</v>
       </c>
@@ -4038,7 +4048,7 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>55</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -4051,7 +4061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
         <v>130</v>
       </c>
@@ -4062,7 +4072,7 @@
         <v>137</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>56</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -4075,7 +4085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
         <v>130</v>
       </c>
@@ -4086,7 +4096,7 @@
         <v>139</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>57</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -4099,7 +4109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
         <v>130</v>
       </c>
@@ -4110,7 +4120,7 @@
         <v>141</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>58</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -4123,7 +4133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
         <v>130</v>
       </c>
@@ -4134,7 +4144,7 @@
         <v>133</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>59</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -4147,7 +4157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
         <v>130</v>
       </c>
@@ -4158,7 +4168,7 @@
         <v>144</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>60</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -4171,7 +4181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
         <v>130</v>
       </c>
@@ -4182,7 +4192,7 @@
         <v>146</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>61</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -4195,7 +4205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
         <v>130</v>
       </c>
@@ -4206,7 +4216,7 @@
         <v>148</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>62</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -4219,7 +4229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
         <v>130</v>
       </c>
@@ -4230,7 +4240,7 @@
         <v>141</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>63</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -4243,7 +4253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
         <v>130</v>
       </c>
@@ -4254,7 +4264,7 @@
         <v>144</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW() - 1</f>
         <v>64</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -4267,7 +4277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -4278,7 +4288,7 @@
         <v>144</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" ref="D66:D129" si="1">ROW() - 1</f>
+        <f>ROW() - 1</f>
         <v>65</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -4291,7 +4301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
         <v>130</v>
       </c>
@@ -4302,7 +4312,7 @@
         <v>153</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>66</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -4315,7 +4325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
         <v>130</v>
       </c>
@@ -4326,7 +4336,7 @@
         <v>133</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>67</v>
       </c>
       <c r="G68" s="1" t="s">
@@ -4339,7 +4349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
         <v>130</v>
       </c>
@@ -4350,7 +4360,7 @@
         <v>131</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>68</v>
       </c>
       <c r="G69" s="1" t="s">
@@ -4363,7 +4373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
         <v>130</v>
       </c>
@@ -4374,7 +4384,7 @@
         <v>144</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>69</v>
       </c>
       <c r="G70" s="1" t="s">
@@ -4387,7 +4397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
         <v>130</v>
       </c>
@@ -4398,7 +4408,7 @@
         <v>146</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>70</v>
       </c>
       <c r="G71" s="1" t="s">
@@ -4411,7 +4421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
         <v>130</v>
       </c>
@@ -4422,7 +4432,7 @@
         <v>139</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>71</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -4435,7 +4445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
         <v>130</v>
       </c>
@@ -4446,7 +4456,7 @@
         <v>146</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>72</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -4459,7 +4469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
         <v>130</v>
       </c>
@@ -4470,7 +4480,7 @@
         <v>144</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>73</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -4483,7 +4493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
         <v>130</v>
       </c>
@@ -4494,7 +4504,7 @@
         <v>148</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>74</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -4507,7 +4517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
         <v>130</v>
       </c>
@@ -4518,7 +4528,7 @@
         <v>144</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>75</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -4531,7 +4541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
         <v>130</v>
       </c>
@@ -4542,7 +4552,7 @@
         <v>148</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>76</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -4555,7 +4565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
         <v>130</v>
       </c>
@@ -4566,7 +4576,7 @@
         <v>148</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>77</v>
       </c>
       <c r="G78" s="1" t="s">
@@ -4579,7 +4589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
         <v>130</v>
       </c>
@@ -4590,7 +4600,7 @@
         <v>139</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>78</v>
       </c>
       <c r="G79" s="1" t="s">
@@ -4603,7 +4613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
         <v>130</v>
       </c>
@@ -4614,7 +4624,7 @@
         <v>144</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>79</v>
       </c>
       <c r="G80" s="1" t="s">
@@ -4627,7 +4637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
         <v>130</v>
       </c>
@@ -4638,7 +4648,7 @@
         <v>144</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>80</v>
       </c>
       <c r="G81" s="1" t="s">
@@ -4651,7 +4661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
         <v>130</v>
       </c>
@@ -4662,7 +4672,7 @@
         <v>144</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>81</v>
       </c>
       <c r="G82" s="1" t="s">
@@ -4675,7 +4685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
         <v>130</v>
       </c>
@@ -4686,7 +4696,7 @@
         <v>148</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>82</v>
       </c>
       <c r="G83" s="1" t="s">
@@ -4699,7 +4709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
         <v>130</v>
       </c>
@@ -4710,7 +4720,7 @@
         <v>146</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>83</v>
       </c>
       <c r="G84" s="1" t="s">
@@ -4723,7 +4733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
         <v>130</v>
       </c>
@@ -4734,7 +4744,7 @@
         <v>144</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>84</v>
       </c>
       <c r="G85" s="1" t="s">
@@ -4747,7 +4757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
         <v>130</v>
       </c>
@@ -4758,7 +4768,7 @@
         <v>141</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>85</v>
       </c>
       <c r="G86" s="1" t="s">
@@ -4771,7 +4781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
         <v>130</v>
       </c>
@@ -4782,7 +4792,7 @@
         <v>141</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>86</v>
       </c>
       <c r="G87" s="1" t="s">
@@ -4795,7 +4805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
         <v>130</v>
       </c>
@@ -4806,7 +4816,7 @@
         <v>175</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>87</v>
       </c>
       <c r="G88" s="1" t="s">
@@ -4819,7 +4829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
         <v>130</v>
       </c>
@@ -4830,7 +4840,7 @@
         <v>148</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>88</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -4855,7 +4865,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
         <v>130</v>
       </c>
@@ -4866,7 +4876,7 @@
         <v>148</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>89</v>
       </c>
       <c r="G90" s="1" t="s">
@@ -4879,7 +4889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
         <v>130</v>
       </c>
@@ -4890,7 +4900,7 @@
         <v>175</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>90</v>
       </c>
       <c r="G91" s="1" t="s">
@@ -4903,7 +4913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
         <v>130</v>
       </c>
@@ -4914,7 +4924,7 @@
         <v>148</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
@@ -4927,7 +4937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
         <v>130</v>
       </c>
@@ -4938,7 +4948,7 @@
         <v>141</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>92</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -4951,7 +4961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
         <v>130</v>
       </c>
@@ -4962,7 +4972,7 @@
         <v>146</v>
       </c>
       <c r="D94" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>93</v>
       </c>
       <c r="G94" s="1" t="s">
@@ -4975,7 +4985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
         <v>186</v>
       </c>
@@ -4986,7 +4996,7 @@
         <v>188</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>94</v>
       </c>
       <c r="G95" s="1" t="s">
@@ -4999,7 +5009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
         <v>186</v>
       </c>
@@ -5010,7 +5020,7 @@
         <v>188</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>95</v>
       </c>
       <c r="G96" s="1" t="s">
@@ -5023,7 +5033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
         <v>186</v>
       </c>
@@ -5034,7 +5044,7 @@
         <v>188</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>96</v>
       </c>
       <c r="G97" s="1" t="s">
@@ -5047,7 +5057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
         <v>186</v>
       </c>
@@ -5058,7 +5068,7 @@
         <v>188</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>97</v>
       </c>
       <c r="G98" s="1" t="s">
@@ -5071,7 +5081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
         <v>186</v>
       </c>
@@ -5082,7 +5092,7 @@
         <v>188</v>
       </c>
       <c r="D99" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>98</v>
       </c>
       <c r="G99" s="1" t="s">
@@ -5095,7 +5105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
         <v>186</v>
       </c>
@@ -5106,7 +5116,7 @@
         <v>188</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>99</v>
       </c>
       <c r="G100" s="1" t="s">
@@ -5119,7 +5129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
         <v>186</v>
       </c>
@@ -5130,7 +5140,7 @@
         <v>188</v>
       </c>
       <c r="D101" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>100</v>
       </c>
       <c r="G101" s="1" t="s">
@@ -5143,7 +5153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
         <v>186</v>
       </c>
@@ -5154,7 +5164,7 @@
         <v>188</v>
       </c>
       <c r="D102" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>101</v>
       </c>
       <c r="G102" s="1" t="s">
@@ -5167,7 +5177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
         <v>186</v>
       </c>
@@ -5178,7 +5188,7 @@
         <v>188</v>
       </c>
       <c r="D103" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>102</v>
       </c>
       <c r="G103" s="1" t="s">
@@ -5191,7 +5201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
         <v>186</v>
       </c>
@@ -5202,7 +5212,7 @@
         <v>188</v>
       </c>
       <c r="D104" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>103</v>
       </c>
       <c r="G104" s="1" t="s">
@@ -5215,7 +5225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11">
       <c r="A105" s="1" t="s">
         <v>186</v>
       </c>
@@ -5226,7 +5236,7 @@
         <v>199</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>104</v>
       </c>
       <c r="G105" s="1" t="s">
@@ -5239,7 +5249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11">
       <c r="A106" s="1" t="s">
         <v>186</v>
       </c>
@@ -5250,7 +5260,7 @@
         <v>188</v>
       </c>
       <c r="D106" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>105</v>
       </c>
       <c r="G106" s="1" t="s">
@@ -5263,7 +5273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11">
       <c r="A107" s="1" t="s">
         <v>186</v>
       </c>
@@ -5274,7 +5284,7 @@
         <v>188</v>
       </c>
       <c r="D107" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>106</v>
       </c>
       <c r="G107" s="1" t="s">
@@ -5287,7 +5297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11">
       <c r="A108" s="1" t="s">
         <v>186</v>
       </c>
@@ -5298,7 +5308,7 @@
         <v>188</v>
       </c>
       <c r="D108" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>107</v>
       </c>
       <c r="G108" s="1" t="s">
@@ -5311,7 +5321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11">
       <c r="A109" s="1" t="s">
         <v>186</v>
       </c>
@@ -5322,7 +5332,7 @@
         <v>188</v>
       </c>
       <c r="D109" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>108</v>
       </c>
       <c r="G109" s="1" t="s">
@@ -5335,7 +5345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11">
       <c r="A110" s="1" t="s">
         <v>186</v>
       </c>
@@ -5346,7 +5356,7 @@
         <v>188</v>
       </c>
       <c r="D110" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>109</v>
       </c>
       <c r="G110" s="1" t="s">
@@ -5359,7 +5369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11">
       <c r="A111" s="1" t="s">
         <v>205</v>
       </c>
@@ -5370,7 +5380,7 @@
         <v>207</v>
       </c>
       <c r="D111" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>110</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -5395,7 +5405,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11">
       <c r="A112" s="1" t="s">
         <v>205</v>
       </c>
@@ -5406,7 +5416,7 @@
         <v>213</v>
       </c>
       <c r="D112" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>111</v>
       </c>
       <c r="G112" s="1" t="s">
@@ -5419,7 +5429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11">
       <c r="A113" s="1" t="s">
         <v>205</v>
       </c>
@@ -5430,7 +5440,7 @@
         <v>215</v>
       </c>
       <c r="D113" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>112</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -5455,7 +5465,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11">
       <c r="A114" s="1" t="s">
         <v>205</v>
       </c>
@@ -5466,7 +5476,7 @@
         <v>221</v>
       </c>
       <c r="D114" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>113</v>
       </c>
       <c r="G114" s="1" t="s">
@@ -5479,7 +5489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11">
       <c r="A115" s="1" t="s">
         <v>205</v>
       </c>
@@ -5490,7 +5500,7 @@
         <v>223</v>
       </c>
       <c r="D115" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>114</v>
       </c>
       <c r="G115" s="1" t="s">
@@ -5503,7 +5513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11">
       <c r="A116" s="1" t="s">
         <v>205</v>
       </c>
@@ -5514,7 +5524,7 @@
         <v>225</v>
       </c>
       <c r="D116" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>115</v>
       </c>
       <c r="G116" s="1" t="s">
@@ -5527,7 +5537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11">
       <c r="A117" s="1" t="s">
         <v>205</v>
       </c>
@@ -5538,7 +5548,7 @@
         <v>227</v>
       </c>
       <c r="D117" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>116</v>
       </c>
       <c r="G117" s="1" t="s">
@@ -5551,7 +5561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11">
       <c r="A118" s="1" t="s">
         <v>205</v>
       </c>
@@ -5562,7 +5572,7 @@
         <v>229</v>
       </c>
       <c r="D118" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>117</v>
       </c>
       <c r="G118" s="1" t="s">
@@ -5575,7 +5585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11">
       <c r="A119" s="1" t="s">
         <v>205</v>
       </c>
@@ -5586,7 +5596,7 @@
         <v>231</v>
       </c>
       <c r="D119" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>118</v>
       </c>
       <c r="G119" s="1" t="s">
@@ -5599,7 +5609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11">
       <c r="A120" s="1" t="s">
         <v>205</v>
       </c>
@@ -5610,7 +5620,7 @@
         <v>227</v>
       </c>
       <c r="D120" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>119</v>
       </c>
       <c r="G120" s="1" t="s">
@@ -5623,7 +5633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11">
       <c r="A121" s="1" t="s">
         <v>205</v>
       </c>
@@ -5634,7 +5644,7 @@
         <v>234</v>
       </c>
       <c r="D121" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>120</v>
       </c>
       <c r="G121" s="1" t="s">
@@ -5647,7 +5657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11">
       <c r="A122" s="1" t="s">
         <v>205</v>
       </c>
@@ -5658,7 +5668,7 @@
         <v>231</v>
       </c>
       <c r="D122" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>121</v>
       </c>
       <c r="G122" s="1" t="s">
@@ -5671,7 +5681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11">
       <c r="A123" s="1" t="s">
         <v>205</v>
       </c>
@@ -5682,7 +5692,7 @@
         <v>231</v>
       </c>
       <c r="D123" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>122</v>
       </c>
       <c r="G123" s="1" t="s">
@@ -5695,7 +5705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11">
       <c r="A124" s="1" t="s">
         <v>205</v>
       </c>
@@ -5706,7 +5716,7 @@
         <v>238</v>
       </c>
       <c r="D124" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>123</v>
       </c>
       <c r="G124" s="1" t="s">
@@ -5719,7 +5729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11">
       <c r="A125" s="1" t="s">
         <v>239</v>
       </c>
@@ -5730,7 +5740,7 @@
         <v>241</v>
       </c>
       <c r="D125" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>124</v>
       </c>
       <c r="G125" s="1" t="s">
@@ -5743,7 +5753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11">
       <c r="A126" s="1" t="s">
         <v>239</v>
       </c>
@@ -5754,7 +5764,7 @@
         <v>243</v>
       </c>
       <c r="D126" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>125</v>
       </c>
       <c r="G126" s="1" t="s">
@@ -5767,7 +5777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11">
       <c r="A127" s="1" t="s">
         <v>239</v>
       </c>
@@ -5778,7 +5788,7 @@
         <v>245</v>
       </c>
       <c r="D127" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>126</v>
       </c>
       <c r="G127" s="1" t="s">
@@ -5791,7 +5801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11">
       <c r="A128" s="1" t="s">
         <v>239</v>
       </c>
@@ -5802,7 +5812,7 @@
         <v>243</v>
       </c>
       <c r="D128" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>127</v>
       </c>
       <c r="G128" s="1" t="s">
@@ -5815,7 +5825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11">
       <c r="A129" s="1" t="s">
         <v>239</v>
       </c>
@@ -5826,7 +5836,7 @@
         <v>243</v>
       </c>
       <c r="D129" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW() - 1</f>
         <v>128</v>
       </c>
       <c r="G129" s="1" t="s">
@@ -5839,7 +5849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11">
       <c r="A130" s="1" t="s">
         <v>239</v>
       </c>
@@ -5850,7 +5860,7 @@
         <v>243</v>
       </c>
       <c r="D130" s="1">
-        <f t="shared" ref="D130:D193" si="2">ROW() - 1</f>
+        <f>ROW() - 1</f>
         <v>129</v>
       </c>
       <c r="G130" s="1" t="s">
@@ -5863,7 +5873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11">
       <c r="A131" s="1" t="s">
         <v>239</v>
       </c>
@@ -5874,7 +5884,7 @@
         <v>250</v>
       </c>
       <c r="D131" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>130</v>
       </c>
       <c r="G131" s="1" t="s">
@@ -5887,7 +5897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11">
       <c r="A132" s="1" t="s">
         <v>251</v>
       </c>
@@ -5898,7 +5908,7 @@
         <v>253</v>
       </c>
       <c r="D132" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>131</v>
       </c>
       <c r="G132" s="1" t="s">
@@ -5911,7 +5921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11">
       <c r="A133" s="1" t="s">
         <v>251</v>
       </c>
@@ -5922,7 +5932,7 @@
         <v>255</v>
       </c>
       <c r="D133" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>132</v>
       </c>
       <c r="G133" s="1" t="s">
@@ -5935,7 +5945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11">
       <c r="A134" s="1" t="s">
         <v>251</v>
       </c>
@@ -5946,7 +5956,7 @@
         <v>257</v>
       </c>
       <c r="D134" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>133</v>
       </c>
       <c r="G134" s="1" t="s">
@@ -5959,7 +5969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11">
       <c r="A135" s="1" t="s">
         <v>251</v>
       </c>
@@ -5970,7 +5980,7 @@
         <v>259</v>
       </c>
       <c r="D135" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>134</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -5995,7 +6005,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11">
       <c r="A136" s="1" t="s">
         <v>251</v>
       </c>
@@ -6006,7 +6016,7 @@
         <v>265</v>
       </c>
       <c r="D136" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>135</v>
       </c>
       <c r="G136" s="1" t="s">
@@ -6019,7 +6029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11">
       <c r="A137" s="1" t="s">
         <v>251</v>
       </c>
@@ -6030,7 +6040,7 @@
         <v>267</v>
       </c>
       <c r="D137" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>136</v>
       </c>
       <c r="G137" s="1" t="s">
@@ -6043,7 +6053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11">
       <c r="A138" s="1" t="s">
         <v>251</v>
       </c>
@@ -6054,7 +6064,7 @@
         <v>269</v>
       </c>
       <c r="D138" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>137</v>
       </c>
       <c r="G138" s="1" t="s">
@@ -6067,7 +6077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11">
       <c r="A139" s="1" t="s">
         <v>251</v>
       </c>
@@ -6078,7 +6088,7 @@
         <v>271</v>
       </c>
       <c r="D139" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>138</v>
       </c>
       <c r="G139" s="1" t="s">
@@ -6091,7 +6101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11">
       <c r="A140" s="1" t="s">
         <v>251</v>
       </c>
@@ -6102,7 +6112,7 @@
         <v>253</v>
       </c>
       <c r="D140" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>139</v>
       </c>
       <c r="G140" s="1" t="s">
@@ -6115,7 +6125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11">
       <c r="A141" s="1" t="s">
         <v>251</v>
       </c>
@@ -6126,7 +6136,7 @@
         <v>274</v>
       </c>
       <c r="D141" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>140</v>
       </c>
       <c r="G141" s="1" t="s">
@@ -6139,7 +6149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11">
       <c r="A142" s="1" t="s">
         <v>251</v>
       </c>
@@ -6150,7 +6160,7 @@
         <v>253</v>
       </c>
       <c r="D142" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>141</v>
       </c>
       <c r="G142" s="1" t="s">
@@ -6163,7 +6173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11">
       <c r="A143" s="1" t="s">
         <v>251</v>
       </c>
@@ -6174,7 +6184,7 @@
         <v>257</v>
       </c>
       <c r="D143" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>142</v>
       </c>
       <c r="G143" s="1" t="s">
@@ -6187,7 +6197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11">
       <c r="A144" s="1" t="s">
         <v>251</v>
       </c>
@@ -6198,7 +6208,7 @@
         <v>278</v>
       </c>
       <c r="D144" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>143</v>
       </c>
       <c r="G144" s="1" t="s">
@@ -6211,7 +6221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11">
       <c r="A145" s="1" t="s">
         <v>251</v>
       </c>
@@ -6222,7 +6232,7 @@
         <v>267</v>
       </c>
       <c r="D145" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>144</v>
       </c>
       <c r="G145" s="1" t="s">
@@ -6235,7 +6245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11">
       <c r="A146" s="1" t="s">
         <v>251</v>
       </c>
@@ -6246,7 +6256,7 @@
         <v>281</v>
       </c>
       <c r="D146" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>145</v>
       </c>
       <c r="G146" s="1" t="s">
@@ -6259,7 +6269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11">
       <c r="A147" s="1" t="s">
         <v>251</v>
       </c>
@@ -6270,7 +6280,7 @@
         <v>283</v>
       </c>
       <c r="D147" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>146</v>
       </c>
       <c r="E147" s="1" t="s">
@@ -6295,7 +6305,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11">
       <c r="A148" s="1" t="s">
         <v>251</v>
       </c>
@@ -6306,7 +6316,7 @@
         <v>267</v>
       </c>
       <c r="D148" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>147</v>
       </c>
       <c r="G148" s="1" t="s">
@@ -6319,7 +6329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11">
       <c r="A149" s="1" t="s">
         <v>251</v>
       </c>
@@ -6330,7 +6340,7 @@
         <v>278</v>
       </c>
       <c r="D149" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>148</v>
       </c>
       <c r="G149" s="1" t="s">
@@ -6343,7 +6353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11">
       <c r="A150" s="1" t="s">
         <v>251</v>
       </c>
@@ -6354,7 +6364,7 @@
         <v>253</v>
       </c>
       <c r="D150" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>149</v>
       </c>
       <c r="G150" s="1" t="s">
@@ -6367,7 +6377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11">
       <c r="A151" s="1" t="s">
         <v>251</v>
       </c>
@@ -6375,7 +6385,7 @@
         <v>291</v>
       </c>
       <c r="D151" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>150</v>
       </c>
       <c r="G151" s="1" t="s">
@@ -6388,7 +6398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11">
       <c r="A152" s="1" t="s">
         <v>251</v>
       </c>
@@ -6399,7 +6409,7 @@
         <v>293</v>
       </c>
       <c r="D152" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>151</v>
       </c>
       <c r="G152" s="1" t="s">
@@ -6412,7 +6422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11">
       <c r="A153" s="1" t="s">
         <v>251</v>
       </c>
@@ -6423,7 +6433,7 @@
         <v>265</v>
       </c>
       <c r="D153" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>152</v>
       </c>
       <c r="G153" s="1" t="s">
@@ -6436,7 +6446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11">
       <c r="A154" s="1" t="s">
         <v>251</v>
       </c>
@@ -6447,7 +6457,7 @@
         <v>278</v>
       </c>
       <c r="D154" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>153</v>
       </c>
       <c r="G154" s="1" t="s">
@@ -6460,7 +6470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11">
       <c r="A155" s="1" t="s">
         <v>251</v>
       </c>
@@ -6471,7 +6481,7 @@
         <v>297</v>
       </c>
       <c r="D155" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>154</v>
       </c>
       <c r="G155" s="1" t="s">
@@ -6484,7 +6494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11">
       <c r="A156" s="1" t="s">
         <v>298</v>
       </c>
@@ -6495,7 +6505,7 @@
         <v>300</v>
       </c>
       <c r="D156" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>155</v>
       </c>
       <c r="G156" s="1" t="s">
@@ -6508,7 +6518,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11">
       <c r="A157" s="1" t="s">
         <v>298</v>
       </c>
@@ -6519,7 +6529,7 @@
         <v>300</v>
       </c>
       <c r="D157" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>156</v>
       </c>
       <c r="G157" s="1" t="s">
@@ -6532,7 +6542,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11">
       <c r="A158" s="1" t="s">
         <v>298</v>
       </c>
@@ -6543,7 +6553,7 @@
         <v>306</v>
       </c>
       <c r="D158" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>157</v>
       </c>
       <c r="G158" s="1" t="s">
@@ -6556,7 +6566,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11">
       <c r="A159" s="1" t="s">
         <v>298</v>
       </c>
@@ -6567,7 +6577,7 @@
         <v>309</v>
       </c>
       <c r="D159" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>158</v>
       </c>
       <c r="G159" s="1" t="s">
@@ -6580,7 +6590,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11">
       <c r="A160" s="1" t="s">
         <v>298</v>
       </c>
@@ -6591,7 +6601,7 @@
         <v>306</v>
       </c>
       <c r="D160" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>159</v>
       </c>
       <c r="G160" s="1" t="s">
@@ -6604,7 +6614,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11">
       <c r="A161" s="1" t="s">
         <v>298</v>
       </c>
@@ -6615,7 +6625,7 @@
         <v>306</v>
       </c>
       <c r="D161" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>160</v>
       </c>
       <c r="G161" s="1" t="s">
@@ -6628,7 +6638,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11">
       <c r="A162" s="1" t="s">
         <v>298</v>
       </c>
@@ -6639,7 +6649,7 @@
         <v>317</v>
       </c>
       <c r="D162" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>161</v>
       </c>
       <c r="G162" s="1" t="s">
@@ -6652,7 +6662,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11">
       <c r="A163" s="1" t="s">
         <v>298</v>
       </c>
@@ -6663,7 +6673,7 @@
         <v>320</v>
       </c>
       <c r="D163" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>162</v>
       </c>
       <c r="G163" s="1" t="s">
@@ -6676,7 +6686,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11">
       <c r="A164" s="1" t="s">
         <v>298</v>
       </c>
@@ -6687,7 +6697,7 @@
         <v>306</v>
       </c>
       <c r="D164" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>163</v>
       </c>
       <c r="G164" s="1" t="s">
@@ -6700,7 +6710,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11">
       <c r="A165" s="1" t="s">
         <v>298</v>
       </c>
@@ -6711,7 +6721,7 @@
         <v>325</v>
       </c>
       <c r="D165" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>164</v>
       </c>
       <c r="G165" s="1" t="s">
@@ -6724,7 +6734,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11">
       <c r="A166" s="1" t="s">
         <v>298</v>
       </c>
@@ -6735,7 +6745,7 @@
         <v>328</v>
       </c>
       <c r="D166" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>165</v>
       </c>
       <c r="G166" s="1" t="s">
@@ -6748,7 +6758,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11">
       <c r="A167" s="1" t="s">
         <v>298</v>
       </c>
@@ -6759,7 +6769,7 @@
         <v>300</v>
       </c>
       <c r="D167" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>166</v>
       </c>
       <c r="G167" s="1" t="s">
@@ -6772,7 +6782,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11">
       <c r="A168" s="1" t="s">
         <v>298</v>
       </c>
@@ -6783,7 +6793,7 @@
         <v>306</v>
       </c>
       <c r="D168" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>167</v>
       </c>
       <c r="G168" s="1" t="s">
@@ -6796,7 +6806,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11">
       <c r="A169" s="1" t="s">
         <v>298</v>
       </c>
@@ -6807,7 +6817,7 @@
         <v>317</v>
       </c>
       <c r="D169" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>168</v>
       </c>
       <c r="E169" s="1" t="s">
@@ -6832,7 +6842,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11">
       <c r="A170" s="1" t="s">
         <v>340</v>
       </c>
@@ -6843,7 +6853,7 @@
         <v>342</v>
       </c>
       <c r="D170" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>169</v>
       </c>
       <c r="G170" s="1" t="s">
@@ -6856,7 +6866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11">
       <c r="A171" s="1" t="s">
         <v>340</v>
       </c>
@@ -6867,7 +6877,7 @@
         <v>344</v>
       </c>
       <c r="D171" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>170</v>
       </c>
       <c r="G171" s="1" t="s">
@@ -6880,7 +6890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11">
       <c r="A172" s="1" t="s">
         <v>340</v>
       </c>
@@ -6891,7 +6901,7 @@
         <v>346</v>
       </c>
       <c r="D172" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>171</v>
       </c>
       <c r="G172" s="1" t="s">
@@ -6904,7 +6914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11">
       <c r="A173" s="1" t="s">
         <v>340</v>
       </c>
@@ -6915,7 +6925,7 @@
         <v>348</v>
       </c>
       <c r="D173" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>172</v>
       </c>
       <c r="G173" s="1" t="s">
@@ -6928,7 +6938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11">
       <c r="A174" s="1" t="s">
         <v>340</v>
       </c>
@@ -6939,7 +6949,7 @@
         <v>350</v>
       </c>
       <c r="D174" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>173</v>
       </c>
       <c r="G174" s="1" t="s">
@@ -6952,7 +6962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11">
       <c r="A175" s="1" t="s">
         <v>340</v>
       </c>
@@ -6963,7 +6973,7 @@
         <v>352</v>
       </c>
       <c r="D175" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>174</v>
       </c>
       <c r="G175" s="1" t="s">
@@ -6976,7 +6986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11">
       <c r="A176" s="1" t="s">
         <v>340</v>
       </c>
@@ -6987,7 +6997,7 @@
         <v>354</v>
       </c>
       <c r="D176" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>175</v>
       </c>
       <c r="G176" s="1" t="s">
@@ -7000,7 +7010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11">
       <c r="A177" s="1" t="s">
         <v>340</v>
       </c>
@@ -7011,7 +7021,7 @@
         <v>356</v>
       </c>
       <c r="D177" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>176</v>
       </c>
       <c r="G177" s="1" t="s">
@@ -7024,7 +7034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11">
       <c r="A178" s="1" t="s">
         <v>340</v>
       </c>
@@ -7035,7 +7045,7 @@
         <v>352</v>
       </c>
       <c r="D178" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>177</v>
       </c>
       <c r="G178" s="1" t="s">
@@ -7048,7 +7058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11">
       <c r="A179" s="1" t="s">
         <v>340</v>
       </c>
@@ -7059,7 +7069,7 @@
         <v>350</v>
       </c>
       <c r="D179" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>178</v>
       </c>
       <c r="G179" s="1" t="s">
@@ -7072,7 +7082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11">
       <c r="A180" s="1" t="s">
         <v>340</v>
       </c>
@@ -7083,7 +7093,7 @@
         <v>350</v>
       </c>
       <c r="D180" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>179</v>
       </c>
       <c r="G180" s="1" t="s">
@@ -7096,7 +7106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11">
       <c r="A181" s="1" t="s">
         <v>340</v>
       </c>
@@ -7107,7 +7117,7 @@
         <v>342</v>
       </c>
       <c r="D181" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>180</v>
       </c>
       <c r="E181" s="1" t="s">
@@ -7129,7 +7139,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11">
       <c r="A182" s="1" t="s">
         <v>340</v>
       </c>
@@ -7140,7 +7150,7 @@
         <v>350</v>
       </c>
       <c r="D182" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>181</v>
       </c>
       <c r="G182" s="1" t="s">
@@ -7153,7 +7163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11">
       <c r="A183" s="1" t="s">
         <v>340</v>
       </c>
@@ -7164,7 +7174,7 @@
         <v>366</v>
       </c>
       <c r="D183" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>182</v>
       </c>
       <c r="G183" s="1" t="s">
@@ -7177,7 +7187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11">
       <c r="A184" s="1" t="s">
         <v>340</v>
       </c>
@@ -7188,7 +7198,7 @@
         <v>366</v>
       </c>
       <c r="D184" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>183</v>
       </c>
       <c r="G184" s="1" t="s">
@@ -7201,7 +7211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11">
       <c r="A185" s="1" t="s">
         <v>340</v>
       </c>
@@ -7212,7 +7222,7 @@
         <v>342</v>
       </c>
       <c r="D185" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>184</v>
       </c>
       <c r="G185" s="1" t="s">
@@ -7225,7 +7235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11">
       <c r="A186" s="1" t="s">
         <v>340</v>
       </c>
@@ -7236,7 +7246,7 @@
         <v>342</v>
       </c>
       <c r="D186" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>185</v>
       </c>
       <c r="G186" s="1" t="s">
@@ -7249,7 +7259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11">
       <c r="A187" s="1" t="s">
         <v>340</v>
       </c>
@@ -7260,7 +7270,7 @@
         <v>350</v>
       </c>
       <c r="D187" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>186</v>
       </c>
       <c r="G187" s="1" t="s">
@@ -7273,7 +7283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11">
       <c r="A188" s="1" t="s">
         <v>340</v>
       </c>
@@ -7284,7 +7294,7 @@
         <v>372</v>
       </c>
       <c r="D188" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>187</v>
       </c>
       <c r="G188" s="1" t="s">
@@ -7297,7 +7307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11">
       <c r="A189" s="1" t="s">
         <v>340</v>
       </c>
@@ -7308,7 +7318,7 @@
         <v>350</v>
       </c>
       <c r="D189" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>188</v>
       </c>
       <c r="G189" s="1" t="s">
@@ -7321,7 +7331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11">
       <c r="A190" s="1" t="s">
         <v>340</v>
       </c>
@@ -7332,7 +7342,7 @@
         <v>350</v>
       </c>
       <c r="D190" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>189</v>
       </c>
       <c r="G190" s="1" t="s">
@@ -7345,7 +7355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11">
       <c r="A191" s="1" t="s">
         <v>340</v>
       </c>
@@ -7356,7 +7366,7 @@
         <v>350</v>
       </c>
       <c r="D191" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>190</v>
       </c>
       <c r="G191" s="1" t="s">
@@ -7369,7 +7379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11">
       <c r="A192" s="1" t="s">
         <v>340</v>
       </c>
@@ -7380,7 +7390,7 @@
         <v>350</v>
       </c>
       <c r="D192" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>191</v>
       </c>
       <c r="G192" s="1" t="s">
@@ -7393,7 +7403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11">
       <c r="A193" s="1" t="s">
         <v>340</v>
       </c>
@@ -7404,7 +7414,7 @@
         <v>350</v>
       </c>
       <c r="D193" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW() - 1</f>
         <v>192</v>
       </c>
       <c r="G193" s="1" t="s">
@@ -7417,7 +7427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11">
       <c r="A194" s="1" t="s">
         <v>340</v>
       </c>
@@ -7428,7 +7438,7 @@
         <v>350</v>
       </c>
       <c r="D194" s="1">
-        <f t="shared" ref="D194:D257" si="3">ROW() - 1</f>
+        <f>ROW() - 1</f>
         <v>193</v>
       </c>
       <c r="G194" s="1" t="s">
@@ -7441,7 +7451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11">
       <c r="A195" s="1" t="s">
         <v>340</v>
       </c>
@@ -7452,7 +7462,7 @@
         <v>350</v>
       </c>
       <c r="D195" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>194</v>
       </c>
       <c r="G195" s="1" t="s">
@@ -7465,7 +7475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11">
       <c r="A196" s="1" t="s">
         <v>340</v>
       </c>
@@ -7476,7 +7486,7 @@
         <v>350</v>
       </c>
       <c r="D196" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>195</v>
       </c>
       <c r="G196" s="1" t="s">
@@ -7489,7 +7499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11">
       <c r="A197" s="1" t="s">
         <v>340</v>
       </c>
@@ -7500,7 +7510,7 @@
         <v>342</v>
       </c>
       <c r="D197" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>196</v>
       </c>
       <c r="G197" s="1" t="s">
@@ -7513,7 +7523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11">
       <c r="A198" s="1" t="s">
         <v>382</v>
       </c>
@@ -7524,7 +7534,7 @@
         <v>384</v>
       </c>
       <c r="D198" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>197</v>
       </c>
       <c r="G198" s="1" t="s">
@@ -7537,7 +7547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11">
       <c r="A199" s="1" t="s">
         <v>382</v>
       </c>
@@ -7548,7 +7558,7 @@
         <v>386</v>
       </c>
       <c r="D199" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>198</v>
       </c>
       <c r="G199" s="1" t="s">
@@ -7561,7 +7571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11">
       <c r="A200" s="1" t="s">
         <v>382</v>
       </c>
@@ -7572,7 +7582,7 @@
         <v>388</v>
       </c>
       <c r="D200" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>199</v>
       </c>
       <c r="G200" s="1" t="s">
@@ -7585,7 +7595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11">
       <c r="A201" s="1" t="s">
         <v>382</v>
       </c>
@@ -7596,7 +7606,7 @@
         <v>384</v>
       </c>
       <c r="D201" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>200</v>
       </c>
       <c r="G201" s="1" t="s">
@@ -7609,7 +7619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11">
       <c r="A202" s="1" t="s">
         <v>382</v>
       </c>
@@ -7620,7 +7630,7 @@
         <v>384</v>
       </c>
       <c r="D202" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>201</v>
       </c>
       <c r="G202" s="1" t="s">
@@ -7633,7 +7643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11">
       <c r="A203" s="1" t="s">
         <v>382</v>
       </c>
@@ -7644,7 +7654,7 @@
         <v>386</v>
       </c>
       <c r="D203" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>202</v>
       </c>
       <c r="G203" s="1" t="s">
@@ -7657,7 +7667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11">
       <c r="A204" s="1" t="s">
         <v>382</v>
       </c>
@@ -7668,7 +7678,7 @@
         <v>384</v>
       </c>
       <c r="D204" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>203</v>
       </c>
       <c r="G204" s="1" t="s">
@@ -7681,7 +7691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11">
       <c r="A205" s="1" t="s">
         <v>382</v>
       </c>
@@ -7692,7 +7702,7 @@
         <v>386</v>
       </c>
       <c r="D205" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>204</v>
       </c>
       <c r="G205" s="1" t="s">
@@ -7705,7 +7715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11">
       <c r="A206" s="1" t="s">
         <v>382</v>
       </c>
@@ -7716,7 +7726,7 @@
         <v>386</v>
       </c>
       <c r="D206" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>205</v>
       </c>
       <c r="G206" s="1" t="s">
@@ -7729,7 +7739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11">
       <c r="A207" s="1" t="s">
         <v>382</v>
       </c>
@@ -7740,7 +7750,7 @@
         <v>388</v>
       </c>
       <c r="D207" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>206</v>
       </c>
       <c r="G207" s="1" t="s">
@@ -7753,7 +7763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11">
       <c r="A208" s="1" t="s">
         <v>382</v>
       </c>
@@ -7764,7 +7774,7 @@
         <v>397</v>
       </c>
       <c r="D208" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>207</v>
       </c>
       <c r="G208" s="1" t="s">
@@ -7777,7 +7787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11">
       <c r="A209" s="1" t="s">
         <v>382</v>
       </c>
@@ -7788,7 +7798,7 @@
         <v>386</v>
       </c>
       <c r="D209" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>208</v>
       </c>
       <c r="G209" s="1" t="s">
@@ -7801,7 +7811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11">
       <c r="A210" s="1" t="s">
         <v>382</v>
       </c>
@@ -7812,7 +7822,7 @@
         <v>388</v>
       </c>
       <c r="D210" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>209</v>
       </c>
       <c r="G210" s="1" t="s">
@@ -7825,7 +7835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11">
       <c r="A211" s="1" t="s">
         <v>382</v>
       </c>
@@ -7836,7 +7846,7 @@
         <v>384</v>
       </c>
       <c r="D211" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>210</v>
       </c>
       <c r="G211" s="1" t="s">
@@ -7849,7 +7859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11">
       <c r="A212" s="1" t="s">
         <v>382</v>
       </c>
@@ -7860,7 +7870,7 @@
         <v>388</v>
       </c>
       <c r="D212" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>211</v>
       </c>
       <c r="G212" s="1" t="s">
@@ -7873,7 +7883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11">
       <c r="A213" s="1" t="s">
         <v>382</v>
       </c>
@@ -7884,7 +7894,7 @@
         <v>384</v>
       </c>
       <c r="D213" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>212</v>
       </c>
       <c r="G213" s="1" t="s">
@@ -7897,7 +7907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11">
       <c r="A214" s="1" t="s">
         <v>382</v>
       </c>
@@ -7908,7 +7918,7 @@
         <v>388</v>
       </c>
       <c r="D214" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>213</v>
       </c>
       <c r="G214" s="1" t="s">
@@ -7921,7 +7931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11">
       <c r="A215" s="1" t="s">
         <v>382</v>
       </c>
@@ -7932,7 +7942,7 @@
         <v>386</v>
       </c>
       <c r="D215" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>214</v>
       </c>
       <c r="G215" s="1" t="s">
@@ -7945,7 +7955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11">
       <c r="A216" s="1" t="s">
         <v>382</v>
       </c>
@@ -7956,7 +7966,7 @@
         <v>384</v>
       </c>
       <c r="D216" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>215</v>
       </c>
       <c r="G216" s="1" t="s">
@@ -7969,7 +7979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11">
       <c r="A217" s="1" t="s">
         <v>382</v>
       </c>
@@ -7980,7 +7990,7 @@
         <v>397</v>
       </c>
       <c r="D217" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>216</v>
       </c>
       <c r="G217" s="1" t="s">
@@ -7993,7 +8003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11">
       <c r="A218" s="1" t="s">
         <v>382</v>
       </c>
@@ -8004,7 +8014,7 @@
         <v>388</v>
       </c>
       <c r="D218" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>217</v>
       </c>
       <c r="G218" s="1" t="s">
@@ -8017,7 +8027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11">
       <c r="A219" s="1" t="s">
         <v>382</v>
       </c>
@@ -8028,7 +8038,7 @@
         <v>388</v>
       </c>
       <c r="D219" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>218</v>
       </c>
       <c r="G219" s="1" t="s">
@@ -8041,7 +8051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11">
       <c r="A220" s="1" t="s">
         <v>382</v>
       </c>
@@ -8052,7 +8062,7 @@
         <v>386</v>
       </c>
       <c r="D220" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>219</v>
       </c>
       <c r="G220" s="1" t="s">
@@ -8065,7 +8075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11">
       <c r="A221" s="1" t="s">
         <v>382</v>
       </c>
@@ -8076,7 +8086,7 @@
         <v>411</v>
       </c>
       <c r="D221" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>220</v>
       </c>
       <c r="G221" s="1" t="s">
@@ -8089,7 +8099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11">
       <c r="A222" s="1" t="s">
         <v>382</v>
       </c>
@@ -8100,7 +8110,7 @@
         <v>384</v>
       </c>
       <c r="D222" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>221</v>
       </c>
       <c r="G222" s="1" t="s">
@@ -8113,7 +8123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11">
       <c r="A223" s="1" t="s">
         <v>382</v>
       </c>
@@ -8124,7 +8134,7 @@
         <v>414</v>
       </c>
       <c r="D223" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>222</v>
       </c>
       <c r="G223" s="1" t="s">
@@ -8137,7 +8147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11">
       <c r="A224" s="1" t="s">
         <v>382</v>
       </c>
@@ -8148,7 +8158,7 @@
         <v>416</v>
       </c>
       <c r="D224" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>223</v>
       </c>
       <c r="G224" s="1" t="s">
@@ -8161,7 +8171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11">
       <c r="A225" s="1" t="s">
         <v>382</v>
       </c>
@@ -8172,7 +8182,7 @@
         <v>418</v>
       </c>
       <c r="D225" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>224</v>
       </c>
       <c r="G225" s="1" t="s">
@@ -8185,7 +8195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11">
       <c r="A226" s="1" t="s">
         <v>382</v>
       </c>
@@ -8196,7 +8206,7 @@
         <v>384</v>
       </c>
       <c r="D226" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>225</v>
       </c>
       <c r="G226" s="1" t="s">
@@ -8209,7 +8219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11">
       <c r="A227" s="1" t="s">
         <v>382</v>
       </c>
@@ -8220,7 +8230,7 @@
         <v>384</v>
       </c>
       <c r="D227" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>226</v>
       </c>
       <c r="G227" s="1" t="s">
@@ -8233,7 +8243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11">
       <c r="A228" s="1" t="s">
         <v>382</v>
       </c>
@@ -8244,7 +8254,7 @@
         <v>386</v>
       </c>
       <c r="D228" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>227</v>
       </c>
       <c r="G228" s="1" t="s">
@@ -8257,7 +8267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11">
       <c r="A229" s="1" t="s">
         <v>422</v>
       </c>
@@ -8268,7 +8278,7 @@
         <v>424</v>
       </c>
       <c r="D229" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>228</v>
       </c>
       <c r="G229" s="1" t="s">
@@ -8281,7 +8291,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11">
       <c r="A230" s="1" t="s">
         <v>422</v>
       </c>
@@ -8292,7 +8302,7 @@
         <v>427</v>
       </c>
       <c r="D230" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>229</v>
       </c>
       <c r="G230" s="1" t="s">
@@ -8305,7 +8315,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11">
       <c r="A231" s="1" t="s">
         <v>422</v>
       </c>
@@ -8316,7 +8326,7 @@
         <v>430</v>
       </c>
       <c r="D231" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>230</v>
       </c>
       <c r="G231" s="1" t="s">
@@ -8329,7 +8339,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11">
       <c r="A232" s="1" t="s">
         <v>422</v>
       </c>
@@ -8340,7 +8350,7 @@
         <v>433</v>
       </c>
       <c r="D232" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>231</v>
       </c>
       <c r="G232" s="1" t="s">
@@ -8353,7 +8363,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11">
       <c r="A233" s="1" t="s">
         <v>422</v>
       </c>
@@ -8364,7 +8374,7 @@
         <v>427</v>
       </c>
       <c r="D233" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>232</v>
       </c>
       <c r="G233" s="1" t="s">
@@ -8377,7 +8387,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11">
       <c r="A234" s="1" t="s">
         <v>422</v>
       </c>
@@ -8388,7 +8398,7 @@
         <v>424</v>
       </c>
       <c r="D234" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>233</v>
       </c>
       <c r="E234" s="1" t="s">
@@ -8413,7 +8423,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11">
       <c r="A235" s="1" t="s">
         <v>422</v>
       </c>
@@ -8424,7 +8434,7 @@
         <v>427</v>
       </c>
       <c r="D235" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>234</v>
       </c>
       <c r="G235" s="1" t="s">
@@ -8438,7 +8448,7 @@
       </c>
       <c r="J235" s="4"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11">
       <c r="A236" s="1" t="s">
         <v>444</v>
       </c>
@@ -8449,7 +8459,7 @@
         <v>446</v>
       </c>
       <c r="D236" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>235</v>
       </c>
       <c r="E236" s="1" t="s">
@@ -8474,7 +8484,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11">
       <c r="A237" s="1" t="s">
         <v>444</v>
       </c>
@@ -8485,7 +8495,7 @@
         <v>454</v>
       </c>
       <c r="D237" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>236</v>
       </c>
       <c r="G237" s="1" t="s">
@@ -8498,7 +8508,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11">
       <c r="A238" s="1" t="s">
         <v>444</v>
       </c>
@@ -8509,7 +8519,7 @@
         <v>458</v>
       </c>
       <c r="D238" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>237</v>
       </c>
       <c r="G238" s="1" t="s">
@@ -8522,7 +8532,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11">
       <c r="A239" s="1" t="s">
         <v>444</v>
       </c>
@@ -8533,7 +8543,7 @@
         <v>461</v>
       </c>
       <c r="D239" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>238</v>
       </c>
       <c r="G239" s="1" t="s">
@@ -8546,7 +8556,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11">
       <c r="A240" s="1" t="s">
         <v>444</v>
       </c>
@@ -8557,7 +8567,7 @@
         <v>464</v>
       </c>
       <c r="D240" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>239</v>
       </c>
       <c r="E240" s="1" t="s">
@@ -8582,7 +8592,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11">
       <c r="A241" s="1" t="s">
         <v>444</v>
       </c>
@@ -8593,7 +8603,7 @@
         <v>471</v>
       </c>
       <c r="D241" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>240</v>
       </c>
       <c r="H241" s="3">
@@ -8603,7 +8613,7 @@
         <v>13212009225</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11">
       <c r="A242" s="1" t="s">
         <v>444</v>
       </c>
@@ -8614,7 +8624,7 @@
         <v>473</v>
       </c>
       <c r="D242" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>241</v>
       </c>
       <c r="G242" s="1" t="s">
@@ -8627,7 +8637,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11">
       <c r="A243" s="1" t="s">
         <v>475</v>
       </c>
@@ -8638,7 +8648,7 @@
         <v>477</v>
       </c>
       <c r="D243" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>242</v>
       </c>
       <c r="G243" s="1" t="s">
@@ -8651,7 +8661,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11">
       <c r="A244" s="1" t="s">
         <v>475</v>
       </c>
@@ -8662,7 +8672,7 @@
         <v>480</v>
       </c>
       <c r="D244" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>243</v>
       </c>
       <c r="G244" s="1" t="s">
@@ -8675,7 +8685,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11">
       <c r="A245" s="1" t="s">
         <v>475</v>
       </c>
@@ -8686,7 +8696,7 @@
         <v>483</v>
       </c>
       <c r="D245" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>244</v>
       </c>
       <c r="G245" s="1" t="s">
@@ -8699,7 +8709,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11">
       <c r="A246" s="1" t="s">
         <v>475</v>
       </c>
@@ -8710,7 +8720,7 @@
         <v>477</v>
       </c>
       <c r="D246" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>245</v>
       </c>
       <c r="G246" s="1" t="s">
@@ -8723,7 +8733,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11">
       <c r="A247" s="1" t="s">
         <v>475</v>
       </c>
@@ -8734,7 +8744,7 @@
         <v>488</v>
       </c>
       <c r="D247" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>246</v>
       </c>
       <c r="G247" s="1" t="s">
@@ -8747,7 +8757,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11">
       <c r="A248" s="1" t="s">
         <v>475</v>
       </c>
@@ -8758,7 +8768,7 @@
         <v>491</v>
       </c>
       <c r="D248" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>247</v>
       </c>
       <c r="G248" s="1" t="s">
@@ -8771,7 +8781,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11">
       <c r="A249" s="1" t="s">
         <v>475</v>
       </c>
@@ -8782,7 +8792,7 @@
         <v>494</v>
       </c>
       <c r="D249" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>248</v>
       </c>
       <c r="H249" s="3">
@@ -8792,7 +8802,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11">
       <c r="A250" s="1" t="s">
         <v>475</v>
       </c>
@@ -8803,7 +8813,7 @@
         <v>497</v>
       </c>
       <c r="D250" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>249</v>
       </c>
       <c r="G250" s="1" t="s">
@@ -8816,7 +8826,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11">
       <c r="A251" s="1" t="s">
         <v>475</v>
       </c>
@@ -8827,7 +8837,7 @@
         <v>500</v>
       </c>
       <c r="D251" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>250</v>
       </c>
       <c r="G251" s="1" t="s">
@@ -8840,7 +8850,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11">
       <c r="A252" s="1" t="s">
         <v>475</v>
       </c>
@@ -8851,7 +8861,7 @@
         <v>491</v>
       </c>
       <c r="D252" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>251</v>
       </c>
       <c r="G252" s="1" t="s">
@@ -8864,7 +8874,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11">
       <c r="A253" s="1" t="s">
         <v>475</v>
       </c>
@@ -8875,7 +8885,7 @@
         <v>477</v>
       </c>
       <c r="D253" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>252</v>
       </c>
       <c r="G253" s="1" t="s">
@@ -8888,7 +8898,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11">
       <c r="A254" s="1" t="s">
         <v>475</v>
       </c>
@@ -8899,7 +8909,7 @@
         <v>507</v>
       </c>
       <c r="D254" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>253</v>
       </c>
       <c r="G254" s="1" t="s">
@@ -8912,7 +8922,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11">
       <c r="A255" s="1" t="s">
         <v>475</v>
       </c>
@@ -8923,7 +8933,7 @@
         <v>510</v>
       </c>
       <c r="D255" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>254</v>
       </c>
       <c r="G255" s="1" t="s">
@@ -8936,7 +8946,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11">
       <c r="A256" s="1" t="s">
         <v>475</v>
       </c>
@@ -8947,7 +8957,7 @@
         <v>513</v>
       </c>
       <c r="D256" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>255</v>
       </c>
       <c r="G256" s="1" t="s">
@@ -8960,7 +8970,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11">
       <c r="A257" s="1" t="s">
         <v>475</v>
       </c>
@@ -8971,7 +8981,7 @@
         <v>477</v>
       </c>
       <c r="D257" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW() - 1</f>
         <v>256</v>
       </c>
       <c r="G257" s="1" t="s">
@@ -8984,7 +8994,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11">
       <c r="A258" s="1" t="s">
         <v>475</v>
       </c>
@@ -8995,7 +9005,7 @@
         <v>477</v>
       </c>
       <c r="D258" s="1">
-        <f t="shared" ref="D258:D277" si="4">ROW() - 1</f>
+        <f>ROW() - 1</f>
         <v>257</v>
       </c>
       <c r="G258" s="1" t="s">
@@ -9008,7 +9018,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11">
       <c r="A259" s="1" t="s">
         <v>475</v>
       </c>
@@ -9019,7 +9029,7 @@
         <v>477</v>
       </c>
       <c r="D259" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW() - 1</f>
         <v>258</v>
       </c>
       <c r="G259" s="1" t="s">
@@ -9032,7 +9042,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11">
       <c r="A260" s="1" t="s">
         <v>475</v>
       </c>
@@ -9043,14 +9053,14 @@
         <v>523</v>
       </c>
       <c r="D260" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW() - 1</f>
         <v>259</v>
       </c>
       <c r="H260" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11">
       <c r="A261" s="1" t="s">
         <v>475</v>
       </c>
@@ -9061,7 +9071,7 @@
         <v>525</v>
       </c>
       <c r="D261" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW() - 1</f>
         <v>260</v>
       </c>
       <c r="H261" s="3">
@@ -9071,7 +9081,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11">
       <c r="A262" s="1" t="s">
         <v>475</v>
       </c>
@@ -9082,7 +9092,7 @@
         <v>513</v>
       </c>
       <c r="D262" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW() - 1</f>
         <v>261</v>
       </c>
       <c r="G262" s="1" t="s">
@@ -9095,7 +9105,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11">
       <c r="A263" s="1" t="s">
         <v>475</v>
       </c>
@@ -9106,7 +9116,7 @@
         <v>530</v>
       </c>
       <c r="D263" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW() - 1</f>
         <v>262</v>
       </c>
       <c r="G263" s="1" t="s">
@@ -9119,7 +9129,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11">
       <c r="A264" s="1" t="s">
         <v>475</v>
       </c>
@@ -9130,7 +9140,7 @@
         <v>513</v>
       </c>
       <c r="D264" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW() - 1</f>
         <v>263</v>
       </c>
       <c r="G264" s="1" t="s">
@@ -9143,7 +9153,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11">
       <c r="A265" s="1" t="s">
         <v>475</v>
       </c>
@@ -9154,7 +9164,7 @@
         <v>477</v>
       </c>
       <c r="D265" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW() - 1</f>
         <v>264</v>
       </c>
       <c r="G265" s="1" t="s">
@@ -9167,7 +9177,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11">
       <c r="A266" s="1" t="s">
         <v>475</v>
       </c>
@@ -9178,7 +9188,7 @@
         <v>500</v>
       </c>
       <c r="D266" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW() - 1</f>
         <v>265</v>
       </c>
       <c r="G266" s="1" t="s">
@@ -9191,7 +9201,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11">
       <c r="A267" s="1" t="s">
         <v>475</v>
       </c>
@@ -9202,7 +9212,7 @@
         <v>513</v>
       </c>
       <c r="D267" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW() - 1</f>
         <v>266</v>
       </c>
       <c r="G267" s="1" t="s">
@@ -9215,7 +9225,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11">
       <c r="A268" s="1" t="s">
         <v>475</v>
       </c>
@@ -9226,7 +9236,7 @@
         <v>541</v>
       </c>
       <c r="D268" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW() - 1</f>
         <v>267</v>
       </c>
       <c r="H268" s="3">
@@ -9236,7 +9246,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11">
       <c r="A269" s="1" t="s">
         <v>475</v>
       </c>
@@ -9247,7 +9257,7 @@
         <v>544</v>
       </c>
       <c r="D269" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW() - 1</f>
         <v>268</v>
       </c>
       <c r="H269" s="3">
@@ -9257,7 +9267,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11">
       <c r="A270" s="1" t="s">
         <v>475</v>
       </c>
@@ -9268,7 +9278,7 @@
         <v>547</v>
       </c>
       <c r="D270" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW() - 1</f>
         <v>269</v>
       </c>
       <c r="G270" s="1" t="s">
@@ -9281,7 +9291,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11">
       <c r="A271" s="1" t="s">
         <v>475</v>
       </c>
@@ -9292,7 +9302,7 @@
         <v>477</v>
       </c>
       <c r="D271" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW() - 1</f>
         <v>270</v>
       </c>
       <c r="G271" s="1" t="s">
@@ -9305,7 +9315,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11">
       <c r="A272" s="1" t="s">
         <v>475</v>
       </c>
@@ -9316,7 +9326,7 @@
         <v>513</v>
       </c>
       <c r="D272" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW() - 1</f>
         <v>271</v>
       </c>
       <c r="G272" s="1" t="s">
@@ -9329,7 +9339,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11">
       <c r="A273" s="1" t="s">
         <v>475</v>
       </c>
@@ -9340,7 +9350,7 @@
         <v>513</v>
       </c>
       <c r="D273" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW() - 1</f>
         <v>272</v>
       </c>
       <c r="G273" s="1" t="s">
@@ -9353,7 +9363,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11">
       <c r="A274" s="1" t="s">
         <v>475</v>
       </c>
@@ -9364,7 +9374,7 @@
         <v>477</v>
       </c>
       <c r="D274" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW() - 1</f>
         <v>273</v>
       </c>
       <c r="G274" s="1" t="s">
@@ -9377,7 +9387,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11">
       <c r="A275" s="1" t="s">
         <v>475</v>
       </c>
@@ -9388,7 +9398,7 @@
         <v>530</v>
       </c>
       <c r="D275" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW() - 1</f>
         <v>274</v>
       </c>
       <c r="G275" s="1" t="s">
@@ -9401,7 +9411,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11">
       <c r="A276" s="1" t="s">
         <v>475</v>
       </c>
@@ -9412,7 +9422,7 @@
         <v>513</v>
       </c>
       <c r="D276" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW() - 1</f>
         <v>275</v>
       </c>
       <c r="G276" s="1" t="s">
@@ -9425,7 +9435,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11">
       <c r="A277" s="6" t="s">
         <v>561</v>
       </c>
@@ -9436,7 +9446,7 @@
         <v>563</v>
       </c>
       <c r="D277" s="6">
-        <f t="shared" si="4"/>
+        <f>ROW() - 1</f>
         <v>276</v>
       </c>
       <c r="H277" s="7" t="s">
@@ -9446,7 +9456,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11">
       <c r="A278" s="6" t="s">
         <v>561</v>
       </c>
@@ -9457,7 +9467,7 @@
         <v>567</v>
       </c>
       <c r="D278" s="6">
-        <f t="shared" ref="D278:D335" si="5">ROW() - 1</f>
+        <f>ROW() - 1</f>
         <v>277</v>
       </c>
       <c r="H278" s="8" t="s">
@@ -9467,7 +9477,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11">
       <c r="A279" s="6" t="s">
         <v>561</v>
       </c>
@@ -9478,7 +9488,7 @@
         <v>570</v>
       </c>
       <c r="D279" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>278</v>
       </c>
       <c r="H279" s="8" t="s">
@@ -9488,7 +9498,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11">
       <c r="A280" s="6" t="s">
         <v>561</v>
       </c>
@@ -9499,7 +9509,7 @@
         <v>574</v>
       </c>
       <c r="D280" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>279</v>
       </c>
       <c r="H280" s="8" t="s">
@@ -9509,7 +9519,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11">
       <c r="A281" s="6" t="s">
         <v>561</v>
       </c>
@@ -9520,7 +9530,7 @@
         <v>577</v>
       </c>
       <c r="D281" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>280</v>
       </c>
       <c r="H281" s="8" t="s">
@@ -9530,7 +9540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11">
       <c r="A282" s="6" t="s">
         <v>561</v>
       </c>
@@ -9541,7 +9551,7 @@
         <v>580</v>
       </c>
       <c r="D282" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>281</v>
       </c>
       <c r="H282" s="8" t="s">
@@ -9551,7 +9561,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11">
       <c r="A283" s="6" t="s">
         <v>561</v>
       </c>
@@ -9562,7 +9572,7 @@
         <v>583</v>
       </c>
       <c r="D283" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>282</v>
       </c>
       <c r="H283" s="8" t="s">
@@ -9572,7 +9582,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11">
       <c r="A284" s="6" t="s">
         <v>561</v>
       </c>
@@ -9583,7 +9593,7 @@
         <v>586</v>
       </c>
       <c r="D284" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>283</v>
       </c>
       <c r="H284" s="8" t="s">
@@ -9593,7 +9603,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11">
       <c r="A285" s="6" t="s">
         <v>561</v>
       </c>
@@ -9604,7 +9614,7 @@
         <v>589</v>
       </c>
       <c r="D285" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>284</v>
       </c>
       <c r="H285" s="8" t="s">
@@ -9614,7 +9624,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11">
       <c r="A286" s="6" t="s">
         <v>561</v>
       </c>
@@ -9625,7 +9635,7 @@
         <v>592</v>
       </c>
       <c r="D286" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>285</v>
       </c>
       <c r="H286" s="8" t="s">
@@ -9635,7 +9645,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11">
       <c r="A287" s="6" t="s">
         <v>561</v>
       </c>
@@ -9646,7 +9656,7 @@
         <v>595</v>
       </c>
       <c r="D287" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>286</v>
       </c>
       <c r="H287" s="8" t="s">
@@ -9656,7 +9666,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11">
       <c r="A288" s="6" t="s">
         <v>561</v>
       </c>
@@ -9667,7 +9677,7 @@
         <v>146</v>
       </c>
       <c r="D288" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>287</v>
       </c>
       <c r="H288" s="8" t="s">
@@ -9677,7 +9687,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11">
       <c r="A289" s="6" t="s">
         <v>561</v>
       </c>
@@ -9688,7 +9698,7 @@
         <v>600</v>
       </c>
       <c r="D289" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>288</v>
       </c>
       <c r="H289" s="8" t="s">
@@ -9698,7 +9708,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11">
       <c r="A290" s="6" t="s">
         <v>561</v>
       </c>
@@ -9709,7 +9719,7 @@
         <v>603</v>
       </c>
       <c r="D290" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>289</v>
       </c>
       <c r="H290" s="8" t="s">
@@ -9719,7 +9729,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11">
       <c r="A291" s="6" t="s">
         <v>561</v>
       </c>
@@ -9730,7 +9740,7 @@
         <v>574</v>
       </c>
       <c r="D291" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>290</v>
       </c>
       <c r="H291" s="8" t="s">
@@ -9740,7 +9750,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11">
       <c r="A292" s="6" t="s">
         <v>561</v>
       </c>
@@ -9751,7 +9761,7 @@
         <v>608</v>
       </c>
       <c r="D292" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>291</v>
       </c>
       <c r="H292" s="8" t="s">
@@ -9761,7 +9771,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11">
       <c r="A293" s="6" t="s">
         <v>561</v>
       </c>
@@ -9772,7 +9782,7 @@
         <v>611</v>
       </c>
       <c r="D293" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>292</v>
       </c>
       <c r="H293" s="8" t="s">
@@ -9782,7 +9792,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11">
       <c r="A294" s="6" t="s">
         <v>561</v>
       </c>
@@ -9793,7 +9803,7 @@
         <v>614</v>
       </c>
       <c r="D294" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>293</v>
       </c>
       <c r="H294" s="8" t="s">
@@ -9803,7 +9813,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11">
       <c r="A295" s="6" t="s">
         <v>561</v>
       </c>
@@ -9814,7 +9824,7 @@
         <v>614</v>
       </c>
       <c r="D295" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>294</v>
       </c>
       <c r="H295" s="8" t="s">
@@ -9824,7 +9834,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11">
       <c r="A296" s="6" t="s">
         <v>561</v>
       </c>
@@ -9835,7 +9845,7 @@
         <v>617</v>
       </c>
       <c r="D296" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>295</v>
       </c>
       <c r="H296" s="8" t="s">
@@ -9845,7 +9855,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11">
       <c r="A297" s="6" t="s">
         <v>561</v>
       </c>
@@ -9856,7 +9866,7 @@
         <v>620</v>
       </c>
       <c r="D297" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>296</v>
       </c>
       <c r="H297" s="8" t="s">
@@ -9866,7 +9876,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11">
       <c r="A298" s="6" t="s">
         <v>561</v>
       </c>
@@ -9877,7 +9887,7 @@
         <v>623</v>
       </c>
       <c r="D298" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>297</v>
       </c>
       <c r="H298" s="8" t="s">
@@ -9887,7 +9897,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11">
       <c r="A299" s="6" t="s">
         <v>561</v>
       </c>
@@ -9898,7 +9908,7 @@
         <v>626</v>
       </c>
       <c r="D299" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>298</v>
       </c>
       <c r="H299" s="8" t="s">
@@ -9908,7 +9918,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11">
       <c r="A300" s="6" t="s">
         <v>561</v>
       </c>
@@ -9919,7 +9929,7 @@
         <v>629</v>
       </c>
       <c r="D300" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>299</v>
       </c>
       <c r="H300" s="8" t="s">
@@ -9929,7 +9939,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11">
       <c r="A301" s="6" t="s">
         <v>561</v>
       </c>
@@ -9940,7 +9950,7 @@
         <v>632</v>
       </c>
       <c r="D301" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>300</v>
       </c>
       <c r="H301" s="8" t="s">
@@ -9950,7 +9960,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11">
       <c r="A302" s="6" t="s">
         <v>561</v>
       </c>
@@ -9961,7 +9971,7 @@
         <v>635</v>
       </c>
       <c r="D302" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>301</v>
       </c>
       <c r="H302" s="8" t="s">
@@ -9971,7 +9981,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11">
       <c r="A303" s="6" t="s">
         <v>561</v>
       </c>
@@ -9982,7 +9992,7 @@
         <v>639</v>
       </c>
       <c r="D303" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>302</v>
       </c>
       <c r="H303" s="8" t="s">
@@ -9992,7 +10002,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11">
       <c r="A304" s="6" t="s">
         <v>561</v>
       </c>
@@ -10003,7 +10013,7 @@
         <v>642</v>
       </c>
       <c r="D304" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>303</v>
       </c>
       <c r="H304" s="8" t="s">
@@ -10013,7 +10023,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11">
       <c r="A305" s="6" t="s">
         <v>561</v>
       </c>
@@ -10024,7 +10034,7 @@
         <v>645</v>
       </c>
       <c r="D305" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>304</v>
       </c>
       <c r="H305" s="8" t="s">
@@ -10034,7 +10044,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11">
       <c r="A306" s="6" t="s">
         <v>561</v>
       </c>
@@ -10045,7 +10055,7 @@
         <v>648</v>
       </c>
       <c r="D306" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>305</v>
       </c>
       <c r="H306" s="8" t="s">
@@ -10055,7 +10065,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11">
       <c r="A307" s="6" t="s">
         <v>561</v>
       </c>
@@ -10066,7 +10076,7 @@
         <v>651</v>
       </c>
       <c r="D307" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>306</v>
       </c>
       <c r="H307" s="8" t="s">
@@ -10076,7 +10086,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11">
       <c r="A308" s="6" t="s">
         <v>561</v>
       </c>
@@ -10087,7 +10097,7 @@
         <v>654</v>
       </c>
       <c r="D308" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>307</v>
       </c>
       <c r="H308" s="8" t="s">
@@ -10097,7 +10107,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11">
       <c r="A309" s="6" t="s">
         <v>561</v>
       </c>
@@ -10108,7 +10118,7 @@
         <v>658</v>
       </c>
       <c r="D309" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>308</v>
       </c>
       <c r="H309" s="8" t="s">
@@ -10118,7 +10128,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11">
       <c r="A310" s="6" t="s">
         <v>561</v>
       </c>
@@ -10129,7 +10139,7 @@
         <v>661</v>
       </c>
       <c r="D310" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>309</v>
       </c>
       <c r="H310" s="8" t="s">
@@ -10139,7 +10149,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11">
       <c r="A311" s="6" t="s">
         <v>561</v>
       </c>
@@ -10150,7 +10160,7 @@
         <v>664</v>
       </c>
       <c r="D311" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>310</v>
       </c>
       <c r="H311" s="8" t="s">
@@ -10160,7 +10170,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11">
       <c r="A312" s="6" t="s">
         <v>561</v>
       </c>
@@ -10171,7 +10181,7 @@
         <v>667</v>
       </c>
       <c r="D312" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>311</v>
       </c>
       <c r="H312" s="8" t="s">
@@ -10181,7 +10191,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11">
       <c r="A313" s="6" t="s">
         <v>561</v>
       </c>
@@ -10192,7 +10202,7 @@
         <v>670</v>
       </c>
       <c r="D313" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>312</v>
       </c>
       <c r="H313" s="8" t="s">
@@ -10202,7 +10212,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11">
       <c r="A314" s="6" t="s">
         <v>561</v>
       </c>
@@ -10213,7 +10223,7 @@
         <v>673</v>
       </c>
       <c r="D314" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>313</v>
       </c>
       <c r="H314" s="8" t="s">
@@ -10223,7 +10233,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11">
       <c r="A315" s="6" t="s">
         <v>561</v>
       </c>
@@ -10234,7 +10244,7 @@
         <v>676</v>
       </c>
       <c r="D315" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>314</v>
       </c>
       <c r="H315" s="8" t="s">
@@ -10244,7 +10254,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11">
       <c r="A316" s="6" t="s">
         <v>561</v>
       </c>
@@ -10255,7 +10265,7 @@
         <v>679</v>
       </c>
       <c r="D316" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>315</v>
       </c>
       <c r="H316" s="8" t="s">
@@ -10265,7 +10275,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11">
       <c r="A317" s="6" t="s">
         <v>561</v>
       </c>
@@ -10276,7 +10286,7 @@
         <v>574</v>
       </c>
       <c r="D317" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>316</v>
       </c>
       <c r="H317" s="8" t="s">
@@ -10286,7 +10296,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11">
       <c r="A318" s="6" t="s">
         <v>561</v>
       </c>
@@ -10297,7 +10307,7 @@
         <v>684</v>
       </c>
       <c r="D318" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>317</v>
       </c>
       <c r="H318" s="8" t="s">
@@ -10307,7 +10317,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11">
       <c r="A319" s="6" t="s">
         <v>561</v>
       </c>
@@ -10318,7 +10328,7 @@
         <v>500</v>
       </c>
       <c r="D319" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>318</v>
       </c>
       <c r="H319" s="8" t="s">
@@ -10328,7 +10338,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11">
       <c r="A320" s="6" t="s">
         <v>561</v>
       </c>
@@ -10339,7 +10349,7 @@
         <v>689</v>
       </c>
       <c r="D320" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>319</v>
       </c>
       <c r="H320" s="8" t="s">
@@ -10349,7 +10359,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11">
       <c r="A321" s="6" t="s">
         <v>561</v>
       </c>
@@ -10360,7 +10370,7 @@
         <v>692</v>
       </c>
       <c r="D321" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>320</v>
       </c>
       <c r="H321" s="8" t="s">
@@ -10370,7 +10380,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11">
       <c r="A322" s="6" t="s">
         <v>561</v>
       </c>
@@ -10381,7 +10391,7 @@
         <v>696</v>
       </c>
       <c r="D322" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>321</v>
       </c>
       <c r="H322" s="8" t="s">
@@ -10391,7 +10401,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11">
       <c r="A323" s="6" t="s">
         <v>561</v>
       </c>
@@ -10402,7 +10412,7 @@
         <v>698</v>
       </c>
       <c r="D323" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>322</v>
       </c>
       <c r="H323" s="8" t="s">
@@ -10412,7 +10422,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11">
       <c r="A324" s="6" t="s">
         <v>561</v>
       </c>
@@ -10423,7 +10433,7 @@
         <v>700</v>
       </c>
       <c r="D324" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>323</v>
       </c>
       <c r="H324" s="8" t="s">
@@ -10433,7 +10443,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11">
       <c r="A325" s="6" t="s">
         <v>561</v>
       </c>
@@ -10444,7 +10454,7 @@
         <v>702</v>
       </c>
       <c r="D325" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>324</v>
       </c>
       <c r="H325" s="8" t="s">
@@ -10454,7 +10464,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11">
       <c r="A326" s="6" t="s">
         <v>561</v>
       </c>
@@ -10465,7 +10475,7 @@
         <v>704</v>
       </c>
       <c r="D326" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>325</v>
       </c>
       <c r="H326" s="8" t="s">
@@ -10475,7 +10485,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11">
       <c r="A327" s="6" t="s">
         <v>561</v>
       </c>
@@ -10486,7 +10496,7 @@
         <v>706</v>
       </c>
       <c r="D327" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>326</v>
       </c>
       <c r="H327" s="8" t="s">
@@ -10496,7 +10506,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11">
       <c r="A328" s="6" t="s">
         <v>561</v>
       </c>
@@ -10507,7 +10517,7 @@
         <v>709</v>
       </c>
       <c r="D328" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>327</v>
       </c>
       <c r="H328" s="8" t="s">
@@ -10517,7 +10527,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11">
       <c r="A329" s="6" t="s">
         <v>561</v>
       </c>
@@ -10528,7 +10538,7 @@
         <v>711</v>
       </c>
       <c r="D329" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>328</v>
       </c>
       <c r="H329" s="8" t="s">
@@ -10538,7 +10548,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11">
       <c r="A330" s="6" t="s">
         <v>561</v>
       </c>
@@ -10549,7 +10559,7 @@
         <v>221</v>
       </c>
       <c r="D330" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>329</v>
       </c>
       <c r="H330" s="8" t="s">
@@ -10559,7 +10569,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11">
       <c r="A331" s="6" t="s">
         <v>561</v>
       </c>
@@ -10570,7 +10580,7 @@
         <v>221</v>
       </c>
       <c r="D331" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>330</v>
       </c>
       <c r="H331" s="8" t="s">
@@ -10580,7 +10590,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11">
       <c r="A332" s="6" t="s">
         <v>561</v>
       </c>
@@ -10591,7 +10601,7 @@
         <v>717</v>
       </c>
       <c r="D332" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>331</v>
       </c>
       <c r="H332" s="8" t="s">
@@ -10601,7 +10611,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11">
       <c r="A333" s="6" t="s">
         <v>561</v>
       </c>
@@ -10612,7 +10622,7 @@
         <v>720</v>
       </c>
       <c r="D333" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>332</v>
       </c>
       <c r="H333" s="8" t="s">
@@ -10622,7 +10632,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11">
       <c r="A334" s="6" t="s">
         <v>561</v>
       </c>
@@ -10633,7 +10643,7 @@
         <v>586</v>
       </c>
       <c r="D334" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>333</v>
       </c>
       <c r="H334" s="8" t="s">
@@ -10643,7 +10653,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11">
       <c r="A335" s="6" t="s">
         <v>561</v>
       </c>
@@ -10654,7 +10664,7 @@
         <v>574</v>
       </c>
       <c r="D335" s="6">
-        <f t="shared" si="5"/>
+        <f>ROW() - 1</f>
         <v>334</v>
       </c>
       <c r="H335" s="8" t="s">
@@ -10664,7 +10674,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11">
       <c r="A336" s="6" t="s">
         <v>251</v>
       </c>
@@ -10687,11 +10697,65 @@
         <v>729</v>
       </c>
     </row>
+    <row r="337" spans="1:11">
+      <c r="A337" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D337" s="1">
+        <v>335</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H337" s="2">
+        <v>2022</v>
+      </c>
+      <c r="I337" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11">
+      <c r="A338" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="D338" s="1">
+        <v>337</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H338" s="2">
+        <v>2022</v>
+      </c>
+      <c r="I338" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="B1:B336" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="B1:B336"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>